--- a/Databases & API sheet/Click Lunch API.xlsx
+++ b/Databases & API sheet/Click Lunch API.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Customer API" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Delivery Boy API" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="iPad App" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,23 +13,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
   <si>
     <t>Delivery Boy APIs</t>
   </si>
   <si>
+    <t>Shop iPad APIs</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>ClickLunch123*#*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Customer APIs                        </t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>ClickLunch123*#*</t>
-  </si>
-  <si>
     <t>API Name</t>
   </si>
   <si>
@@ -50,18 +54,39 @@
     <t>http://13.58.201.178/api/delivery_boy_api/init/1.0.0/delivery_boy_android</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/init/1.0.0/ipad</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/init/1.0.0/ios</t>
+  </si>
+  <si>
     <t>GET</t>
   </si>
   <si>
     <t>app_version, type (delivery_boy_android)</t>
   </si>
   <si>
+    <t>app_version, type (ipad)</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/delivery_boy_api/login</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/login</t>
+  </si>
+  <si>
+    <t>app_version, type (ios/android)</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/register</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
@@ -77,61 +102,10 @@
     <t>http://13.58.201.178/api/delivery_boy_api/logout</t>
   </si>
   <si>
-    <t>delivery_boy_id</t>
-  </si>
-  <si>
-    <t>Change Password</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/change_password</t>
-  </si>
-  <si>
-    <t>current_password, new_password, confirm_new_password, delivery_boy_id</t>
-  </si>
-  <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/forgot_password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>My Profile</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/myprofile</t>
-  </si>
-  <si>
-    <t>Profile Picture Path
-http://13.58.201.178/assets/files/delivery_boy_photos/IMAGE_NAME</t>
-  </si>
-  <si>
-    <t>Update Profile Info</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/update_profile</t>
-  </si>
-  <si>
-    <t>delivery_boy_id, mobile_number, image (FILE)</t>
-  </si>
-  <si>
-    <t>date_of_birth format (YYYY-MM-DD)
-Profile Picture Path
-http://13.58.201.178/assets/files/delivery_boy_photos/IMAGE_NAME</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/init/1.0.0/ios</t>
-  </si>
-  <si>
-    <t>app_version, type (ios/android)</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/register</t>
+    <t>email,password,device_token</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/logout</t>
   </si>
   <si>
     <t>username, email, password, mobile_number, date_of_birth, gender, device_token, device_type, latitude, longitude 
@@ -147,25 +121,118 @@
     <t>http://13.58.201.178/api/customer_api/login</t>
   </si>
   <si>
+    <t>delivery_boy_id</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/change_password</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/change_password</t>
+  </si>
+  <si>
+    <t>current_password, new_password, confirm_new_password, delivery_boy_id</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/forgot_password</t>
+  </si>
+  <si>
     <t>email, password, device_token, device_type, latitude, longitude</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/customer_api/logout</t>
   </si>
   <si>
+    <t>current_password,new_password,shop_id</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/forgot_password2</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/myprofile</t>
+  </si>
+  <si>
     <t>customer_id</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/customer_api/change_password</t>
   </si>
   <si>
+    <t>My profile</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/myprofile</t>
+  </si>
+  <si>
+    <t>Profile Picture Path
+http://13.58.201.178/assets/files/delivery_boy_photos/IMAGE_NAME</t>
+  </si>
+  <si>
+    <t>Update Profile Info</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/update_profile</t>
+  </si>
+  <si>
     <t>current_password, new_password, confirm_new_password, customer_id</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/customer_api/forgot_password</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/register</t>
+  </si>
+  <si>
+    <t>delivery_boy_id, username,mobile_number, image (FILE)</t>
+  </si>
+  <si>
+    <t>date_of_birth format (YYYY-MM-DD)
+Profile Picture Path
+http://13.58.201.178/assets/files/delivery_boy_photos/IMAGE_NAME</t>
+  </si>
+  <si>
+    <t>Order Accept / Reject</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/order_action</t>
+  </si>
+  <si>
     <t>http://13.58.201.178/api/customer_api/myprofile</t>
+  </si>
+  <si>
+    <t>email,shop_name,address,contact_no,message</t>
+  </si>
+  <si>
+    <t>My Order</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/myorders</t>
+  </si>
+  <si>
+    <t>order_id, accept_reject, delivery_boy_id</t>
+  </si>
+  <si>
+    <t>Accept - 1 , Reject - 0</t>
+  </si>
+  <si>
+    <t>Get orders</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/myorders</t>
   </si>
   <si>
     <t>Profile Picture Path
@@ -173,6 +240,24 @@
   </si>
   <si>
     <t>http://13.58.201.178/api/customer_api/update_profile</t>
+  </si>
+  <si>
+    <t>shop_id,order_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1-Deliver Now, 2-Deliver Later, 3-Takeout, 4-Takeout Later, 5 - weekly</t>
+  </si>
+  <si>
+    <t>delivery_boy_id, order_type</t>
+  </si>
+  <si>
+    <t>order_type : 1 - current orders , 2 - upcoming orders</t>
+  </si>
+  <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/order_detail</t>
   </si>
   <si>
     <t>customer_id, mobile_number, date_of_birth, gender(0 - male, 1- female), image (FILE)</t>
@@ -189,6 +274,20 @@
     <t>http://13.58.201.178/api/customer_api/setting</t>
   </si>
   <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>Shop Picture Path
+http://13.58.201.178/assets/files/profile_pictures/IMAGE_NAME
+payment_mode : 0 - Card , 1 - Apple Pay, 2 - Google Pay</t>
+  </si>
+  <si>
+    <t>Weekly Order</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/my_weekly_orders</t>
+  </si>
+  <si>
     <t>customer_id, setting_name, status (0/1)</t>
   </si>
   <si>
@@ -202,6 +301,12 @@
     <t>http://13.58.201.178/api/customer_api/my_delivery_address</t>
   </si>
   <si>
+    <t>delivery_boy_id, date</t>
+  </si>
+  <si>
+    <t>date format - 2019-03-01 (Y-M-D)</t>
+  </si>
+  <si>
     <t>address_type :  1 - office, 2 - home, 3 - other</t>
   </si>
   <si>
@@ -253,13 +358,13 @@
     <t>http://13.58.201.178/api/customer_api/add_payment_card</t>
   </si>
   <si>
-    <t>customer_id, card_holder_name, card_number, expiry_date,cvv, nickname(Optional), card_type (1 - visa, 2 - Mastercard, 3 - American Express, 4 - Diners Club, 5 - Discover, 6 - JCB)</t>
+    <t>customer_id, card_holder_name, card_number, expiry_date,cvv, nickname(Optional), card_type (1 - Visa, 2 - Mastercard, 3 - American Express, 4 - Diners Club, 5 - Discover, 6 - JCB, 7- Other)</t>
   </si>
   <si>
     <t xml:space="preserve">Example:
 customer_id - 6
 card_holder_name - Dhrumi
-card_number - 4242 4242 4242 4242
+card_number - 4242424242424242
 expiry_date - 11/2025
 cvv - 777
 card_type - 1 </t>
@@ -278,7 +383,7 @@
 customer_id - 6
 payment_card_id - 2
 card_holder_name - Dhrumi
-card_number - 4242 4242 4242 4242
+card_number - 4242424242424242
 expiry_date - 11/2025
 cvv - 777
 card_type - 1 </t>
@@ -293,26 +398,37 @@
     <t>customer_id, payment_card_id</t>
   </si>
   <si>
+    <t>Takeout / Delievery page</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/home</t>
+  </si>
+  <si>
+    <t>customer_id, latitude, longitude, page_number ( DO NOT PASS THIS FOR ALL RESULT), address_id, filter_by</t>
+  </si>
+  <si>
+    <t>filter_by : 1 - delivery avlilable shops , 2- take availbale shops
+page_number = 1 (recent 10 shop), 2 = (next 10 shop)
+All parameter all optional</t>
+  </si>
+  <si>
     <t>Home Page</t>
   </si>
   <si>
-    <t>http://13.58.201.178/api/customer_api/home</t>
-  </si>
-  <si>
     <t>customer_id, latitude, longitude, page_number ( DO NOT PASS THIS FOR ALL RESULT), cuisine (Comma seprated values), address_id</t>
   </si>
   <si>
     <t>page_number = 1 (recent 10 shop), 2 = (next 10 shop)
-All parameter all optional</t>
+All parameter all optional
+Banner Picture Path
+http://13.58.201.178/assets/files/banners/IMAGE_NAME
+takeout_delivery_status = 1 - delievry, 2- takeout,  3- both</t>
   </si>
   <si>
     <t>View Shop &amp; Products</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/customer_api/shop</t>
-  </si>
-  <si>
-    <t>shop_id</t>
   </si>
   <si>
     <t>Shop Picture Path
@@ -343,23 +459,118 @@
     <t>table_name (category/cuisine)</t>
   </si>
   <si>
-    <t>Add shop as favorite</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/favorite_shop</t>
-  </si>
-  <si>
-    <t>customer_id, shop_id</t>
-  </si>
-  <si>
-    <t>Do not implement</t>
+    <t>Get Applicable Promocodes</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/fetch_promocode</t>
+  </si>
+  <si>
+    <t>customer_id, shop_id, total_amount, products(comma separated products ids)</t>
+  </si>
+  <si>
+    <t>Validate Promocode</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/validate_promocode</t>
+  </si>
+  <si>
+    <t>customer_id, shop_id, total_amount, products(comma separated products ids), promocode</t>
+  </si>
+  <si>
+    <t>valid_promocode - TRUE (if valid promocode)
+discount_type : 0- flat $, 1 - perc %
+promo_type: 1- Product based promocode,2-Order based promocode
+-------------------------
+if promo_type -1
+valid_product : array of product for apply</t>
+  </si>
+  <si>
+    <t>Get delivery charge by address</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/fetch_delivery_charge</t>
+  </si>
+  <si>
+    <t>delivery_address_id, shop_id</t>
+  </si>
+  <si>
+    <t>Submit order</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/place_order</t>
+  </si>
+  <si>
+    <t>order_data</t>
+  </si>
+  <si>
+    <t>order_type : 1-Deliver Now, 2-Deliver Later, 3-Takeout, 4-Takeout Later, 5 - Weekly
+payment_mode :         0 - Card , 1 - Apple Pay, 2 - Google Pay
+order_data json array as per document i have shared
+schedule_date &amp; schedule_time required if order type is weekly
+schedule_date format - 2019-03-01 (Y-M-D)
+schedule_time format - 10:30 AM (12 hour format)
+later_time  format - 01:09 PM (12 hour format)
+-----------------------------------------------
+json variables : 
+customer_id, shop_id, promocode_id, tax, service_charge, order_type, later_time[optional], schedule_date[optional], schedule_time[optional], payment_mode, payment_card_id, delivery_address_id, delivery_charges, products</t>
+  </si>
+  <si>
+    <t>{"amount":"","customer_id":"33","delivery_address_id":"24","delivery_charges":"2.90","order_type":"1","payment_card_id":"","payment_mode":"","products":[{"product_id":"27","qty":"1","variants_id":["64","69"]},{"product_id":"29","qty":"1","variants_id":["42","43"]}],"service_charge":"0.50","shop_id":"58","tax":"1.50"}</t>
+  </si>
+  <si>
+    <t>Validate prices before checkout</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/validate_prices</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>{"products":[
+        {"id":"25","price":"100.00"},
+        {"id":"20","price":"189.00"}
+],
+"varients":[
+        {"id":"77","price":"20.00"},
+        {"id":"78","price":"2.00"},
+        {"id":"79","price":"3.00"},
+        {"id":"80","price":"5.00"},
+        {"id":"81","price":"10.80"}
+]}</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/weekly</t>
+  </si>
+  <si>
+    <t>latitude, longitude</t>
+  </si>
+  <si>
+    <t>All parameter are optional
+takeout_delivery_status = 1 - delievry, 2- takeout,  3- both</t>
+  </si>
+  <si>
+    <t>Search Shops</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/search</t>
+  </si>
+  <si>
+    <t>keyword, latitude[optional], longitude[optional], order_type</t>
+  </si>
+  <si>
+    <t>keyword should contain more than 2 charachter
+order_type = 1 - delievry, 2 - takeout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -374,13 +585,13 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="14.0"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="14.0"/>
       <name val="Calibri"/>
@@ -396,13 +607,31 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF505050"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -412,26 +641,21 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF505050"/>
+      <name val="OpenSans"/>
     </font>
     <font>
-      <color rgb="FF1F497D"/>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF505050"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF999999"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF999999"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -450,13 +674,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -502,6 +731,9 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -515,11 +747,6 @@
       </bottom>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF95B3D7"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -528,9 +755,25 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -541,110 +784,125 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,6 +918,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -681,3502 +943,3582 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="18" t="s">
+      <c r="B10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>96</v>
+      <c r="E26" s="36" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>99</v>
+      <c r="A27" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>101</v>
+        <v>133</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>134</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="29">
-      <c r="D29" s="34"/>
+      <c r="A29" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30">
-      <c r="D30" s="34"/>
+      <c r="A30" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="31">
-      <c r="D31" s="34"/>
+      <c r="A31" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="32">
-      <c r="D32" s="34"/>
+      <c r="A32" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="33">
-      <c r="D33" s="34"/>
+      <c r="A33" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="34">
-      <c r="D34" s="34"/>
+      <c r="A34" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="35">
-      <c r="D35" s="34"/>
+      <c r="A35" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="36">
-      <c r="D36" s="34"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37">
-      <c r="D37" s="34"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38">
-      <c r="D38" s="34"/>
+      <c r="D38" s="41"/>
     </row>
     <row r="39">
-      <c r="D39" s="34"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40">
-      <c r="D40" s="34"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41">
-      <c r="D41" s="34"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42">
-      <c r="D42" s="34"/>
+      <c r="D42" s="41"/>
     </row>
     <row r="43">
-      <c r="D43" s="34"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44">
-      <c r="D44" s="34"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45">
-      <c r="D45" s="34"/>
+      <c r="D45" s="41"/>
     </row>
     <row r="46">
-      <c r="D46" s="34"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47">
-      <c r="D47" s="34"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48">
-      <c r="D48" s="34"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49">
-      <c r="D49" s="34"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50">
-      <c r="D50" s="34"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51">
-      <c r="D51" s="34"/>
+      <c r="D51" s="41"/>
     </row>
     <row r="52">
-      <c r="D52" s="34"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53">
-      <c r="D53" s="34"/>
+      <c r="D53" s="41"/>
     </row>
     <row r="54">
-      <c r="D54" s="34"/>
+      <c r="D54" s="41"/>
     </row>
     <row r="55">
-      <c r="D55" s="34"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56">
-      <c r="D56" s="34"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57">
-      <c r="D57" s="34"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58">
-      <c r="D58" s="34"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59">
-      <c r="D59" s="34"/>
+      <c r="D59" s="41"/>
     </row>
     <row r="60">
-      <c r="D60" s="34"/>
+      <c r="D60" s="41"/>
     </row>
     <row r="61">
-      <c r="D61" s="34"/>
+      <c r="D61" s="41"/>
     </row>
     <row r="62">
-      <c r="D62" s="34"/>
+      <c r="D62" s="41"/>
     </row>
     <row r="63">
-      <c r="D63" s="34"/>
+      <c r="D63" s="41"/>
     </row>
     <row r="64">
-      <c r="D64" s="34"/>
+      <c r="D64" s="41"/>
     </row>
     <row r="65">
-      <c r="D65" s="34"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66">
-      <c r="D66" s="34"/>
+      <c r="D66" s="41"/>
     </row>
     <row r="67">
-      <c r="D67" s="34"/>
+      <c r="D67" s="41"/>
     </row>
     <row r="68">
-      <c r="D68" s="34"/>
+      <c r="D68" s="41"/>
     </row>
     <row r="69">
-      <c r="D69" s="34"/>
+      <c r="D69" s="41"/>
     </row>
     <row r="70">
-      <c r="D70" s="34"/>
+      <c r="D70" s="41"/>
     </row>
     <row r="71">
-      <c r="D71" s="34"/>
+      <c r="D71" s="41"/>
     </row>
     <row r="72">
-      <c r="D72" s="34"/>
+      <c r="D72" s="41"/>
     </row>
     <row r="73">
-      <c r="D73" s="34"/>
+      <c r="D73" s="41"/>
     </row>
     <row r="74">
-      <c r="D74" s="34"/>
+      <c r="D74" s="41"/>
     </row>
     <row r="75">
-      <c r="D75" s="34"/>
+      <c r="D75" s="41"/>
     </row>
     <row r="76">
-      <c r="D76" s="34"/>
+      <c r="D76" s="41"/>
     </row>
     <row r="77">
-      <c r="D77" s="34"/>
+      <c r="D77" s="41"/>
     </row>
     <row r="78">
-      <c r="D78" s="34"/>
+      <c r="D78" s="41"/>
     </row>
     <row r="79">
-      <c r="D79" s="34"/>
+      <c r="D79" s="41"/>
     </row>
     <row r="80">
-      <c r="D80" s="34"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81">
-      <c r="D81" s="34"/>
+      <c r="D81" s="41"/>
     </row>
     <row r="82">
-      <c r="D82" s="34"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83">
-      <c r="D83" s="34"/>
+      <c r="D83" s="41"/>
     </row>
     <row r="84">
-      <c r="D84" s="34"/>
+      <c r="D84" s="41"/>
     </row>
     <row r="85">
-      <c r="D85" s="34"/>
+      <c r="D85" s="41"/>
     </row>
     <row r="86">
-      <c r="D86" s="34"/>
+      <c r="D86" s="41"/>
     </row>
     <row r="87">
-      <c r="D87" s="34"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88">
-      <c r="D88" s="34"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89">
-      <c r="D89" s="34"/>
+      <c r="D89" s="41"/>
     </row>
     <row r="90">
-      <c r="D90" s="34"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91">
-      <c r="D91" s="34"/>
+      <c r="D91" s="41"/>
     </row>
     <row r="92">
-      <c r="D92" s="34"/>
+      <c r="D92" s="41"/>
     </row>
     <row r="93">
-      <c r="D93" s="34"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94">
-      <c r="D94" s="34"/>
+      <c r="D94" s="41"/>
     </row>
     <row r="95">
-      <c r="D95" s="34"/>
+      <c r="D95" s="41"/>
     </row>
     <row r="96">
-      <c r="D96" s="34"/>
+      <c r="D96" s="41"/>
     </row>
     <row r="97">
-      <c r="D97" s="34"/>
+      <c r="D97" s="41"/>
     </row>
     <row r="98">
-      <c r="D98" s="34"/>
+      <c r="D98" s="41"/>
     </row>
     <row r="99">
-      <c r="D99" s="34"/>
+      <c r="D99" s="41"/>
     </row>
     <row r="100">
-      <c r="D100" s="34"/>
+      <c r="D100" s="41"/>
     </row>
     <row r="101">
-      <c r="D101" s="34"/>
+      <c r="D101" s="41"/>
     </row>
     <row r="102">
-      <c r="D102" s="34"/>
+      <c r="D102" s="41"/>
     </row>
     <row r="103">
-      <c r="D103" s="34"/>
+      <c r="D103" s="41"/>
     </row>
     <row r="104">
-      <c r="D104" s="34"/>
+      <c r="D104" s="41"/>
     </row>
     <row r="105">
-      <c r="D105" s="34"/>
+      <c r="D105" s="41"/>
     </row>
     <row r="106">
-      <c r="D106" s="34"/>
+      <c r="D106" s="41"/>
     </row>
     <row r="107">
-      <c r="D107" s="34"/>
+      <c r="D107" s="41"/>
     </row>
     <row r="108">
-      <c r="D108" s="34"/>
+      <c r="D108" s="41"/>
     </row>
     <row r="109">
-      <c r="D109" s="34"/>
+      <c r="D109" s="41"/>
     </row>
     <row r="110">
-      <c r="D110" s="34"/>
+      <c r="D110" s="41"/>
     </row>
     <row r="111">
-      <c r="D111" s="34"/>
+      <c r="D111" s="41"/>
     </row>
     <row r="112">
-      <c r="D112" s="34"/>
+      <c r="D112" s="41"/>
     </row>
     <row r="113">
-      <c r="D113" s="34"/>
+      <c r="D113" s="41"/>
     </row>
     <row r="114">
-      <c r="D114" s="34"/>
+      <c r="D114" s="41"/>
     </row>
     <row r="115">
-      <c r="D115" s="34"/>
+      <c r="D115" s="41"/>
     </row>
     <row r="116">
-      <c r="D116" s="34"/>
+      <c r="D116" s="41"/>
     </row>
     <row r="117">
-      <c r="D117" s="34"/>
+      <c r="D117" s="41"/>
     </row>
     <row r="118">
-      <c r="D118" s="34"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="119">
-      <c r="D119" s="34"/>
+      <c r="D119" s="41"/>
     </row>
     <row r="120">
-      <c r="D120" s="34"/>
+      <c r="D120" s="41"/>
     </row>
     <row r="121">
-      <c r="D121" s="34"/>
+      <c r="D121" s="41"/>
     </row>
     <row r="122">
-      <c r="D122" s="34"/>
+      <c r="D122" s="41"/>
     </row>
     <row r="123">
-      <c r="D123" s="34"/>
+      <c r="D123" s="41"/>
     </row>
     <row r="124">
-      <c r="D124" s="34"/>
+      <c r="D124" s="41"/>
     </row>
     <row r="125">
-      <c r="D125" s="34"/>
+      <c r="D125" s="41"/>
     </row>
     <row r="126">
-      <c r="D126" s="34"/>
+      <c r="D126" s="41"/>
     </row>
     <row r="127">
-      <c r="D127" s="34"/>
+      <c r="D127" s="41"/>
     </row>
     <row r="128">
-      <c r="D128" s="34"/>
+      <c r="D128" s="41"/>
     </row>
     <row r="129">
-      <c r="D129" s="34"/>
+      <c r="D129" s="41"/>
     </row>
     <row r="130">
-      <c r="D130" s="34"/>
+      <c r="D130" s="41"/>
     </row>
     <row r="131">
-      <c r="D131" s="34"/>
+      <c r="D131" s="41"/>
     </row>
     <row r="132">
-      <c r="D132" s="34"/>
+      <c r="D132" s="41"/>
     </row>
     <row r="133">
-      <c r="D133" s="34"/>
+      <c r="D133" s="41"/>
     </row>
     <row r="134">
-      <c r="D134" s="34"/>
+      <c r="D134" s="41"/>
     </row>
     <row r="135">
-      <c r="D135" s="34"/>
+      <c r="D135" s="41"/>
     </row>
     <row r="136">
-      <c r="D136" s="34"/>
+      <c r="D136" s="41"/>
     </row>
     <row r="137">
-      <c r="D137" s="34"/>
+      <c r="D137" s="41"/>
     </row>
     <row r="138">
-      <c r="D138" s="34"/>
+      <c r="D138" s="41"/>
     </row>
     <row r="139">
-      <c r="D139" s="34"/>
+      <c r="D139" s="41"/>
     </row>
     <row r="140">
-      <c r="D140" s="34"/>
+      <c r="D140" s="41"/>
     </row>
     <row r="141">
-      <c r="D141" s="34"/>
+      <c r="D141" s="41"/>
     </row>
     <row r="142">
-      <c r="D142" s="34"/>
+      <c r="D142" s="41"/>
     </row>
     <row r="143">
-      <c r="D143" s="34"/>
+      <c r="D143" s="41"/>
     </row>
     <row r="144">
-      <c r="D144" s="34"/>
+      <c r="D144" s="41"/>
     </row>
     <row r="145">
-      <c r="D145" s="34"/>
+      <c r="D145" s="41"/>
     </row>
     <row r="146">
-      <c r="D146" s="34"/>
+      <c r="D146" s="41"/>
     </row>
     <row r="147">
-      <c r="D147" s="34"/>
+      <c r="D147" s="41"/>
     </row>
     <row r="148">
-      <c r="D148" s="34"/>
+      <c r="D148" s="41"/>
     </row>
     <row r="149">
-      <c r="D149" s="34"/>
+      <c r="D149" s="41"/>
     </row>
     <row r="150">
-      <c r="D150" s="34"/>
+      <c r="D150" s="41"/>
     </row>
     <row r="151">
-      <c r="D151" s="34"/>
+      <c r="D151" s="41"/>
     </row>
     <row r="152">
-      <c r="D152" s="34"/>
+      <c r="D152" s="41"/>
     </row>
     <row r="153">
-      <c r="D153" s="34"/>
+      <c r="D153" s="41"/>
     </row>
     <row r="154">
-      <c r="D154" s="34"/>
+      <c r="D154" s="41"/>
     </row>
     <row r="155">
-      <c r="D155" s="34"/>
+      <c r="D155" s="41"/>
     </row>
     <row r="156">
-      <c r="D156" s="34"/>
+      <c r="D156" s="41"/>
     </row>
     <row r="157">
-      <c r="D157" s="34"/>
+      <c r="D157" s="41"/>
     </row>
     <row r="158">
-      <c r="D158" s="34"/>
+      <c r="D158" s="41"/>
     </row>
     <row r="159">
-      <c r="D159" s="34"/>
+      <c r="D159" s="41"/>
     </row>
     <row r="160">
-      <c r="D160" s="34"/>
+      <c r="D160" s="41"/>
     </row>
     <row r="161">
-      <c r="D161" s="34"/>
+      <c r="D161" s="41"/>
     </row>
     <row r="162">
-      <c r="D162" s="34"/>
+      <c r="D162" s="41"/>
     </row>
     <row r="163">
-      <c r="D163" s="34"/>
+      <c r="D163" s="41"/>
     </row>
     <row r="164">
-      <c r="D164" s="34"/>
+      <c r="D164" s="41"/>
     </row>
     <row r="165">
-      <c r="D165" s="34"/>
+      <c r="D165" s="41"/>
     </row>
     <row r="166">
-      <c r="D166" s="34"/>
+      <c r="D166" s="41"/>
     </row>
     <row r="167">
-      <c r="D167" s="34"/>
+      <c r="D167" s="41"/>
     </row>
     <row r="168">
-      <c r="D168" s="34"/>
+      <c r="D168" s="41"/>
     </row>
     <row r="169">
-      <c r="D169" s="34"/>
+      <c r="D169" s="41"/>
     </row>
     <row r="170">
-      <c r="D170" s="34"/>
+      <c r="D170" s="41"/>
     </row>
     <row r="171">
-      <c r="D171" s="34"/>
+      <c r="D171" s="41"/>
     </row>
     <row r="172">
-      <c r="D172" s="34"/>
+      <c r="D172" s="41"/>
     </row>
     <row r="173">
-      <c r="D173" s="34"/>
+      <c r="D173" s="41"/>
     </row>
     <row r="174">
-      <c r="D174" s="34"/>
+      <c r="D174" s="41"/>
     </row>
     <row r="175">
-      <c r="D175" s="34"/>
+      <c r="D175" s="41"/>
     </row>
     <row r="176">
-      <c r="D176" s="34"/>
+      <c r="D176" s="41"/>
     </row>
     <row r="177">
-      <c r="D177" s="34"/>
+      <c r="D177" s="41"/>
     </row>
     <row r="178">
-      <c r="D178" s="34"/>
+      <c r="D178" s="41"/>
     </row>
     <row r="179">
-      <c r="D179" s="34"/>
+      <c r="D179" s="41"/>
     </row>
     <row r="180">
-      <c r="D180" s="34"/>
+      <c r="D180" s="41"/>
     </row>
     <row r="181">
-      <c r="D181" s="34"/>
+      <c r="D181" s="41"/>
     </row>
     <row r="182">
-      <c r="D182" s="34"/>
+      <c r="D182" s="41"/>
     </row>
     <row r="183">
-      <c r="D183" s="34"/>
+      <c r="D183" s="41"/>
     </row>
     <row r="184">
-      <c r="D184" s="34"/>
+      <c r="D184" s="41"/>
     </row>
     <row r="185">
-      <c r="D185" s="34"/>
+      <c r="D185" s="41"/>
     </row>
     <row r="186">
-      <c r="D186" s="34"/>
+      <c r="D186" s="41"/>
     </row>
     <row r="187">
-      <c r="D187" s="34"/>
+      <c r="D187" s="41"/>
     </row>
     <row r="188">
-      <c r="D188" s="34"/>
+      <c r="D188" s="41"/>
     </row>
     <row r="189">
-      <c r="D189" s="34"/>
+      <c r="D189" s="41"/>
     </row>
     <row r="190">
-      <c r="D190" s="34"/>
+      <c r="D190" s="41"/>
     </row>
     <row r="191">
-      <c r="D191" s="34"/>
+      <c r="D191" s="41"/>
     </row>
     <row r="192">
-      <c r="D192" s="34"/>
+      <c r="D192" s="41"/>
     </row>
     <row r="193">
-      <c r="D193" s="34"/>
+      <c r="D193" s="41"/>
     </row>
     <row r="194">
-      <c r="D194" s="34"/>
+      <c r="D194" s="41"/>
     </row>
     <row r="195">
-      <c r="D195" s="34"/>
+      <c r="D195" s="41"/>
     </row>
     <row r="196">
-      <c r="D196" s="34"/>
+      <c r="D196" s="41"/>
     </row>
     <row r="197">
-      <c r="D197" s="34"/>
+      <c r="D197" s="41"/>
     </row>
     <row r="198">
-      <c r="D198" s="34"/>
+      <c r="D198" s="41"/>
     </row>
     <row r="199">
-      <c r="D199" s="34"/>
+      <c r="D199" s="41"/>
     </row>
     <row r="200">
-      <c r="D200" s="34"/>
+      <c r="D200" s="41"/>
     </row>
     <row r="201">
-      <c r="D201" s="34"/>
+      <c r="D201" s="41"/>
     </row>
     <row r="202">
-      <c r="D202" s="34"/>
+      <c r="D202" s="41"/>
     </row>
     <row r="203">
-      <c r="D203" s="34"/>
+      <c r="D203" s="41"/>
     </row>
     <row r="204">
-      <c r="D204" s="34"/>
+      <c r="D204" s="41"/>
     </row>
     <row r="205">
-      <c r="D205" s="34"/>
+      <c r="D205" s="41"/>
     </row>
     <row r="206">
-      <c r="D206" s="34"/>
+      <c r="D206" s="41"/>
     </row>
     <row r="207">
-      <c r="D207" s="34"/>
+      <c r="D207" s="41"/>
     </row>
     <row r="208">
-      <c r="D208" s="34"/>
+      <c r="D208" s="41"/>
     </row>
     <row r="209">
-      <c r="D209" s="34"/>
+      <c r="D209" s="41"/>
     </row>
     <row r="210">
-      <c r="D210" s="34"/>
+      <c r="D210" s="41"/>
     </row>
     <row r="211">
-      <c r="D211" s="34"/>
+      <c r="D211" s="41"/>
     </row>
     <row r="212">
-      <c r="D212" s="34"/>
+      <c r="D212" s="41"/>
     </row>
     <row r="213">
-      <c r="D213" s="34"/>
+      <c r="D213" s="41"/>
     </row>
     <row r="214">
-      <c r="D214" s="34"/>
+      <c r="D214" s="41"/>
     </row>
     <row r="215">
-      <c r="D215" s="34"/>
+      <c r="D215" s="41"/>
     </row>
     <row r="216">
-      <c r="D216" s="34"/>
+      <c r="D216" s="41"/>
     </row>
     <row r="217">
-      <c r="D217" s="34"/>
+      <c r="D217" s="41"/>
     </row>
     <row r="218">
-      <c r="D218" s="34"/>
+      <c r="D218" s="41"/>
     </row>
     <row r="219">
-      <c r="D219" s="34"/>
+      <c r="D219" s="41"/>
     </row>
     <row r="220">
-      <c r="D220" s="34"/>
+      <c r="D220" s="41"/>
     </row>
     <row r="221">
-      <c r="D221" s="34"/>
+      <c r="D221" s="41"/>
     </row>
     <row r="222">
-      <c r="D222" s="34"/>
+      <c r="D222" s="41"/>
     </row>
     <row r="223">
-      <c r="D223" s="34"/>
+      <c r="D223" s="41"/>
     </row>
     <row r="224">
-      <c r="D224" s="34"/>
+      <c r="D224" s="41"/>
     </row>
     <row r="225">
-      <c r="D225" s="34"/>
+      <c r="D225" s="41"/>
     </row>
     <row r="226">
-      <c r="D226" s="34"/>
+      <c r="D226" s="41"/>
     </row>
     <row r="227">
-      <c r="D227" s="34"/>
+      <c r="D227" s="41"/>
     </row>
     <row r="228">
-      <c r="D228" s="34"/>
+      <c r="D228" s="41"/>
     </row>
     <row r="229">
-      <c r="D229" s="34"/>
+      <c r="D229" s="41"/>
     </row>
     <row r="230">
-      <c r="D230" s="34"/>
+      <c r="D230" s="41"/>
     </row>
     <row r="231">
-      <c r="D231" s="34"/>
+      <c r="D231" s="41"/>
     </row>
     <row r="232">
-      <c r="D232" s="34"/>
+      <c r="D232" s="41"/>
     </row>
     <row r="233">
-      <c r="D233" s="34"/>
+      <c r="D233" s="41"/>
     </row>
     <row r="234">
-      <c r="D234" s="34"/>
+      <c r="D234" s="41"/>
     </row>
     <row r="235">
-      <c r="D235" s="34"/>
+      <c r="D235" s="41"/>
     </row>
     <row r="236">
-      <c r="D236" s="34"/>
+      <c r="D236" s="41"/>
     </row>
     <row r="237">
-      <c r="D237" s="34"/>
+      <c r="D237" s="41"/>
     </row>
     <row r="238">
-      <c r="D238" s="34"/>
+      <c r="D238" s="41"/>
     </row>
     <row r="239">
-      <c r="D239" s="34"/>
+      <c r="D239" s="41"/>
     </row>
     <row r="240">
-      <c r="D240" s="34"/>
+      <c r="D240" s="41"/>
     </row>
     <row r="241">
-      <c r="D241" s="34"/>
+      <c r="D241" s="41"/>
     </row>
     <row r="242">
-      <c r="D242" s="34"/>
+      <c r="D242" s="41"/>
     </row>
     <row r="243">
-      <c r="D243" s="34"/>
+      <c r="D243" s="41"/>
     </row>
     <row r="244">
-      <c r="D244" s="34"/>
+      <c r="D244" s="41"/>
     </row>
     <row r="245">
-      <c r="D245" s="34"/>
+      <c r="D245" s="41"/>
     </row>
     <row r="246">
-      <c r="D246" s="34"/>
+      <c r="D246" s="41"/>
     </row>
     <row r="247">
-      <c r="D247" s="34"/>
+      <c r="D247" s="41"/>
     </row>
     <row r="248">
-      <c r="D248" s="34"/>
+      <c r="D248" s="41"/>
     </row>
     <row r="249">
-      <c r="D249" s="34"/>
+      <c r="D249" s="41"/>
     </row>
     <row r="250">
-      <c r="D250" s="34"/>
+      <c r="D250" s="41"/>
     </row>
     <row r="251">
-      <c r="D251" s="34"/>
+      <c r="D251" s="41"/>
     </row>
     <row r="252">
-      <c r="D252" s="34"/>
+      <c r="D252" s="41"/>
     </row>
     <row r="253">
-      <c r="D253" s="34"/>
+      <c r="D253" s="41"/>
     </row>
     <row r="254">
-      <c r="D254" s="34"/>
+      <c r="D254" s="41"/>
     </row>
     <row r="255">
-      <c r="D255" s="34"/>
+      <c r="D255" s="41"/>
     </row>
     <row r="256">
-      <c r="D256" s="34"/>
+      <c r="D256" s="41"/>
     </row>
     <row r="257">
-      <c r="D257" s="34"/>
+      <c r="D257" s="41"/>
     </row>
     <row r="258">
-      <c r="D258" s="34"/>
+      <c r="D258" s="41"/>
     </row>
     <row r="259">
-      <c r="D259" s="34"/>
+      <c r="D259" s="41"/>
     </row>
     <row r="260">
-      <c r="D260" s="34"/>
+      <c r="D260" s="41"/>
     </row>
     <row r="261">
-      <c r="D261" s="34"/>
+      <c r="D261" s="41"/>
     </row>
     <row r="262">
-      <c r="D262" s="34"/>
+      <c r="D262" s="41"/>
     </row>
     <row r="263">
-      <c r="D263" s="34"/>
+      <c r="D263" s="41"/>
     </row>
     <row r="264">
-      <c r="D264" s="34"/>
+      <c r="D264" s="41"/>
     </row>
     <row r="265">
-      <c r="D265" s="34"/>
+      <c r="D265" s="41"/>
     </row>
     <row r="266">
-      <c r="D266" s="34"/>
+      <c r="D266" s="41"/>
     </row>
     <row r="267">
-      <c r="D267" s="34"/>
+      <c r="D267" s="41"/>
     </row>
     <row r="268">
-      <c r="D268" s="34"/>
+      <c r="D268" s="41"/>
     </row>
     <row r="269">
-      <c r="D269" s="34"/>
+      <c r="D269" s="41"/>
     </row>
     <row r="270">
-      <c r="D270" s="34"/>
+      <c r="D270" s="41"/>
     </row>
     <row r="271">
-      <c r="D271" s="34"/>
+      <c r="D271" s="41"/>
     </row>
     <row r="272">
-      <c r="D272" s="34"/>
+      <c r="D272" s="41"/>
     </row>
     <row r="273">
-      <c r="D273" s="34"/>
+      <c r="D273" s="41"/>
     </row>
     <row r="274">
-      <c r="D274" s="34"/>
+      <c r="D274" s="41"/>
     </row>
     <row r="275">
-      <c r="D275" s="34"/>
+      <c r="D275" s="41"/>
     </row>
     <row r="276">
-      <c r="D276" s="34"/>
+      <c r="D276" s="41"/>
     </row>
     <row r="277">
-      <c r="D277" s="34"/>
+      <c r="D277" s="41"/>
     </row>
     <row r="278">
-      <c r="D278" s="34"/>
+      <c r="D278" s="41"/>
     </row>
     <row r="279">
-      <c r="D279" s="34"/>
+      <c r="D279" s="41"/>
     </row>
     <row r="280">
-      <c r="D280" s="34"/>
+      <c r="D280" s="41"/>
     </row>
     <row r="281">
-      <c r="D281" s="34"/>
+      <c r="D281" s="41"/>
     </row>
     <row r="282">
-      <c r="D282" s="34"/>
+      <c r="D282" s="41"/>
     </row>
     <row r="283">
-      <c r="D283" s="34"/>
+      <c r="D283" s="41"/>
     </row>
     <row r="284">
-      <c r="D284" s="34"/>
+      <c r="D284" s="41"/>
     </row>
     <row r="285">
-      <c r="D285" s="34"/>
+      <c r="D285" s="41"/>
     </row>
     <row r="286">
-      <c r="D286" s="34"/>
+      <c r="D286" s="41"/>
     </row>
     <row r="287">
-      <c r="D287" s="34"/>
+      <c r="D287" s="41"/>
     </row>
     <row r="288">
-      <c r="D288" s="34"/>
+      <c r="D288" s="41"/>
     </row>
     <row r="289">
-      <c r="D289" s="34"/>
+      <c r="D289" s="41"/>
     </row>
     <row r="290">
-      <c r="D290" s="34"/>
+      <c r="D290" s="41"/>
     </row>
     <row r="291">
-      <c r="D291" s="34"/>
+      <c r="D291" s="41"/>
     </row>
     <row r="292">
-      <c r="D292" s="34"/>
+      <c r="D292" s="41"/>
     </row>
     <row r="293">
-      <c r="D293" s="34"/>
+      <c r="D293" s="41"/>
     </row>
     <row r="294">
-      <c r="D294" s="34"/>
+      <c r="D294" s="41"/>
     </row>
     <row r="295">
-      <c r="D295" s="34"/>
+      <c r="D295" s="41"/>
     </row>
     <row r="296">
-      <c r="D296" s="34"/>
+      <c r="D296" s="41"/>
     </row>
     <row r="297">
-      <c r="D297" s="34"/>
+      <c r="D297" s="41"/>
     </row>
     <row r="298">
-      <c r="D298" s="34"/>
+      <c r="D298" s="41"/>
     </row>
     <row r="299">
-      <c r="D299" s="34"/>
+      <c r="D299" s="41"/>
     </row>
     <row r="300">
-      <c r="D300" s="34"/>
+      <c r="D300" s="41"/>
     </row>
     <row r="301">
-      <c r="D301" s="34"/>
+      <c r="D301" s="41"/>
     </row>
     <row r="302">
-      <c r="D302" s="34"/>
+      <c r="D302" s="41"/>
     </row>
     <row r="303">
-      <c r="D303" s="34"/>
+      <c r="D303" s="41"/>
     </row>
     <row r="304">
-      <c r="D304" s="34"/>
+      <c r="D304" s="41"/>
     </row>
     <row r="305">
-      <c r="D305" s="34"/>
+      <c r="D305" s="41"/>
     </row>
     <row r="306">
-      <c r="D306" s="34"/>
+      <c r="D306" s="41"/>
     </row>
     <row r="307">
-      <c r="D307" s="34"/>
+      <c r="D307" s="41"/>
     </row>
     <row r="308">
-      <c r="D308" s="34"/>
+      <c r="D308" s="41"/>
     </row>
     <row r="309">
-      <c r="D309" s="34"/>
+      <c r="D309" s="41"/>
     </row>
     <row r="310">
-      <c r="D310" s="34"/>
+      <c r="D310" s="41"/>
     </row>
     <row r="311">
-      <c r="D311" s="34"/>
+      <c r="D311" s="41"/>
     </row>
     <row r="312">
-      <c r="D312" s="34"/>
+      <c r="D312" s="41"/>
     </row>
     <row r="313">
-      <c r="D313" s="34"/>
+      <c r="D313" s="41"/>
     </row>
     <row r="314">
-      <c r="D314" s="34"/>
+      <c r="D314" s="41"/>
     </row>
     <row r="315">
-      <c r="D315" s="34"/>
+      <c r="D315" s="41"/>
     </row>
     <row r="316">
-      <c r="D316" s="34"/>
+      <c r="D316" s="41"/>
     </row>
     <row r="317">
-      <c r="D317" s="34"/>
+      <c r="D317" s="41"/>
     </row>
     <row r="318">
-      <c r="D318" s="34"/>
+      <c r="D318" s="41"/>
     </row>
     <row r="319">
-      <c r="D319" s="34"/>
+      <c r="D319" s="41"/>
     </row>
     <row r="320">
-      <c r="D320" s="34"/>
+      <c r="D320" s="41"/>
     </row>
     <row r="321">
-      <c r="D321" s="34"/>
+      <c r="D321" s="41"/>
     </row>
     <row r="322">
-      <c r="D322" s="34"/>
+      <c r="D322" s="41"/>
     </row>
     <row r="323">
-      <c r="D323" s="34"/>
+      <c r="D323" s="41"/>
     </row>
     <row r="324">
-      <c r="D324" s="34"/>
+      <c r="D324" s="41"/>
     </row>
     <row r="325">
-      <c r="D325" s="34"/>
+      <c r="D325" s="41"/>
     </row>
     <row r="326">
-      <c r="D326" s="34"/>
+      <c r="D326" s="41"/>
     </row>
     <row r="327">
-      <c r="D327" s="34"/>
+      <c r="D327" s="41"/>
     </row>
     <row r="328">
-      <c r="D328" s="34"/>
+      <c r="D328" s="41"/>
     </row>
     <row r="329">
-      <c r="D329" s="34"/>
+      <c r="D329" s="41"/>
     </row>
     <row r="330">
-      <c r="D330" s="34"/>
+      <c r="D330" s="41"/>
     </row>
     <row r="331">
-      <c r="D331" s="34"/>
+      <c r="D331" s="41"/>
     </row>
     <row r="332">
-      <c r="D332" s="34"/>
+      <c r="D332" s="41"/>
     </row>
     <row r="333">
-      <c r="D333" s="34"/>
+      <c r="D333" s="41"/>
     </row>
     <row r="334">
-      <c r="D334" s="34"/>
+      <c r="D334" s="41"/>
     </row>
     <row r="335">
-      <c r="D335" s="34"/>
+      <c r="D335" s="41"/>
     </row>
     <row r="336">
-      <c r="D336" s="34"/>
+      <c r="D336" s="41"/>
     </row>
     <row r="337">
-      <c r="D337" s="34"/>
+      <c r="D337" s="41"/>
     </row>
     <row r="338">
-      <c r="D338" s="34"/>
+      <c r="D338" s="41"/>
     </row>
     <row r="339">
-      <c r="D339" s="34"/>
+      <c r="D339" s="41"/>
     </row>
     <row r="340">
-      <c r="D340" s="34"/>
+      <c r="D340" s="41"/>
     </row>
     <row r="341">
-      <c r="D341" s="34"/>
+      <c r="D341" s="41"/>
     </row>
     <row r="342">
-      <c r="D342" s="34"/>
+      <c r="D342" s="41"/>
     </row>
     <row r="343">
-      <c r="D343" s="34"/>
+      <c r="D343" s="41"/>
     </row>
     <row r="344">
-      <c r="D344" s="34"/>
+      <c r="D344" s="41"/>
     </row>
     <row r="345">
-      <c r="D345" s="34"/>
+      <c r="D345" s="41"/>
     </row>
     <row r="346">
-      <c r="D346" s="34"/>
+      <c r="D346" s="41"/>
     </row>
     <row r="347">
-      <c r="D347" s="34"/>
+      <c r="D347" s="41"/>
     </row>
     <row r="348">
-      <c r="D348" s="34"/>
+      <c r="D348" s="41"/>
     </row>
     <row r="349">
-      <c r="D349" s="34"/>
+      <c r="D349" s="41"/>
     </row>
     <row r="350">
-      <c r="D350" s="34"/>
+      <c r="D350" s="41"/>
     </row>
     <row r="351">
-      <c r="D351" s="34"/>
+      <c r="D351" s="41"/>
     </row>
     <row r="352">
-      <c r="D352" s="34"/>
+      <c r="D352" s="41"/>
     </row>
     <row r="353">
-      <c r="D353" s="34"/>
+      <c r="D353" s="41"/>
     </row>
     <row r="354">
-      <c r="D354" s="34"/>
+      <c r="D354" s="41"/>
     </row>
     <row r="355">
-      <c r="D355" s="34"/>
+      <c r="D355" s="41"/>
     </row>
     <row r="356">
-      <c r="D356" s="34"/>
+      <c r="D356" s="41"/>
     </row>
     <row r="357">
-      <c r="D357" s="34"/>
+      <c r="D357" s="41"/>
     </row>
     <row r="358">
-      <c r="D358" s="34"/>
+      <c r="D358" s="41"/>
     </row>
     <row r="359">
-      <c r="D359" s="34"/>
+      <c r="D359" s="41"/>
     </row>
     <row r="360">
-      <c r="D360" s="34"/>
+      <c r="D360" s="41"/>
     </row>
     <row r="361">
-      <c r="D361" s="34"/>
+      <c r="D361" s="41"/>
     </row>
     <row r="362">
-      <c r="D362" s="34"/>
+      <c r="D362" s="41"/>
     </row>
     <row r="363">
-      <c r="D363" s="34"/>
+      <c r="D363" s="41"/>
     </row>
     <row r="364">
-      <c r="D364" s="34"/>
+      <c r="D364" s="41"/>
     </row>
     <row r="365">
-      <c r="D365" s="34"/>
+      <c r="D365" s="41"/>
     </row>
     <row r="366">
-      <c r="D366" s="34"/>
+      <c r="D366" s="41"/>
     </row>
     <row r="367">
-      <c r="D367" s="34"/>
+      <c r="D367" s="41"/>
     </row>
     <row r="368">
-      <c r="D368" s="34"/>
+      <c r="D368" s="41"/>
     </row>
     <row r="369">
-      <c r="D369" s="34"/>
+      <c r="D369" s="41"/>
     </row>
     <row r="370">
-      <c r="D370" s="34"/>
+      <c r="D370" s="41"/>
     </row>
     <row r="371">
-      <c r="D371" s="34"/>
+      <c r="D371" s="41"/>
     </row>
     <row r="372">
-      <c r="D372" s="34"/>
+      <c r="D372" s="41"/>
     </row>
     <row r="373">
-      <c r="D373" s="34"/>
+      <c r="D373" s="41"/>
     </row>
     <row r="374">
-      <c r="D374" s="34"/>
+      <c r="D374" s="41"/>
     </row>
     <row r="375">
-      <c r="D375" s="34"/>
+      <c r="D375" s="41"/>
     </row>
     <row r="376">
-      <c r="D376" s="34"/>
+      <c r="D376" s="41"/>
     </row>
     <row r="377">
-      <c r="D377" s="34"/>
+      <c r="D377" s="41"/>
     </row>
     <row r="378">
-      <c r="D378" s="34"/>
+      <c r="D378" s="41"/>
     </row>
     <row r="379">
-      <c r="D379" s="34"/>
+      <c r="D379" s="41"/>
     </row>
     <row r="380">
-      <c r="D380" s="34"/>
+      <c r="D380" s="41"/>
     </row>
     <row r="381">
-      <c r="D381" s="34"/>
+      <c r="D381" s="41"/>
     </row>
     <row r="382">
-      <c r="D382" s="34"/>
+      <c r="D382" s="41"/>
     </row>
     <row r="383">
-      <c r="D383" s="34"/>
+      <c r="D383" s="41"/>
     </row>
     <row r="384">
-      <c r="D384" s="34"/>
+      <c r="D384" s="41"/>
     </row>
     <row r="385">
-      <c r="D385" s="34"/>
+      <c r="D385" s="41"/>
     </row>
     <row r="386">
-      <c r="D386" s="34"/>
+      <c r="D386" s="41"/>
     </row>
     <row r="387">
-      <c r="D387" s="34"/>
+      <c r="D387" s="41"/>
     </row>
     <row r="388">
-      <c r="D388" s="34"/>
+      <c r="D388" s="41"/>
     </row>
     <row r="389">
-      <c r="D389" s="34"/>
+      <c r="D389" s="41"/>
     </row>
     <row r="390">
-      <c r="D390" s="34"/>
+      <c r="D390" s="41"/>
     </row>
     <row r="391">
-      <c r="D391" s="34"/>
+      <c r="D391" s="41"/>
     </row>
     <row r="392">
-      <c r="D392" s="34"/>
+      <c r="D392" s="41"/>
     </row>
     <row r="393">
-      <c r="D393" s="34"/>
+      <c r="D393" s="41"/>
     </row>
     <row r="394">
-      <c r="D394" s="34"/>
+      <c r="D394" s="41"/>
     </row>
     <row r="395">
-      <c r="D395" s="34"/>
+      <c r="D395" s="41"/>
     </row>
     <row r="396">
-      <c r="D396" s="34"/>
+      <c r="D396" s="41"/>
     </row>
     <row r="397">
-      <c r="D397" s="34"/>
+      <c r="D397" s="41"/>
     </row>
     <row r="398">
-      <c r="D398" s="34"/>
+      <c r="D398" s="41"/>
     </row>
     <row r="399">
-      <c r="D399" s="34"/>
+      <c r="D399" s="41"/>
     </row>
     <row r="400">
-      <c r="D400" s="34"/>
+      <c r="D400" s="41"/>
     </row>
     <row r="401">
-      <c r="D401" s="34"/>
+      <c r="D401" s="41"/>
     </row>
     <row r="402">
-      <c r="D402" s="34"/>
+      <c r="D402" s="41"/>
     </row>
     <row r="403">
-      <c r="D403" s="34"/>
+      <c r="D403" s="41"/>
     </row>
     <row r="404">
-      <c r="D404" s="34"/>
+      <c r="D404" s="41"/>
     </row>
     <row r="405">
-      <c r="D405" s="34"/>
+      <c r="D405" s="41"/>
     </row>
     <row r="406">
-      <c r="D406" s="34"/>
+      <c r="D406" s="41"/>
     </row>
     <row r="407">
-      <c r="D407" s="34"/>
+      <c r="D407" s="41"/>
     </row>
     <row r="408">
-      <c r="D408" s="34"/>
+      <c r="D408" s="41"/>
     </row>
     <row r="409">
-      <c r="D409" s="34"/>
+      <c r="D409" s="41"/>
     </row>
     <row r="410">
-      <c r="D410" s="34"/>
+      <c r="D410" s="41"/>
     </row>
     <row r="411">
-      <c r="D411" s="34"/>
+      <c r="D411" s="41"/>
     </row>
     <row r="412">
-      <c r="D412" s="34"/>
+      <c r="D412" s="41"/>
     </row>
     <row r="413">
-      <c r="D413" s="34"/>
+      <c r="D413" s="41"/>
     </row>
     <row r="414">
-      <c r="D414" s="34"/>
+      <c r="D414" s="41"/>
     </row>
     <row r="415">
-      <c r="D415" s="34"/>
+      <c r="D415" s="41"/>
     </row>
     <row r="416">
-      <c r="D416" s="34"/>
+      <c r="D416" s="41"/>
     </row>
     <row r="417">
-      <c r="D417" s="34"/>
+      <c r="D417" s="41"/>
     </row>
     <row r="418">
-      <c r="D418" s="34"/>
+      <c r="D418" s="41"/>
     </row>
     <row r="419">
-      <c r="D419" s="34"/>
+      <c r="D419" s="41"/>
     </row>
     <row r="420">
-      <c r="D420" s="34"/>
+      <c r="D420" s="41"/>
     </row>
     <row r="421">
-      <c r="D421" s="34"/>
+      <c r="D421" s="41"/>
     </row>
     <row r="422">
-      <c r="D422" s="34"/>
+      <c r="D422" s="41"/>
     </row>
     <row r="423">
-      <c r="D423" s="34"/>
+      <c r="D423" s="41"/>
     </row>
     <row r="424">
-      <c r="D424" s="34"/>
+      <c r="D424" s="41"/>
     </row>
     <row r="425">
-      <c r="D425" s="34"/>
+      <c r="D425" s="41"/>
     </row>
     <row r="426">
-      <c r="D426" s="34"/>
+      <c r="D426" s="41"/>
     </row>
     <row r="427">
-      <c r="D427" s="34"/>
+      <c r="D427" s="41"/>
     </row>
     <row r="428">
-      <c r="D428" s="34"/>
+      <c r="D428" s="41"/>
     </row>
     <row r="429">
-      <c r="D429" s="34"/>
+      <c r="D429" s="41"/>
     </row>
     <row r="430">
-      <c r="D430" s="34"/>
+      <c r="D430" s="41"/>
     </row>
     <row r="431">
-      <c r="D431" s="34"/>
+      <c r="D431" s="41"/>
     </row>
     <row r="432">
-      <c r="D432" s="34"/>
+      <c r="D432" s="41"/>
     </row>
     <row r="433">
-      <c r="D433" s="34"/>
+      <c r="D433" s="41"/>
     </row>
     <row r="434">
-      <c r="D434" s="34"/>
+      <c r="D434" s="41"/>
     </row>
     <row r="435">
-      <c r="D435" s="34"/>
+      <c r="D435" s="41"/>
     </row>
     <row r="436">
-      <c r="D436" s="34"/>
+      <c r="D436" s="41"/>
     </row>
     <row r="437">
-      <c r="D437" s="34"/>
+      <c r="D437" s="41"/>
     </row>
     <row r="438">
-      <c r="D438" s="34"/>
+      <c r="D438" s="41"/>
     </row>
     <row r="439">
-      <c r="D439" s="34"/>
+      <c r="D439" s="41"/>
     </row>
     <row r="440">
-      <c r="D440" s="34"/>
+      <c r="D440" s="41"/>
     </row>
     <row r="441">
-      <c r="D441" s="34"/>
+      <c r="D441" s="41"/>
     </row>
     <row r="442">
-      <c r="D442" s="34"/>
+      <c r="D442" s="41"/>
     </row>
     <row r="443">
-      <c r="D443" s="34"/>
+      <c r="D443" s="41"/>
     </row>
     <row r="444">
-      <c r="D444" s="34"/>
+      <c r="D444" s="41"/>
     </row>
     <row r="445">
-      <c r="D445" s="34"/>
+      <c r="D445" s="41"/>
     </row>
     <row r="446">
-      <c r="D446" s="34"/>
+      <c r="D446" s="41"/>
     </row>
     <row r="447">
-      <c r="D447" s="34"/>
+      <c r="D447" s="41"/>
     </row>
     <row r="448">
-      <c r="D448" s="34"/>
+      <c r="D448" s="41"/>
     </row>
     <row r="449">
-      <c r="D449" s="34"/>
+      <c r="D449" s="41"/>
     </row>
     <row r="450">
-      <c r="D450" s="34"/>
+      <c r="D450" s="41"/>
     </row>
     <row r="451">
-      <c r="D451" s="34"/>
+      <c r="D451" s="41"/>
     </row>
     <row r="452">
-      <c r="D452" s="34"/>
+      <c r="D452" s="41"/>
     </row>
     <row r="453">
-      <c r="D453" s="34"/>
+      <c r="D453" s="41"/>
     </row>
     <row r="454">
-      <c r="D454" s="34"/>
+      <c r="D454" s="41"/>
     </row>
     <row r="455">
-      <c r="D455" s="34"/>
+      <c r="D455" s="41"/>
     </row>
     <row r="456">
-      <c r="D456" s="34"/>
+      <c r="D456" s="41"/>
     </row>
     <row r="457">
-      <c r="D457" s="34"/>
+      <c r="D457" s="41"/>
     </row>
     <row r="458">
-      <c r="D458" s="34"/>
+      <c r="D458" s="41"/>
     </row>
     <row r="459">
-      <c r="D459" s="34"/>
+      <c r="D459" s="41"/>
     </row>
     <row r="460">
-      <c r="D460" s="34"/>
+      <c r="D460" s="41"/>
     </row>
     <row r="461">
-      <c r="D461" s="34"/>
+      <c r="D461" s="41"/>
     </row>
     <row r="462">
-      <c r="D462" s="34"/>
+      <c r="D462" s="41"/>
     </row>
     <row r="463">
-      <c r="D463" s="34"/>
+      <c r="D463" s="41"/>
     </row>
     <row r="464">
-      <c r="D464" s="34"/>
+      <c r="D464" s="41"/>
     </row>
     <row r="465">
-      <c r="D465" s="34"/>
+      <c r="D465" s="41"/>
     </row>
     <row r="466">
-      <c r="D466" s="34"/>
+      <c r="D466" s="41"/>
     </row>
     <row r="467">
-      <c r="D467" s="34"/>
+      <c r="D467" s="41"/>
     </row>
     <row r="468">
-      <c r="D468" s="34"/>
+      <c r="D468" s="41"/>
     </row>
     <row r="469">
-      <c r="D469" s="34"/>
+      <c r="D469" s="41"/>
     </row>
     <row r="470">
-      <c r="D470" s="34"/>
+      <c r="D470" s="41"/>
     </row>
     <row r="471">
-      <c r="D471" s="34"/>
+      <c r="D471" s="41"/>
     </row>
     <row r="472">
-      <c r="D472" s="34"/>
+      <c r="D472" s="41"/>
     </row>
     <row r="473">
-      <c r="D473" s="34"/>
+      <c r="D473" s="41"/>
     </row>
     <row r="474">
-      <c r="D474" s="34"/>
+      <c r="D474" s="41"/>
     </row>
     <row r="475">
-      <c r="D475" s="34"/>
+      <c r="D475" s="41"/>
     </row>
     <row r="476">
-      <c r="D476" s="34"/>
+      <c r="D476" s="41"/>
     </row>
     <row r="477">
-      <c r="D477" s="34"/>
+      <c r="D477" s="41"/>
     </row>
     <row r="478">
-      <c r="D478" s="34"/>
+      <c r="D478" s="41"/>
     </row>
     <row r="479">
-      <c r="D479" s="34"/>
+      <c r="D479" s="41"/>
     </row>
     <row r="480">
-      <c r="D480" s="34"/>
+      <c r="D480" s="41"/>
     </row>
     <row r="481">
-      <c r="D481" s="34"/>
+      <c r="D481" s="41"/>
     </row>
     <row r="482">
-      <c r="D482" s="34"/>
+      <c r="D482" s="41"/>
     </row>
     <row r="483">
-      <c r="D483" s="34"/>
+      <c r="D483" s="41"/>
     </row>
     <row r="484">
-      <c r="D484" s="34"/>
+      <c r="D484" s="41"/>
     </row>
     <row r="485">
-      <c r="D485" s="34"/>
+      <c r="D485" s="41"/>
     </row>
     <row r="486">
-      <c r="D486" s="34"/>
+      <c r="D486" s="41"/>
     </row>
     <row r="487">
-      <c r="D487" s="34"/>
+      <c r="D487" s="41"/>
     </row>
     <row r="488">
-      <c r="D488" s="34"/>
+      <c r="D488" s="41"/>
     </row>
     <row r="489">
-      <c r="D489" s="34"/>
+      <c r="D489" s="41"/>
     </row>
     <row r="490">
-      <c r="D490" s="34"/>
+      <c r="D490" s="41"/>
     </row>
     <row r="491">
-      <c r="D491" s="34"/>
+      <c r="D491" s="41"/>
     </row>
     <row r="492">
-      <c r="D492" s="34"/>
+      <c r="D492" s="41"/>
     </row>
     <row r="493">
-      <c r="D493" s="34"/>
+      <c r="D493" s="41"/>
     </row>
     <row r="494">
-      <c r="D494" s="34"/>
+      <c r="D494" s="41"/>
     </row>
     <row r="495">
-      <c r="D495" s="34"/>
+      <c r="D495" s="41"/>
     </row>
     <row r="496">
-      <c r="D496" s="34"/>
+      <c r="D496" s="41"/>
     </row>
     <row r="497">
-      <c r="D497" s="34"/>
+      <c r="D497" s="41"/>
     </row>
     <row r="498">
-      <c r="D498" s="34"/>
+      <c r="D498" s="41"/>
     </row>
     <row r="499">
-      <c r="D499" s="34"/>
+      <c r="D499" s="41"/>
     </row>
     <row r="500">
-      <c r="D500" s="34"/>
+      <c r="D500" s="41"/>
     </row>
     <row r="501">
-      <c r="D501" s="34"/>
+      <c r="D501" s="41"/>
     </row>
     <row r="502">
-      <c r="D502" s="34"/>
+      <c r="D502" s="41"/>
     </row>
     <row r="503">
-      <c r="D503" s="34"/>
+      <c r="D503" s="41"/>
     </row>
     <row r="504">
-      <c r="D504" s="34"/>
+      <c r="D504" s="41"/>
     </row>
     <row r="505">
-      <c r="D505" s="34"/>
+      <c r="D505" s="41"/>
     </row>
     <row r="506">
-      <c r="D506" s="34"/>
+      <c r="D506" s="41"/>
     </row>
     <row r="507">
-      <c r="D507" s="34"/>
+      <c r="D507" s="41"/>
     </row>
     <row r="508">
-      <c r="D508" s="34"/>
+      <c r="D508" s="41"/>
     </row>
     <row r="509">
-      <c r="D509" s="34"/>
+      <c r="D509" s="41"/>
     </row>
     <row r="510">
-      <c r="D510" s="34"/>
+      <c r="D510" s="41"/>
     </row>
     <row r="511">
-      <c r="D511" s="34"/>
+      <c r="D511" s="41"/>
     </row>
     <row r="512">
-      <c r="D512" s="34"/>
+      <c r="D512" s="41"/>
     </row>
     <row r="513">
-      <c r="D513" s="34"/>
+      <c r="D513" s="41"/>
     </row>
     <row r="514">
-      <c r="D514" s="34"/>
+      <c r="D514" s="41"/>
     </row>
     <row r="515">
-      <c r="D515" s="34"/>
+      <c r="D515" s="41"/>
     </row>
     <row r="516">
-      <c r="D516" s="34"/>
+      <c r="D516" s="41"/>
     </row>
     <row r="517">
-      <c r="D517" s="34"/>
+      <c r="D517" s="41"/>
     </row>
     <row r="518">
-      <c r="D518" s="34"/>
+      <c r="D518" s="41"/>
     </row>
     <row r="519">
-      <c r="D519" s="34"/>
+      <c r="D519" s="41"/>
     </row>
     <row r="520">
-      <c r="D520" s="34"/>
+      <c r="D520" s="41"/>
     </row>
     <row r="521">
-      <c r="D521" s="34"/>
+      <c r="D521" s="41"/>
     </row>
     <row r="522">
-      <c r="D522" s="34"/>
+      <c r="D522" s="41"/>
     </row>
     <row r="523">
-      <c r="D523" s="34"/>
+      <c r="D523" s="41"/>
     </row>
     <row r="524">
-      <c r="D524" s="34"/>
+      <c r="D524" s="41"/>
     </row>
     <row r="525">
-      <c r="D525" s="34"/>
+      <c r="D525" s="41"/>
     </row>
     <row r="526">
-      <c r="D526" s="34"/>
+      <c r="D526" s="41"/>
     </row>
     <row r="527">
-      <c r="D527" s="34"/>
+      <c r="D527" s="41"/>
     </row>
     <row r="528">
-      <c r="D528" s="34"/>
+      <c r="D528" s="41"/>
     </row>
     <row r="529">
-      <c r="D529" s="34"/>
+      <c r="D529" s="41"/>
     </row>
     <row r="530">
-      <c r="D530" s="34"/>
+      <c r="D530" s="41"/>
     </row>
     <row r="531">
-      <c r="D531" s="34"/>
+      <c r="D531" s="41"/>
     </row>
     <row r="532">
-      <c r="D532" s="34"/>
+      <c r="D532" s="41"/>
     </row>
     <row r="533">
-      <c r="D533" s="34"/>
+      <c r="D533" s="41"/>
     </row>
     <row r="534">
-      <c r="D534" s="34"/>
+      <c r="D534" s="41"/>
     </row>
     <row r="535">
-      <c r="D535" s="34"/>
+      <c r="D535" s="41"/>
     </row>
     <row r="536">
-      <c r="D536" s="34"/>
+      <c r="D536" s="41"/>
     </row>
     <row r="537">
-      <c r="D537" s="34"/>
+      <c r="D537" s="41"/>
     </row>
     <row r="538">
-      <c r="D538" s="34"/>
+      <c r="D538" s="41"/>
     </row>
     <row r="539">
-      <c r="D539" s="34"/>
+      <c r="D539" s="41"/>
     </row>
     <row r="540">
-      <c r="D540" s="34"/>
+      <c r="D540" s="41"/>
     </row>
     <row r="541">
-      <c r="D541" s="34"/>
+      <c r="D541" s="41"/>
     </row>
     <row r="542">
-      <c r="D542" s="34"/>
+      <c r="D542" s="41"/>
     </row>
     <row r="543">
-      <c r="D543" s="34"/>
+      <c r="D543" s="41"/>
     </row>
     <row r="544">
-      <c r="D544" s="34"/>
+      <c r="D544" s="41"/>
     </row>
     <row r="545">
-      <c r="D545" s="34"/>
+      <c r="D545" s="41"/>
     </row>
     <row r="546">
-      <c r="D546" s="34"/>
+      <c r="D546" s="41"/>
     </row>
     <row r="547">
-      <c r="D547" s="34"/>
+      <c r="D547" s="41"/>
     </row>
     <row r="548">
-      <c r="D548" s="34"/>
+      <c r="D548" s="41"/>
     </row>
     <row r="549">
-      <c r="D549" s="34"/>
+      <c r="D549" s="41"/>
     </row>
     <row r="550">
-      <c r="D550" s="34"/>
+      <c r="D550" s="41"/>
     </row>
     <row r="551">
-      <c r="D551" s="34"/>
+      <c r="D551" s="41"/>
     </row>
     <row r="552">
-      <c r="D552" s="34"/>
+      <c r="D552" s="41"/>
     </row>
     <row r="553">
-      <c r="D553" s="34"/>
+      <c r="D553" s="41"/>
     </row>
     <row r="554">
-      <c r="D554" s="34"/>
+      <c r="D554" s="41"/>
     </row>
     <row r="555">
-      <c r="D555" s="34"/>
+      <c r="D555" s="41"/>
     </row>
     <row r="556">
-      <c r="D556" s="34"/>
+      <c r="D556" s="41"/>
     </row>
     <row r="557">
-      <c r="D557" s="34"/>
+      <c r="D557" s="41"/>
     </row>
     <row r="558">
-      <c r="D558" s="34"/>
+      <c r="D558" s="41"/>
     </row>
     <row r="559">
-      <c r="D559" s="34"/>
+      <c r="D559" s="41"/>
     </row>
     <row r="560">
-      <c r="D560" s="34"/>
+      <c r="D560" s="41"/>
     </row>
     <row r="561">
-      <c r="D561" s="34"/>
+      <c r="D561" s="41"/>
     </row>
     <row r="562">
-      <c r="D562" s="34"/>
+      <c r="D562" s="41"/>
     </row>
     <row r="563">
-      <c r="D563" s="34"/>
+      <c r="D563" s="41"/>
     </row>
     <row r="564">
-      <c r="D564" s="34"/>
+      <c r="D564" s="41"/>
     </row>
     <row r="565">
-      <c r="D565" s="34"/>
+      <c r="D565" s="41"/>
     </row>
     <row r="566">
-      <c r="D566" s="34"/>
+      <c r="D566" s="41"/>
     </row>
     <row r="567">
-      <c r="D567" s="34"/>
+      <c r="D567" s="41"/>
     </row>
     <row r="568">
-      <c r="D568" s="34"/>
+      <c r="D568" s="41"/>
     </row>
     <row r="569">
-      <c r="D569" s="34"/>
+      <c r="D569" s="41"/>
     </row>
     <row r="570">
-      <c r="D570" s="34"/>
+      <c r="D570" s="41"/>
     </row>
     <row r="571">
-      <c r="D571" s="34"/>
+      <c r="D571" s="41"/>
     </row>
     <row r="572">
-      <c r="D572" s="34"/>
+      <c r="D572" s="41"/>
     </row>
     <row r="573">
-      <c r="D573" s="34"/>
+      <c r="D573" s="41"/>
     </row>
     <row r="574">
-      <c r="D574" s="34"/>
+      <c r="D574" s="41"/>
     </row>
     <row r="575">
-      <c r="D575" s="34"/>
+      <c r="D575" s="41"/>
     </row>
     <row r="576">
-      <c r="D576" s="34"/>
+      <c r="D576" s="41"/>
     </row>
     <row r="577">
-      <c r="D577" s="34"/>
+      <c r="D577" s="41"/>
     </row>
     <row r="578">
-      <c r="D578" s="34"/>
+      <c r="D578" s="41"/>
     </row>
     <row r="579">
-      <c r="D579" s="34"/>
+      <c r="D579" s="41"/>
     </row>
     <row r="580">
-      <c r="D580" s="34"/>
+      <c r="D580" s="41"/>
     </row>
     <row r="581">
-      <c r="D581" s="34"/>
+      <c r="D581" s="41"/>
     </row>
     <row r="582">
-      <c r="D582" s="34"/>
+      <c r="D582" s="41"/>
     </row>
     <row r="583">
-      <c r="D583" s="34"/>
+      <c r="D583" s="41"/>
     </row>
     <row r="584">
-      <c r="D584" s="34"/>
+      <c r="D584" s="41"/>
     </row>
     <row r="585">
-      <c r="D585" s="34"/>
+      <c r="D585" s="41"/>
     </row>
     <row r="586">
-      <c r="D586" s="34"/>
+      <c r="D586" s="41"/>
     </row>
     <row r="587">
-      <c r="D587" s="34"/>
+      <c r="D587" s="41"/>
     </row>
     <row r="588">
-      <c r="D588" s="34"/>
+      <c r="D588" s="41"/>
     </row>
     <row r="589">
-      <c r="D589" s="34"/>
+      <c r="D589" s="41"/>
     </row>
     <row r="590">
-      <c r="D590" s="34"/>
+      <c r="D590" s="41"/>
     </row>
     <row r="591">
-      <c r="D591" s="34"/>
+      <c r="D591" s="41"/>
     </row>
     <row r="592">
-      <c r="D592" s="34"/>
+      <c r="D592" s="41"/>
     </row>
     <row r="593">
-      <c r="D593" s="34"/>
+      <c r="D593" s="41"/>
     </row>
     <row r="594">
-      <c r="D594" s="34"/>
+      <c r="D594" s="41"/>
     </row>
     <row r="595">
-      <c r="D595" s="34"/>
+      <c r="D595" s="41"/>
     </row>
     <row r="596">
-      <c r="D596" s="34"/>
+      <c r="D596" s="41"/>
     </row>
     <row r="597">
-      <c r="D597" s="34"/>
+      <c r="D597" s="41"/>
     </row>
     <row r="598">
-      <c r="D598" s="34"/>
+      <c r="D598" s="41"/>
     </row>
     <row r="599">
-      <c r="D599" s="34"/>
+      <c r="D599" s="41"/>
     </row>
     <row r="600">
-      <c r="D600" s="34"/>
+      <c r="D600" s="41"/>
     </row>
     <row r="601">
-      <c r="D601" s="34"/>
+      <c r="D601" s="41"/>
     </row>
     <row r="602">
-      <c r="D602" s="34"/>
+      <c r="D602" s="41"/>
     </row>
     <row r="603">
-      <c r="D603" s="34"/>
+      <c r="D603" s="41"/>
     </row>
     <row r="604">
-      <c r="D604" s="34"/>
+      <c r="D604" s="41"/>
     </row>
     <row r="605">
-      <c r="D605" s="34"/>
+      <c r="D605" s="41"/>
     </row>
     <row r="606">
-      <c r="D606" s="34"/>
+      <c r="D606" s="41"/>
     </row>
     <row r="607">
-      <c r="D607" s="34"/>
+      <c r="D607" s="41"/>
     </row>
     <row r="608">
-      <c r="D608" s="34"/>
+      <c r="D608" s="41"/>
     </row>
     <row r="609">
-      <c r="D609" s="34"/>
+      <c r="D609" s="41"/>
     </row>
     <row r="610">
-      <c r="D610" s="34"/>
+      <c r="D610" s="41"/>
     </row>
     <row r="611">
-      <c r="D611" s="34"/>
+      <c r="D611" s="41"/>
     </row>
     <row r="612">
-      <c r="D612" s="34"/>
+      <c r="D612" s="41"/>
     </row>
     <row r="613">
-      <c r="D613" s="34"/>
+      <c r="D613" s="41"/>
     </row>
     <row r="614">
-      <c r="D614" s="34"/>
+      <c r="D614" s="41"/>
     </row>
     <row r="615">
-      <c r="D615" s="34"/>
+      <c r="D615" s="41"/>
     </row>
     <row r="616">
-      <c r="D616" s="34"/>
+      <c r="D616" s="41"/>
     </row>
     <row r="617">
-      <c r="D617" s="34"/>
+      <c r="D617" s="41"/>
     </row>
     <row r="618">
-      <c r="D618" s="34"/>
+      <c r="D618" s="41"/>
     </row>
     <row r="619">
-      <c r="D619" s="34"/>
+      <c r="D619" s="41"/>
     </row>
     <row r="620">
-      <c r="D620" s="34"/>
+      <c r="D620" s="41"/>
     </row>
     <row r="621">
-      <c r="D621" s="34"/>
+      <c r="D621" s="41"/>
     </row>
     <row r="622">
-      <c r="D622" s="34"/>
+      <c r="D622" s="41"/>
     </row>
     <row r="623">
-      <c r="D623" s="34"/>
+      <c r="D623" s="41"/>
     </row>
     <row r="624">
-      <c r="D624" s="34"/>
+      <c r="D624" s="41"/>
     </row>
     <row r="625">
-      <c r="D625" s="34"/>
+      <c r="D625" s="41"/>
     </row>
     <row r="626">
-      <c r="D626" s="34"/>
+      <c r="D626" s="41"/>
     </row>
     <row r="627">
-      <c r="D627" s="34"/>
+      <c r="D627" s="41"/>
     </row>
     <row r="628">
-      <c r="D628" s="34"/>
+      <c r="D628" s="41"/>
     </row>
     <row r="629">
-      <c r="D629" s="34"/>
+      <c r="D629" s="41"/>
     </row>
     <row r="630">
-      <c r="D630" s="34"/>
+      <c r="D630" s="41"/>
     </row>
     <row r="631">
-      <c r="D631" s="34"/>
+      <c r="D631" s="41"/>
     </row>
     <row r="632">
-      <c r="D632" s="34"/>
+      <c r="D632" s="41"/>
     </row>
     <row r="633">
-      <c r="D633" s="34"/>
+      <c r="D633" s="41"/>
     </row>
     <row r="634">
-      <c r="D634" s="34"/>
+      <c r="D634" s="41"/>
     </row>
     <row r="635">
-      <c r="D635" s="34"/>
+      <c r="D635" s="41"/>
     </row>
     <row r="636">
-      <c r="D636" s="34"/>
+      <c r="D636" s="41"/>
     </row>
     <row r="637">
-      <c r="D637" s="34"/>
+      <c r="D637" s="41"/>
     </row>
     <row r="638">
-      <c r="D638" s="34"/>
+      <c r="D638" s="41"/>
     </row>
     <row r="639">
-      <c r="D639" s="34"/>
+      <c r="D639" s="41"/>
     </row>
     <row r="640">
-      <c r="D640" s="34"/>
+      <c r="D640" s="41"/>
     </row>
     <row r="641">
-      <c r="D641" s="34"/>
+      <c r="D641" s="41"/>
     </row>
     <row r="642">
-      <c r="D642" s="34"/>
+      <c r="D642" s="41"/>
     </row>
     <row r="643">
-      <c r="D643" s="34"/>
+      <c r="D643" s="41"/>
     </row>
     <row r="644">
-      <c r="D644" s="34"/>
+      <c r="D644" s="41"/>
     </row>
     <row r="645">
-      <c r="D645" s="34"/>
+      <c r="D645" s="41"/>
     </row>
     <row r="646">
-      <c r="D646" s="34"/>
+      <c r="D646" s="41"/>
     </row>
     <row r="647">
-      <c r="D647" s="34"/>
+      <c r="D647" s="41"/>
     </row>
     <row r="648">
-      <c r="D648" s="34"/>
+      <c r="D648" s="41"/>
     </row>
     <row r="649">
-      <c r="D649" s="34"/>
+      <c r="D649" s="41"/>
     </row>
     <row r="650">
-      <c r="D650" s="34"/>
+      <c r="D650" s="41"/>
     </row>
     <row r="651">
-      <c r="D651" s="34"/>
+      <c r="D651" s="41"/>
     </row>
     <row r="652">
-      <c r="D652" s="34"/>
+      <c r="D652" s="41"/>
     </row>
     <row r="653">
-      <c r="D653" s="34"/>
+      <c r="D653" s="41"/>
     </row>
     <row r="654">
-      <c r="D654" s="34"/>
+      <c r="D654" s="41"/>
     </row>
     <row r="655">
-      <c r="D655" s="34"/>
+      <c r="D655" s="41"/>
     </row>
     <row r="656">
-      <c r="D656" s="34"/>
+      <c r="D656" s="41"/>
     </row>
     <row r="657">
-      <c r="D657" s="34"/>
+      <c r="D657" s="41"/>
     </row>
     <row r="658">
-      <c r="D658" s="34"/>
+      <c r="D658" s="41"/>
     </row>
     <row r="659">
-      <c r="D659" s="34"/>
+      <c r="D659" s="41"/>
     </row>
     <row r="660">
-      <c r="D660" s="34"/>
+      <c r="D660" s="41"/>
     </row>
     <row r="661">
-      <c r="D661" s="34"/>
+      <c r="D661" s="41"/>
     </row>
     <row r="662">
-      <c r="D662" s="34"/>
+      <c r="D662" s="41"/>
     </row>
     <row r="663">
-      <c r="D663" s="34"/>
+      <c r="D663" s="41"/>
     </row>
     <row r="664">
-      <c r="D664" s="34"/>
+      <c r="D664" s="41"/>
     </row>
     <row r="665">
-      <c r="D665" s="34"/>
+      <c r="D665" s="41"/>
     </row>
     <row r="666">
-      <c r="D666" s="34"/>
+      <c r="D666" s="41"/>
     </row>
     <row r="667">
-      <c r="D667" s="34"/>
+      <c r="D667" s="41"/>
     </row>
     <row r="668">
-      <c r="D668" s="34"/>
+      <c r="D668" s="41"/>
     </row>
     <row r="669">
-      <c r="D669" s="34"/>
+      <c r="D669" s="41"/>
     </row>
     <row r="670">
-      <c r="D670" s="34"/>
+      <c r="D670" s="41"/>
     </row>
     <row r="671">
-      <c r="D671" s="34"/>
+      <c r="D671" s="41"/>
     </row>
     <row r="672">
-      <c r="D672" s="34"/>
+      <c r="D672" s="41"/>
     </row>
     <row r="673">
-      <c r="D673" s="34"/>
+      <c r="D673" s="41"/>
     </row>
     <row r="674">
-      <c r="D674" s="34"/>
+      <c r="D674" s="41"/>
     </row>
     <row r="675">
-      <c r="D675" s="34"/>
+      <c r="D675" s="41"/>
     </row>
     <row r="676">
-      <c r="D676" s="34"/>
+      <c r="D676" s="41"/>
     </row>
     <row r="677">
-      <c r="D677" s="34"/>
+      <c r="D677" s="41"/>
     </row>
     <row r="678">
-      <c r="D678" s="34"/>
+      <c r="D678" s="41"/>
     </row>
     <row r="679">
-      <c r="D679" s="34"/>
+      <c r="D679" s="41"/>
     </row>
     <row r="680">
-      <c r="D680" s="34"/>
+      <c r="D680" s="41"/>
     </row>
     <row r="681">
-      <c r="D681" s="34"/>
+      <c r="D681" s="41"/>
     </row>
     <row r="682">
-      <c r="D682" s="34"/>
+      <c r="D682" s="41"/>
     </row>
     <row r="683">
-      <c r="D683" s="34"/>
+      <c r="D683" s="41"/>
     </row>
     <row r="684">
-      <c r="D684" s="34"/>
+      <c r="D684" s="41"/>
     </row>
     <row r="685">
-      <c r="D685" s="34"/>
+      <c r="D685" s="41"/>
     </row>
     <row r="686">
-      <c r="D686" s="34"/>
+      <c r="D686" s="41"/>
     </row>
     <row r="687">
-      <c r="D687" s="34"/>
+      <c r="D687" s="41"/>
     </row>
     <row r="688">
-      <c r="D688" s="34"/>
+      <c r="D688" s="41"/>
     </row>
     <row r="689">
-      <c r="D689" s="34"/>
+      <c r="D689" s="41"/>
     </row>
     <row r="690">
-      <c r="D690" s="34"/>
+      <c r="D690" s="41"/>
     </row>
     <row r="691">
-      <c r="D691" s="34"/>
+      <c r="D691" s="41"/>
     </row>
     <row r="692">
-      <c r="D692" s="34"/>
+      <c r="D692" s="41"/>
     </row>
     <row r="693">
-      <c r="D693" s="34"/>
+      <c r="D693" s="41"/>
     </row>
     <row r="694">
-      <c r="D694" s="34"/>
+      <c r="D694" s="41"/>
     </row>
     <row r="695">
-      <c r="D695" s="34"/>
+      <c r="D695" s="41"/>
     </row>
     <row r="696">
-      <c r="D696" s="34"/>
+      <c r="D696" s="41"/>
     </row>
     <row r="697">
-      <c r="D697" s="34"/>
+      <c r="D697" s="41"/>
     </row>
     <row r="698">
-      <c r="D698" s="34"/>
+      <c r="D698" s="41"/>
     </row>
     <row r="699">
-      <c r="D699" s="34"/>
+      <c r="D699" s="41"/>
     </row>
     <row r="700">
-      <c r="D700" s="34"/>
+      <c r="D700" s="41"/>
     </row>
     <row r="701">
-      <c r="D701" s="34"/>
+      <c r="D701" s="41"/>
     </row>
     <row r="702">
-      <c r="D702" s="34"/>
+      <c r="D702" s="41"/>
     </row>
     <row r="703">
-      <c r="D703" s="34"/>
+      <c r="D703" s="41"/>
     </row>
     <row r="704">
-      <c r="D704" s="34"/>
+      <c r="D704" s="41"/>
     </row>
     <row r="705">
-      <c r="D705" s="34"/>
+      <c r="D705" s="41"/>
     </row>
     <row r="706">
-      <c r="D706" s="34"/>
+      <c r="D706" s="41"/>
     </row>
     <row r="707">
-      <c r="D707" s="34"/>
+      <c r="D707" s="41"/>
     </row>
     <row r="708">
-      <c r="D708" s="34"/>
+      <c r="D708" s="41"/>
     </row>
     <row r="709">
-      <c r="D709" s="34"/>
+      <c r="D709" s="41"/>
     </row>
     <row r="710">
-      <c r="D710" s="34"/>
+      <c r="D710" s="41"/>
     </row>
     <row r="711">
-      <c r="D711" s="34"/>
+      <c r="D711" s="41"/>
     </row>
     <row r="712">
-      <c r="D712" s="34"/>
+      <c r="D712" s="41"/>
     </row>
     <row r="713">
-      <c r="D713" s="34"/>
+      <c r="D713" s="41"/>
     </row>
     <row r="714">
-      <c r="D714" s="34"/>
+      <c r="D714" s="41"/>
     </row>
     <row r="715">
-      <c r="D715" s="34"/>
+      <c r="D715" s="41"/>
     </row>
     <row r="716">
-      <c r="D716" s="34"/>
+      <c r="D716" s="41"/>
     </row>
     <row r="717">
-      <c r="D717" s="34"/>
+      <c r="D717" s="41"/>
     </row>
     <row r="718">
-      <c r="D718" s="34"/>
+      <c r="D718" s="41"/>
     </row>
     <row r="719">
-      <c r="D719" s="34"/>
+      <c r="D719" s="41"/>
     </row>
     <row r="720">
-      <c r="D720" s="34"/>
+      <c r="D720" s="41"/>
     </row>
     <row r="721">
-      <c r="D721" s="34"/>
+      <c r="D721" s="41"/>
     </row>
     <row r="722">
-      <c r="D722" s="34"/>
+      <c r="D722" s="41"/>
     </row>
     <row r="723">
-      <c r="D723" s="34"/>
+      <c r="D723" s="41"/>
     </row>
     <row r="724">
-      <c r="D724" s="34"/>
+      <c r="D724" s="41"/>
     </row>
     <row r="725">
-      <c r="D725" s="34"/>
+      <c r="D725" s="41"/>
     </row>
     <row r="726">
-      <c r="D726" s="34"/>
+      <c r="D726" s="41"/>
     </row>
     <row r="727">
-      <c r="D727" s="34"/>
+      <c r="D727" s="41"/>
     </row>
     <row r="728">
-      <c r="D728" s="34"/>
+      <c r="D728" s="41"/>
     </row>
     <row r="729">
-      <c r="D729" s="34"/>
+      <c r="D729" s="41"/>
     </row>
     <row r="730">
-      <c r="D730" s="34"/>
+      <c r="D730" s="41"/>
     </row>
     <row r="731">
-      <c r="D731" s="34"/>
+      <c r="D731" s="41"/>
     </row>
     <row r="732">
-      <c r="D732" s="34"/>
+      <c r="D732" s="41"/>
     </row>
     <row r="733">
-      <c r="D733" s="34"/>
+      <c r="D733" s="41"/>
     </row>
     <row r="734">
-      <c r="D734" s="34"/>
+      <c r="D734" s="41"/>
     </row>
     <row r="735">
-      <c r="D735" s="34"/>
+      <c r="D735" s="41"/>
     </row>
     <row r="736">
-      <c r="D736" s="34"/>
+      <c r="D736" s="41"/>
     </row>
     <row r="737">
-      <c r="D737" s="34"/>
+      <c r="D737" s="41"/>
     </row>
     <row r="738">
-      <c r="D738" s="34"/>
+      <c r="D738" s="41"/>
     </row>
     <row r="739">
-      <c r="D739" s="34"/>
+      <c r="D739" s="41"/>
     </row>
     <row r="740">
-      <c r="D740" s="34"/>
+      <c r="D740" s="41"/>
     </row>
     <row r="741">
-      <c r="D741" s="34"/>
+      <c r="D741" s="41"/>
     </row>
     <row r="742">
-      <c r="D742" s="34"/>
+      <c r="D742" s="41"/>
     </row>
     <row r="743">
-      <c r="D743" s="34"/>
+      <c r="D743" s="41"/>
     </row>
     <row r="744">
-      <c r="D744" s="34"/>
+      <c r="D744" s="41"/>
     </row>
     <row r="745">
-      <c r="D745" s="34"/>
+      <c r="D745" s="41"/>
     </row>
     <row r="746">
-      <c r="D746" s="34"/>
+      <c r="D746" s="41"/>
     </row>
     <row r="747">
-      <c r="D747" s="34"/>
+      <c r="D747" s="41"/>
     </row>
     <row r="748">
-      <c r="D748" s="34"/>
+      <c r="D748" s="41"/>
     </row>
     <row r="749">
-      <c r="D749" s="34"/>
+      <c r="D749" s="41"/>
     </row>
     <row r="750">
-      <c r="D750" s="34"/>
+      <c r="D750" s="41"/>
     </row>
     <row r="751">
-      <c r="D751" s="34"/>
+      <c r="D751" s="41"/>
     </row>
     <row r="752">
-      <c r="D752" s="34"/>
+      <c r="D752" s="41"/>
     </row>
     <row r="753">
-      <c r="D753" s="34"/>
+      <c r="D753" s="41"/>
     </row>
     <row r="754">
-      <c r="D754" s="34"/>
+      <c r="D754" s="41"/>
     </row>
     <row r="755">
-      <c r="D755" s="34"/>
+      <c r="D755" s="41"/>
     </row>
     <row r="756">
-      <c r="D756" s="34"/>
+      <c r="D756" s="41"/>
     </row>
     <row r="757">
-      <c r="D757" s="34"/>
+      <c r="D757" s="41"/>
     </row>
     <row r="758">
-      <c r="D758" s="34"/>
+      <c r="D758" s="41"/>
     </row>
     <row r="759">
-      <c r="D759" s="34"/>
+      <c r="D759" s="41"/>
     </row>
     <row r="760">
-      <c r="D760" s="34"/>
+      <c r="D760" s="41"/>
     </row>
     <row r="761">
-      <c r="D761" s="34"/>
+      <c r="D761" s="41"/>
     </row>
     <row r="762">
-      <c r="D762" s="34"/>
+      <c r="D762" s="41"/>
     </row>
     <row r="763">
-      <c r="D763" s="34"/>
+      <c r="D763" s="41"/>
     </row>
     <row r="764">
-      <c r="D764" s="34"/>
+      <c r="D764" s="41"/>
     </row>
     <row r="765">
-      <c r="D765" s="34"/>
+      <c r="D765" s="41"/>
     </row>
     <row r="766">
-      <c r="D766" s="34"/>
+      <c r="D766" s="41"/>
     </row>
     <row r="767">
-      <c r="D767" s="34"/>
+      <c r="D767" s="41"/>
     </row>
     <row r="768">
-      <c r="D768" s="34"/>
+      <c r="D768" s="41"/>
     </row>
     <row r="769">
-      <c r="D769" s="34"/>
+      <c r="D769" s="41"/>
     </row>
     <row r="770">
-      <c r="D770" s="34"/>
+      <c r="D770" s="41"/>
     </row>
     <row r="771">
-      <c r="D771" s="34"/>
+      <c r="D771" s="41"/>
     </row>
     <row r="772">
-      <c r="D772" s="34"/>
+      <c r="D772" s="41"/>
     </row>
     <row r="773">
-      <c r="D773" s="34"/>
+      <c r="D773" s="41"/>
     </row>
     <row r="774">
-      <c r="D774" s="34"/>
+      <c r="D774" s="41"/>
     </row>
     <row r="775">
-      <c r="D775" s="34"/>
+      <c r="D775" s="41"/>
     </row>
     <row r="776">
-      <c r="D776" s="34"/>
+      <c r="D776" s="41"/>
     </row>
     <row r="777">
-      <c r="D777" s="34"/>
+      <c r="D777" s="41"/>
     </row>
     <row r="778">
-      <c r="D778" s="34"/>
+      <c r="D778" s="41"/>
     </row>
     <row r="779">
-      <c r="D779" s="34"/>
+      <c r="D779" s="41"/>
     </row>
     <row r="780">
-      <c r="D780" s="34"/>
+      <c r="D780" s="41"/>
     </row>
     <row r="781">
-      <c r="D781" s="34"/>
+      <c r="D781" s="41"/>
     </row>
     <row r="782">
-      <c r="D782" s="34"/>
+      <c r="D782" s="41"/>
     </row>
     <row r="783">
-      <c r="D783" s="34"/>
+      <c r="D783" s="41"/>
     </row>
     <row r="784">
-      <c r="D784" s="34"/>
+      <c r="D784" s="41"/>
     </row>
     <row r="785">
-      <c r="D785" s="34"/>
+      <c r="D785" s="41"/>
     </row>
     <row r="786">
-      <c r="D786" s="34"/>
+      <c r="D786" s="41"/>
     </row>
     <row r="787">
-      <c r="D787" s="34"/>
+      <c r="D787" s="41"/>
     </row>
     <row r="788">
-      <c r="D788" s="34"/>
+      <c r="D788" s="41"/>
     </row>
     <row r="789">
-      <c r="D789" s="34"/>
+      <c r="D789" s="41"/>
     </row>
     <row r="790">
-      <c r="D790" s="34"/>
+      <c r="D790" s="41"/>
     </row>
     <row r="791">
-      <c r="D791" s="34"/>
+      <c r="D791" s="41"/>
     </row>
     <row r="792">
-      <c r="D792" s="34"/>
+      <c r="D792" s="41"/>
     </row>
     <row r="793">
-      <c r="D793" s="34"/>
+      <c r="D793" s="41"/>
     </row>
     <row r="794">
-      <c r="D794" s="34"/>
+      <c r="D794" s="41"/>
     </row>
     <row r="795">
-      <c r="D795" s="34"/>
+      <c r="D795" s="41"/>
     </row>
     <row r="796">
-      <c r="D796" s="34"/>
+      <c r="D796" s="41"/>
     </row>
     <row r="797">
-      <c r="D797" s="34"/>
+      <c r="D797" s="41"/>
     </row>
     <row r="798">
-      <c r="D798" s="34"/>
+      <c r="D798" s="41"/>
     </row>
     <row r="799">
-      <c r="D799" s="34"/>
+      <c r="D799" s="41"/>
     </row>
     <row r="800">
-      <c r="D800" s="34"/>
+      <c r="D800" s="41"/>
     </row>
     <row r="801">
-      <c r="D801" s="34"/>
+      <c r="D801" s="41"/>
     </row>
     <row r="802">
-      <c r="D802" s="34"/>
+      <c r="D802" s="41"/>
     </row>
     <row r="803">
-      <c r="D803" s="34"/>
+      <c r="D803" s="41"/>
     </row>
     <row r="804">
-      <c r="D804" s="34"/>
+      <c r="D804" s="41"/>
     </row>
     <row r="805">
-      <c r="D805" s="34"/>
+      <c r="D805" s="41"/>
     </row>
     <row r="806">
-      <c r="D806" s="34"/>
+      <c r="D806" s="41"/>
     </row>
     <row r="807">
-      <c r="D807" s="34"/>
+      <c r="D807" s="41"/>
     </row>
     <row r="808">
-      <c r="D808" s="34"/>
+      <c r="D808" s="41"/>
     </row>
     <row r="809">
-      <c r="D809" s="34"/>
+      <c r="D809" s="41"/>
     </row>
     <row r="810">
-      <c r="D810" s="34"/>
+      <c r="D810" s="41"/>
     </row>
     <row r="811">
-      <c r="D811" s="34"/>
+      <c r="D811" s="41"/>
     </row>
     <row r="812">
-      <c r="D812" s="34"/>
+      <c r="D812" s="41"/>
     </row>
     <row r="813">
-      <c r="D813" s="34"/>
+      <c r="D813" s="41"/>
     </row>
     <row r="814">
-      <c r="D814" s="34"/>
+      <c r="D814" s="41"/>
     </row>
     <row r="815">
-      <c r="D815" s="34"/>
+      <c r="D815" s="41"/>
     </row>
     <row r="816">
-      <c r="D816" s="34"/>
+      <c r="D816" s="41"/>
     </row>
     <row r="817">
-      <c r="D817" s="34"/>
+      <c r="D817" s="41"/>
     </row>
     <row r="818">
-      <c r="D818" s="34"/>
+      <c r="D818" s="41"/>
     </row>
     <row r="819">
-      <c r="D819" s="34"/>
+      <c r="D819" s="41"/>
     </row>
     <row r="820">
-      <c r="D820" s="34"/>
+      <c r="D820" s="41"/>
     </row>
     <row r="821">
-      <c r="D821" s="34"/>
+      <c r="D821" s="41"/>
     </row>
     <row r="822">
-      <c r="D822" s="34"/>
+      <c r="D822" s="41"/>
     </row>
     <row r="823">
-      <c r="D823" s="34"/>
+      <c r="D823" s="41"/>
     </row>
     <row r="824">
-      <c r="D824" s="34"/>
+      <c r="D824" s="41"/>
     </row>
     <row r="825">
-      <c r="D825" s="34"/>
+      <c r="D825" s="41"/>
     </row>
     <row r="826">
-      <c r="D826" s="34"/>
+      <c r="D826" s="41"/>
     </row>
     <row r="827">
-      <c r="D827" s="34"/>
+      <c r="D827" s="41"/>
     </row>
     <row r="828">
-      <c r="D828" s="34"/>
+      <c r="D828" s="41"/>
     </row>
     <row r="829">
-      <c r="D829" s="34"/>
+      <c r="D829" s="41"/>
     </row>
     <row r="830">
-      <c r="D830" s="34"/>
+      <c r="D830" s="41"/>
     </row>
     <row r="831">
-      <c r="D831" s="34"/>
+      <c r="D831" s="41"/>
     </row>
     <row r="832">
-      <c r="D832" s="34"/>
+      <c r="D832" s="41"/>
     </row>
     <row r="833">
-      <c r="D833" s="34"/>
+      <c r="D833" s="41"/>
     </row>
     <row r="834">
-      <c r="D834" s="34"/>
+      <c r="D834" s="41"/>
     </row>
     <row r="835">
-      <c r="D835" s="34"/>
+      <c r="D835" s="41"/>
     </row>
     <row r="836">
-      <c r="D836" s="34"/>
+      <c r="D836" s="41"/>
     </row>
     <row r="837">
-      <c r="D837" s="34"/>
+      <c r="D837" s="41"/>
     </row>
     <row r="838">
-      <c r="D838" s="34"/>
+      <c r="D838" s="41"/>
     </row>
     <row r="839">
-      <c r="D839" s="34"/>
+      <c r="D839" s="41"/>
     </row>
     <row r="840">
-      <c r="D840" s="34"/>
+      <c r="D840" s="41"/>
     </row>
     <row r="841">
-      <c r="D841" s="34"/>
+      <c r="D841" s="41"/>
     </row>
     <row r="842">
-      <c r="D842" s="34"/>
+      <c r="D842" s="41"/>
     </row>
     <row r="843">
-      <c r="D843" s="34"/>
+      <c r="D843" s="41"/>
     </row>
     <row r="844">
-      <c r="D844" s="34"/>
+      <c r="D844" s="41"/>
     </row>
     <row r="845">
-      <c r="D845" s="34"/>
+      <c r="D845" s="41"/>
     </row>
     <row r="846">
-      <c r="D846" s="34"/>
+      <c r="D846" s="41"/>
     </row>
     <row r="847">
-      <c r="D847" s="34"/>
+      <c r="D847" s="41"/>
     </row>
     <row r="848">
-      <c r="D848" s="34"/>
+      <c r="D848" s="41"/>
     </row>
     <row r="849">
-      <c r="D849" s="34"/>
+      <c r="D849" s="41"/>
     </row>
     <row r="850">
-      <c r="D850" s="34"/>
+      <c r="D850" s="41"/>
     </row>
     <row r="851">
-      <c r="D851" s="34"/>
+      <c r="D851" s="41"/>
     </row>
     <row r="852">
-      <c r="D852" s="34"/>
+      <c r="D852" s="41"/>
     </row>
     <row r="853">
-      <c r="D853" s="34"/>
+      <c r="D853" s="41"/>
     </row>
     <row r="854">
-      <c r="D854" s="34"/>
+      <c r="D854" s="41"/>
     </row>
     <row r="855">
-      <c r="D855" s="34"/>
+      <c r="D855" s="41"/>
     </row>
     <row r="856">
-      <c r="D856" s="34"/>
+      <c r="D856" s="41"/>
     </row>
     <row r="857">
-      <c r="D857" s="34"/>
+      <c r="D857" s="41"/>
     </row>
     <row r="858">
-      <c r="D858" s="34"/>
+      <c r="D858" s="41"/>
     </row>
     <row r="859">
-      <c r="D859" s="34"/>
+      <c r="D859" s="41"/>
     </row>
     <row r="860">
-      <c r="D860" s="34"/>
+      <c r="D860" s="41"/>
     </row>
     <row r="861">
-      <c r="D861" s="34"/>
+      <c r="D861" s="41"/>
     </row>
     <row r="862">
-      <c r="D862" s="34"/>
+      <c r="D862" s="41"/>
     </row>
     <row r="863">
-      <c r="D863" s="34"/>
+      <c r="D863" s="41"/>
     </row>
     <row r="864">
-      <c r="D864" s="34"/>
+      <c r="D864" s="41"/>
     </row>
     <row r="865">
-      <c r="D865" s="34"/>
+      <c r="D865" s="41"/>
     </row>
     <row r="866">
-      <c r="D866" s="34"/>
+      <c r="D866" s="41"/>
     </row>
     <row r="867">
-      <c r="D867" s="34"/>
+      <c r="D867" s="41"/>
     </row>
     <row r="868">
-      <c r="D868" s="34"/>
+      <c r="D868" s="41"/>
     </row>
     <row r="869">
-      <c r="D869" s="34"/>
+      <c r="D869" s="41"/>
     </row>
     <row r="870">
-      <c r="D870" s="34"/>
+      <c r="D870" s="41"/>
     </row>
     <row r="871">
-      <c r="D871" s="34"/>
+      <c r="D871" s="41"/>
     </row>
     <row r="872">
-      <c r="D872" s="34"/>
+      <c r="D872" s="41"/>
     </row>
     <row r="873">
-      <c r="D873" s="34"/>
+      <c r="D873" s="41"/>
     </row>
     <row r="874">
-      <c r="D874" s="34"/>
+      <c r="D874" s="41"/>
     </row>
     <row r="875">
-      <c r="D875" s="34"/>
+      <c r="D875" s="41"/>
     </row>
     <row r="876">
-      <c r="D876" s="34"/>
+      <c r="D876" s="41"/>
     </row>
     <row r="877">
-      <c r="D877" s="34"/>
+      <c r="D877" s="41"/>
     </row>
     <row r="878">
-      <c r="D878" s="34"/>
+      <c r="D878" s="41"/>
     </row>
     <row r="879">
-      <c r="D879" s="34"/>
+      <c r="D879" s="41"/>
     </row>
     <row r="880">
-      <c r="D880" s="34"/>
+      <c r="D880" s="41"/>
     </row>
     <row r="881">
-      <c r="D881" s="34"/>
+      <c r="D881" s="41"/>
     </row>
     <row r="882">
-      <c r="D882" s="34"/>
+      <c r="D882" s="41"/>
     </row>
     <row r="883">
-      <c r="D883" s="34"/>
+      <c r="D883" s="41"/>
     </row>
     <row r="884">
-      <c r="D884" s="34"/>
+      <c r="D884" s="41"/>
     </row>
     <row r="885">
-      <c r="D885" s="34"/>
+      <c r="D885" s="41"/>
     </row>
     <row r="886">
-      <c r="D886" s="34"/>
+      <c r="D886" s="41"/>
     </row>
     <row r="887">
-      <c r="D887" s="34"/>
+      <c r="D887" s="41"/>
     </row>
     <row r="888">
-      <c r="D888" s="34"/>
+      <c r="D888" s="41"/>
     </row>
     <row r="889">
-      <c r="D889" s="34"/>
+      <c r="D889" s="41"/>
     </row>
     <row r="890">
-      <c r="D890" s="34"/>
+      <c r="D890" s="41"/>
     </row>
     <row r="891">
-      <c r="D891" s="34"/>
+      <c r="D891" s="41"/>
     </row>
     <row r="892">
-      <c r="D892" s="34"/>
+      <c r="D892" s="41"/>
     </row>
     <row r="893">
-      <c r="D893" s="34"/>
+      <c r="D893" s="41"/>
     </row>
     <row r="894">
-      <c r="D894" s="34"/>
+      <c r="D894" s="41"/>
     </row>
     <row r="895">
-      <c r="D895" s="34"/>
+      <c r="D895" s="41"/>
     </row>
     <row r="896">
-      <c r="D896" s="34"/>
+      <c r="D896" s="41"/>
     </row>
     <row r="897">
-      <c r="D897" s="34"/>
+      <c r="D897" s="41"/>
     </row>
     <row r="898">
-      <c r="D898" s="34"/>
+      <c r="D898" s="41"/>
     </row>
     <row r="899">
-      <c r="D899" s="34"/>
+      <c r="D899" s="41"/>
     </row>
     <row r="900">
-      <c r="D900" s="34"/>
+      <c r="D900" s="41"/>
     </row>
     <row r="901">
-      <c r="D901" s="34"/>
+      <c r="D901" s="41"/>
     </row>
     <row r="902">
-      <c r="D902" s="34"/>
+      <c r="D902" s="41"/>
     </row>
     <row r="903">
-      <c r="D903" s="34"/>
+      <c r="D903" s="41"/>
     </row>
     <row r="904">
-      <c r="D904" s="34"/>
+      <c r="D904" s="41"/>
     </row>
     <row r="905">
-      <c r="D905" s="34"/>
+      <c r="D905" s="41"/>
     </row>
     <row r="906">
-      <c r="D906" s="34"/>
+      <c r="D906" s="41"/>
     </row>
     <row r="907">
-      <c r="D907" s="34"/>
+      <c r="D907" s="41"/>
     </row>
     <row r="908">
-      <c r="D908" s="34"/>
+      <c r="D908" s="41"/>
     </row>
     <row r="909">
-      <c r="D909" s="34"/>
+      <c r="D909" s="41"/>
     </row>
     <row r="910">
-      <c r="D910" s="34"/>
+      <c r="D910" s="41"/>
     </row>
     <row r="911">
-      <c r="D911" s="34"/>
+      <c r="D911" s="41"/>
     </row>
     <row r="912">
-      <c r="D912" s="34"/>
+      <c r="D912" s="41"/>
     </row>
     <row r="913">
-      <c r="D913" s="34"/>
+      <c r="D913" s="41"/>
     </row>
     <row r="914">
-      <c r="D914" s="34"/>
+      <c r="D914" s="41"/>
     </row>
     <row r="915">
-      <c r="D915" s="34"/>
+      <c r="D915" s="41"/>
     </row>
     <row r="916">
-      <c r="D916" s="34"/>
+      <c r="D916" s="41"/>
     </row>
     <row r="917">
-      <c r="D917" s="34"/>
+      <c r="D917" s="41"/>
     </row>
     <row r="918">
-      <c r="D918" s="34"/>
+      <c r="D918" s="41"/>
     </row>
     <row r="919">
-      <c r="D919" s="34"/>
+      <c r="D919" s="41"/>
     </row>
     <row r="920">
-      <c r="D920" s="34"/>
+      <c r="D920" s="41"/>
     </row>
     <row r="921">
-      <c r="D921" s="34"/>
+      <c r="D921" s="41"/>
     </row>
     <row r="922">
-      <c r="D922" s="34"/>
+      <c r="D922" s="41"/>
     </row>
     <row r="923">
-      <c r="D923" s="34"/>
+      <c r="D923" s="41"/>
     </row>
     <row r="924">
-      <c r="D924" s="34"/>
+      <c r="D924" s="41"/>
     </row>
     <row r="925">
-      <c r="D925" s="34"/>
+      <c r="D925" s="41"/>
     </row>
     <row r="926">
-      <c r="D926" s="34"/>
+      <c r="D926" s="41"/>
     </row>
     <row r="927">
-      <c r="D927" s="34"/>
+      <c r="D927" s="41"/>
     </row>
     <row r="928">
-      <c r="D928" s="34"/>
+      <c r="D928" s="41"/>
     </row>
     <row r="929">
-      <c r="D929" s="34"/>
+      <c r="D929" s="41"/>
     </row>
     <row r="930">
-      <c r="D930" s="34"/>
+      <c r="D930" s="41"/>
     </row>
     <row r="931">
-      <c r="D931" s="34"/>
+      <c r="D931" s="41"/>
     </row>
     <row r="932">
-      <c r="D932" s="34"/>
+      <c r="D932" s="41"/>
     </row>
     <row r="933">
-      <c r="D933" s="34"/>
+      <c r="D933" s="41"/>
     </row>
     <row r="934">
-      <c r="D934" s="34"/>
+      <c r="D934" s="41"/>
     </row>
     <row r="935">
-      <c r="D935" s="34"/>
+      <c r="D935" s="41"/>
     </row>
     <row r="936">
-      <c r="D936" s="34"/>
+      <c r="D936" s="41"/>
     </row>
     <row r="937">
-      <c r="D937" s="34"/>
+      <c r="D937" s="41"/>
     </row>
     <row r="938">
-      <c r="D938" s="34"/>
+      <c r="D938" s="41"/>
     </row>
     <row r="939">
-      <c r="D939" s="34"/>
+      <c r="D939" s="41"/>
     </row>
     <row r="940">
-      <c r="D940" s="34"/>
+      <c r="D940" s="41"/>
     </row>
     <row r="941">
-      <c r="D941" s="34"/>
+      <c r="D941" s="41"/>
     </row>
     <row r="942">
-      <c r="D942" s="34"/>
+      <c r="D942" s="41"/>
     </row>
     <row r="943">
-      <c r="D943" s="34"/>
+      <c r="D943" s="41"/>
     </row>
     <row r="944">
-      <c r="D944" s="34"/>
+      <c r="D944" s="41"/>
     </row>
     <row r="945">
-      <c r="D945" s="34"/>
+      <c r="D945" s="41"/>
     </row>
     <row r="946">
-      <c r="D946" s="34"/>
+      <c r="D946" s="41"/>
     </row>
     <row r="947">
-      <c r="D947" s="34"/>
+      <c r="D947" s="41"/>
     </row>
     <row r="948">
-      <c r="D948" s="34"/>
+      <c r="D948" s="41"/>
     </row>
     <row r="949">
-      <c r="D949" s="34"/>
+      <c r="D949" s="41"/>
     </row>
     <row r="950">
-      <c r="D950" s="34"/>
+      <c r="D950" s="41"/>
     </row>
     <row r="951">
-      <c r="D951" s="34"/>
+      <c r="D951" s="41"/>
     </row>
     <row r="952">
-      <c r="D952" s="34"/>
+      <c r="D952" s="41"/>
     </row>
     <row r="953">
-      <c r="D953" s="34"/>
+      <c r="D953" s="41"/>
     </row>
     <row r="954">
-      <c r="D954" s="34"/>
+      <c r="D954" s="41"/>
     </row>
     <row r="955">
-      <c r="D955" s="34"/>
+      <c r="D955" s="41"/>
     </row>
     <row r="956">
-      <c r="D956" s="34"/>
+      <c r="D956" s="41"/>
     </row>
     <row r="957">
-      <c r="D957" s="34"/>
+      <c r="D957" s="41"/>
     </row>
     <row r="958">
-      <c r="D958" s="34"/>
+      <c r="D958" s="41"/>
     </row>
     <row r="959">
-      <c r="D959" s="34"/>
+      <c r="D959" s="41"/>
     </row>
     <row r="960">
-      <c r="D960" s="34"/>
+      <c r="D960" s="41"/>
     </row>
     <row r="961">
-      <c r="D961" s="34"/>
+      <c r="D961" s="41"/>
     </row>
     <row r="962">
-      <c r="D962" s="34"/>
+      <c r="D962" s="41"/>
     </row>
     <row r="963">
-      <c r="D963" s="34"/>
+      <c r="D963" s="41"/>
     </row>
     <row r="964">
-      <c r="D964" s="34"/>
+      <c r="D964" s="41"/>
     </row>
     <row r="965">
-      <c r="D965" s="34"/>
+      <c r="D965" s="41"/>
     </row>
     <row r="966">
-      <c r="D966" s="34"/>
+      <c r="D966" s="41"/>
     </row>
     <row r="967">
-      <c r="D967" s="34"/>
+      <c r="D967" s="41"/>
     </row>
     <row r="968">
-      <c r="D968" s="34"/>
+      <c r="D968" s="41"/>
     </row>
     <row r="969">
-      <c r="D969" s="34"/>
+      <c r="D969" s="41"/>
     </row>
     <row r="970">
-      <c r="D970" s="34"/>
+      <c r="D970" s="41"/>
     </row>
     <row r="971">
-      <c r="D971" s="34"/>
+      <c r="D971" s="41"/>
     </row>
     <row r="972">
-      <c r="D972" s="34"/>
+      <c r="D972" s="41"/>
     </row>
     <row r="973">
-      <c r="D973" s="34"/>
+      <c r="D973" s="41"/>
     </row>
     <row r="974">
-      <c r="D974" s="34"/>
+      <c r="D974" s="41"/>
     </row>
     <row r="975">
-      <c r="D975" s="34"/>
+      <c r="D975" s="41"/>
     </row>
     <row r="976">
-      <c r="D976" s="34"/>
+      <c r="D976" s="41"/>
     </row>
     <row r="977">
-      <c r="D977" s="34"/>
+      <c r="D977" s="41"/>
     </row>
     <row r="978">
-      <c r="D978" s="34"/>
+      <c r="D978" s="41"/>
     </row>
     <row r="979">
-      <c r="D979" s="34"/>
+      <c r="D979" s="41"/>
     </row>
     <row r="980">
-      <c r="D980" s="34"/>
+      <c r="D980" s="41"/>
     </row>
     <row r="981">
-      <c r="D981" s="34"/>
+      <c r="D981" s="41"/>
     </row>
     <row r="982">
-      <c r="D982" s="34"/>
+      <c r="D982" s="41"/>
     </row>
     <row r="983">
-      <c r="D983" s="34"/>
+      <c r="D983" s="41"/>
     </row>
     <row r="984">
-      <c r="D984" s="34"/>
+      <c r="D984" s="41"/>
     </row>
     <row r="985">
-      <c r="D985" s="34"/>
+      <c r="D985" s="41"/>
     </row>
     <row r="986">
-      <c r="D986" s="34"/>
+      <c r="D986" s="41"/>
     </row>
     <row r="987">
-      <c r="D987" s="34"/>
+      <c r="D987" s="41"/>
     </row>
     <row r="988">
-      <c r="D988" s="34"/>
+      <c r="D988" s="41"/>
     </row>
     <row r="989">
-      <c r="D989" s="34"/>
+      <c r="D989" s="41"/>
     </row>
     <row r="990">
-      <c r="D990" s="34"/>
+      <c r="D990" s="41"/>
     </row>
     <row r="991">
-      <c r="D991" s="34"/>
+      <c r="D991" s="41"/>
     </row>
     <row r="992">
-      <c r="D992" s="34"/>
+      <c r="D992" s="41"/>
     </row>
     <row r="993">
-      <c r="D993" s="34"/>
+      <c r="D993" s="41"/>
     </row>
     <row r="994">
-      <c r="D994" s="34"/>
+      <c r="D994" s="41"/>
     </row>
     <row r="995">
-      <c r="D995" s="34"/>
+      <c r="D995" s="41"/>
     </row>
     <row r="996">
-      <c r="D996" s="34"/>
+      <c r="D996" s="41"/>
     </row>
     <row r="997">
-      <c r="D997" s="34"/>
+      <c r="D997" s="41"/>
     </row>
     <row r="998">
-      <c r="D998" s="34"/>
+      <c r="D998" s="41"/>
     </row>
     <row r="999">
-      <c r="D999" s="34"/>
+      <c r="D999" s="41"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="34"/>
+      <c r="D1000" s="41"/>
     </row>
     <row r="1001">
-      <c r="D1001" s="34"/>
+      <c r="D1001" s="41"/>
     </row>
     <row r="1002">
-      <c r="D1002" s="34"/>
+      <c r="D1002" s="41"/>
     </row>
     <row r="1003">
-      <c r="D1003" s="34"/>
+      <c r="D1003" s="41"/>
     </row>
     <row r="1004">
-      <c r="D1004" s="34"/>
+      <c r="D1004" s="41"/>
     </row>
     <row r="1005">
-      <c r="D1005" s="34"/>
+      <c r="D1005" s="41"/>
     </row>
     <row r="1006">
-      <c r="D1006" s="34"/>
+      <c r="D1006" s="41"/>
     </row>
     <row r="1007">
-      <c r="D1007" s="34"/>
+      <c r="D1007" s="41"/>
+    </row>
+    <row r="1008">
+      <c r="D1008" s="41"/>
+    </row>
+    <row r="1009">
+      <c r="D1009" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4208,8 +4550,15 @@
     <hyperlink r:id="rId21" ref="B26"/>
     <hyperlink r:id="rId22" ref="B27"/>
     <hyperlink r:id="rId23" ref="B28"/>
+    <hyperlink r:id="rId24" ref="B29"/>
+    <hyperlink r:id="rId25" ref="B30"/>
+    <hyperlink r:id="rId26" ref="B31"/>
+    <hyperlink r:id="rId27" ref="B32"/>
+    <hyperlink r:id="rId28" ref="B33"/>
+    <hyperlink r:id="rId29" ref="B34"/>
+    <hyperlink r:id="rId30" ref="B35"/>
   </hyperlinks>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -4234,158 +4583,226 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="17"/>
+      <c r="C6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
+      <c r="B7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>21</v>
+      <c r="A8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="A9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>27</v>
+      <c r="A10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>30</v>
+      <c r="A11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>34</v>
+      <c r="A12" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4402,7 +4819,217 @@
     <hyperlink r:id="rId5" ref="B10"/>
     <hyperlink r:id="rId6" ref="B11"/>
     <hyperlink r:id="rId7" ref="B12"/>
+    <hyperlink r:id="rId8" ref="B13"/>
+    <hyperlink r:id="rId9" ref="B14"/>
+    <hyperlink r:id="rId10" ref="B15"/>
+    <hyperlink r:id="rId11" ref="B16"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFCC0000"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.43"/>
+    <col customWidth="1" min="2" max="2" width="60.86"/>
+    <col customWidth="1" min="3" max="3" width="9.86"/>
+    <col customWidth="1" min="4" max="4" width="35.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B6"/>
+    <hyperlink r:id="rId2" ref="B7"/>
+    <hyperlink r:id="rId3" ref="B8"/>
+    <hyperlink r:id="rId4" ref="B9"/>
+    <hyperlink r:id="rId5" ref="B10"/>
+    <hyperlink r:id="rId6" ref="B11"/>
+    <hyperlink r:id="rId7" ref="B12"/>
+    <hyperlink r:id="rId8" ref="B13"/>
+  </hyperlinks>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/Databases & API sheet/Click Lunch API.xlsx
+++ b/Databases & API sheet/Click Lunch API.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="189">
   <si>
     <t>Delivery Boy APIs</t>
   </si>
@@ -21,6 +21,9 @@
     <t>Shop iPad APIs</t>
   </si>
   <si>
+    <t xml:space="preserve">Customer APIs                        </t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -30,9 +33,6 @@
     <t>ClickLunch123*#*</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer APIs                        </t>
-  </si>
-  <si>
     <t>API Name</t>
   </si>
   <si>
@@ -54,33 +54,33 @@
     <t>http://13.58.201.178/api/delivery_boy_api/init/1.0.0/delivery_boy_android</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/customer_api/init/1.0.0/ios</t>
+  </si>
+  <si>
     <t>http://13.58.201.178/api/shop_ipad_api/init/1.0.0/ipad</t>
   </si>
   <si>
-    <t>http://13.58.201.178/api/customer_api/init/1.0.0/ios</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
+    <t>app_version, type (ipad)</t>
+  </si>
+  <si>
+    <t>app_version, type (ios/android)</t>
+  </si>
+  <si>
     <t>app_version, type (delivery_boy_android)</t>
   </si>
   <si>
-    <t>app_version, type (ipad)</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/login</t>
+  </si>
+  <si>
     <t>http://13.58.201.178/api/delivery_boy_api/login</t>
   </si>
   <si>
-    <t>http://13.58.201.178/api/shop_ipad_api/login</t>
-  </si>
-  <si>
-    <t>app_version, type (ios/android)</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
@@ -90,22 +90,19 @@
     <t>POST</t>
   </si>
   <si>
+    <t>email,password,device_token</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
     <t>email, password, device_token, latitude, longitude</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/logout</t>
+  </si>
+  <si>
     <t>latitude &amp; longitude are optional</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/logout</t>
-  </si>
-  <si>
-    <t>email,password,device_token</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/shop_ipad_api/logout</t>
   </si>
   <si>
     <t>username, email, password, mobile_number, date_of_birth, gender, device_token, device_type, latitude, longitude 
@@ -118,40 +115,49 @@
 latitude &amp; longitude are optional</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/logout</t>
+  </si>
+  <si>
     <t>http://13.58.201.178/api/customer_api/login</t>
   </si>
   <si>
+    <t>shop_id</t>
+  </si>
+  <si>
     <t>delivery_boy_id</t>
   </si>
   <si>
+    <t>email, password, device_token, device_type, latitude, longitude</t>
+  </si>
+  <si>
     <t>Change Password</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/change_password</t>
+  </si>
+  <si>
     <t>http://13.58.201.178/api/delivery_boy_api/change_password</t>
   </si>
   <si>
-    <t>shop_id</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/shop_ipad_api/change_password</t>
+    <t>http://13.58.201.178/api/customer_api/logout</t>
   </si>
   <si>
     <t>current_password, new_password, confirm_new_password, delivery_boy_id</t>
   </si>
   <si>
+    <t>current_password,new_password,shop_id</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
     <t>Forgot Password</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/delivery_boy_api/forgot_password</t>
   </si>
   <si>
-    <t>email, password, device_token, device_type, latitude, longitude</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/logout</t>
-  </si>
-  <si>
-    <t>current_password,new_password,shop_id</t>
+    <t>http://13.58.201.178/api/customer_api/change_password</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/shop_ipad_api/forgot_password2</t>
@@ -160,16 +166,16 @@
     <t>email</t>
   </si>
   <si>
+    <t>current_password, new_password, confirm_new_password, customer_id</t>
+  </si>
+  <si>
     <t>My Profile</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/delivery_boy_api/myprofile</t>
   </si>
   <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/change_password</t>
+    <t>http://13.58.201.178/api/customer_api/forgot_password</t>
   </si>
   <si>
     <t>My profile</t>
@@ -188,13 +194,7 @@
     <t>http://13.58.201.178/api/delivery_boy_api/update_profile</t>
   </si>
   <si>
-    <t>current_password, new_password, confirm_new_password, customer_id</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/forgot_password</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/shop_ipad_api/register</t>
+    <t>http://13.58.201.178/api/customer_api/myprofile</t>
   </si>
   <si>
     <t>delivery_boy_id, username,mobile_number, image (FILE)</t>
@@ -205,34 +205,13 @@
 http://13.58.201.178/assets/files/delivery_boy_photos/IMAGE_NAME</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/register</t>
+  </si>
+  <si>
     <t>Order Accept / Reject</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/delivery_boy_api/order_action</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/myprofile</t>
-  </si>
-  <si>
-    <t>email,shop_name,address,contact_no,message</t>
-  </si>
-  <si>
-    <t>My Order</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/shop_ipad_api/myorders</t>
-  </si>
-  <si>
-    <t>order_id, accept_reject, delivery_boy_id</t>
-  </si>
-  <si>
-    <t>Accept - 1 , Reject - 0</t>
-  </si>
-  <si>
-    <t>Get orders</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/myorders</t>
   </si>
   <si>
     <t>Profile Picture Path
@@ -242,22 +221,25 @@
     <t>http://13.58.201.178/api/customer_api/update_profile</t>
   </si>
   <si>
-    <t>shop_id,order_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	1-Deliver Now, 2-Deliver Later, 3-Takeout, 4-Takeout Later, 5 - weekly</t>
-  </si>
-  <si>
-    <t>delivery_boy_id, order_type</t>
-  </si>
-  <si>
-    <t>order_type : 1 - current orders , 2 - upcoming orders</t>
-  </si>
-  <si>
-    <t>Order Detail</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/order_detail</t>
+    <t>email,shop_name,address,contact_no,password</t>
+  </si>
+  <si>
+    <t>order_id, accept_reject, delivery_boy_id</t>
+  </si>
+  <si>
+    <t>Accept - 1 , Reject - 0</t>
+  </si>
+  <si>
+    <t>My Order</t>
+  </si>
+  <si>
+    <t>Get orders</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/shop_ipad_api/myorders</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/myorders</t>
   </si>
   <si>
     <t>customer_id, mobile_number, date_of_birth, gender(0 - male, 1- female), image (FILE)</t>
@@ -268,13 +250,34 @@
 http://13.58.201.178/assets/files/customer_profile_pictures/IMAGE_NAME</t>
   </si>
   <si>
+    <t>delivery_boy_id, order_type</t>
+  </si>
+  <si>
+    <t>order_type : 1 - current orders , 2 - upcoming orders</t>
+  </si>
+  <si>
     <t>Update Setting</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/customer_api/setting</t>
   </si>
   <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>shop_id,order_type</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/order_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1-Deliver Now, 2-Deliver Later, 3-Takeout, 4-Takeout Later, 5 - weekly</t>
+  </si>
+  <si>
     <t>order_id</t>
+  </si>
+  <si>
+    <t>customer_id, setting_name, status (0/1)</t>
   </si>
   <si>
     <t>Shop Picture Path
@@ -282,38 +285,41 @@
 payment_mode : 0 - Card , 1 - Apple Pay, 2 - Google Pay</t>
   </si>
   <si>
-    <t>Weekly Order</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/delivery_boy_api/my_weekly_orders</t>
-  </si>
-  <si>
-    <t>customer_id, setting_name, status (0/1)</t>
-  </si>
-  <si>
     <t>Setting Name
 daily_schedule_mail/cut_off_notification/delivery_notification</t>
   </si>
   <si>
+    <t>Weekly Order</t>
+  </si>
+  <si>
     <t>View My delivery address</t>
   </si>
   <si>
     <t>http://13.58.201.178/api/customer_api/my_delivery_address</t>
   </si>
   <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/my_weekly_orders</t>
+  </si>
+  <si>
+    <t>address_type :  1 - office, 2 - home, 3 - other</t>
+  </si>
+  <si>
+    <t>View All polular delivery address</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/popular_delivery_addresses</t>
+  </si>
+  <si>
     <t>delivery_boy_id, date</t>
   </si>
   <si>
     <t>date format - 2019-03-01 (Y-M-D)</t>
   </si>
   <si>
-    <t>address_type :  1 - office, 2 - home, 3 - other</t>
-  </si>
-  <si>
-    <t>View All polular delivery address</t>
-  </si>
-  <si>
-    <t>http://13.58.201.178/api/customer_api/popular_delivery_addresses</t>
+    <t>Send push to customer</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/send_custom_push</t>
   </si>
   <si>
     <t>Add delivery address</t>
@@ -322,12 +328,36 @@
     <t>http://13.58.201.178/api/customer_api/add_delivery_address</t>
   </si>
   <si>
+    <t>order_id, customer_id, message</t>
+  </si>
+  <si>
+    <t>Order Status change</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/delivery_boy_api/order_status_update</t>
+  </si>
+  <si>
+    <t>order_id, status</t>
+  </si>
+  <si>
+    <t>Status : 5 - order pickedup, 6 - order completed</t>
+  </si>
+  <si>
     <t>customer_id, house_no, street, city, zipcode, address_type, delivery_instruction(Optional), nickname(Optional)</t>
   </si>
   <si>
     <t>address_type :  1 - office, 2 - office buliding , 3 - home, 4 - other</t>
   </si>
   <si>
+    <t>edit delivery address</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/edit_delivery_address</t>
+  </si>
+  <si>
+    <t>address_id, house_no, street, city, zipcode, address_type, delivery_instruction(Optional), nickname(Optional)</t>
+  </si>
+  <si>
     <t>Set Address as Default</t>
   </si>
   <si>
@@ -358,7 +388,7 @@
     <t>http://13.58.201.178/api/customer_api/add_payment_card</t>
   </si>
   <si>
-    <t>customer_id, card_holder_name, card_number, expiry_date,cvv, nickname(Optional), card_type (1 - Visa, 2 - Mastercard, 3 - American Express, 4 - Diners Club, 5 - Discover, 6 - JCB, 7- Other)</t>
+    <t>customer_id, card_holder_name, card_number, expiry_date,cvv, nickname(Optional), card_type (1 - Visa, 2 - Mastercard, 3 - American Express, 4 - Diners Club, 5 - Discover, 6 - JCB)</t>
   </si>
   <si>
     <t xml:space="preserve">Example:
@@ -565,12 +595,79 @@
     <t>keyword should contain more than 2 charachter
 order_type = 1 - delievry, 2 - takeout</t>
   </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/order_detail</t>
+  </si>
+  <si>
+    <t>QR code Path
+http://13.58.201.178/assets/files/QR_codes/IMAGE_NAME</t>
+  </si>
+  <si>
+    <t>Order History</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/order_history</t>
+  </si>
+  <si>
+    <t>customer_id, page_number[optional], date[optional][format: YYYY-MM-DD], cuisines[optional][comma separated string]</t>
+  </si>
+  <si>
+    <t>order_type : 1-Deliver Now, 2-Deliver Later, 3-Takeout, 4-Takeout Later, 5 - Weekly
+order_status : 
+0 - PENDING
+1 - PENDING
+2 - CANCEL BY restaurant
+3 - PENDING
+4 - ACCEPTED
+5 - PICKED UP
+6 - DELIVERED
+7 - DELIEVRY FAIL</t>
+  </si>
+  <si>
+    <t>favourite Add / remove order</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/favourite_add_remove</t>
+  </si>
+  <si>
+    <t>order_id, favourite[0/1]</t>
+  </si>
+  <si>
+    <t>0 - Remove , 1 - add as favourite</t>
+  </si>
+  <si>
+    <t>Search Order history</t>
+  </si>
+  <si>
+    <t>customer_id, keyword [should be atleast 3 character]</t>
+  </si>
+  <si>
+    <t>"order_type : 1-Deliver Now, 2-Deliver Later, 3-Takeout, 4-Takeout Later, 5 - Weekly
+order_status : 
+0 - PENDING
+1 - PENDING
+2 - CANCEL BY restaurant
+3 - PENDING
+4 - ACCEPTED
+5 - PICKED UP
+6 - DELIVERED
+7 - DELIEVRY FAIL</t>
+  </si>
+  <si>
+    <t>favourite Orders</t>
+  </si>
+  <si>
+    <t>http://13.58.201.178/api/customer_api/favourite_orders</t>
+  </si>
+  <si>
+    <t>customer_id, page_number[optional], keyword[optional]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -607,21 +704,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF1F497D"/>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -636,15 +733,15 @@
     </font>
     <font>
       <u/>
+      <sz val="9.0"/>
+      <color rgb="FF505050"/>
+      <name val="OpenSans"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF505050"/>
-      <name val="OpenSans"/>
     </font>
     <font>
       <u/>
@@ -657,6 +754,9 @@
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -693,6 +793,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -701,6 +809,35 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -731,28 +868,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF95B3D7"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <left style="thin">
@@ -766,31 +884,13 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF95B3D7"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -807,45 +907,45 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -860,37 +960,37 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -901,6 +1001,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -928,6 +1031,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -943,7 +1047,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -969,12 +1073,12 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -999,14 +1103,14 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1031,10 +1135,10 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1059,24 +1163,24 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1100,3425 +1204,3512 @@
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>14</v>
+      <c r="B6" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="33"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="30" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="34" t="s">
+    <row r="11">
+      <c r="A11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="B12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B13" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="D13" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="D14" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D15" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="B37" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="D37" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="D38" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="D39" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="D40" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" s="41"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="41"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="41"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="41"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="41"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="41"/>
+      <c r="D41" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="42">
-      <c r="D42" s="41"/>
+      <c r="D42" s="42"/>
     </row>
     <row r="43">
-      <c r="D43" s="41"/>
+      <c r="D43" s="42"/>
     </row>
     <row r="44">
-      <c r="D44" s="41"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45">
-      <c r="D45" s="41"/>
+      <c r="D45" s="42"/>
     </row>
     <row r="46">
-      <c r="D46" s="41"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47">
-      <c r="D47" s="41"/>
+      <c r="D47" s="42"/>
     </row>
     <row r="48">
-      <c r="D48" s="41"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49">
-      <c r="D49" s="41"/>
+      <c r="D49" s="42"/>
     </row>
     <row r="50">
-      <c r="D50" s="41"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51">
-      <c r="D51" s="41"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52">
-      <c r="D52" s="41"/>
+      <c r="D52" s="42"/>
     </row>
     <row r="53">
-      <c r="D53" s="41"/>
+      <c r="D53" s="42"/>
     </row>
     <row r="54">
-      <c r="D54" s="41"/>
+      <c r="D54" s="42"/>
     </row>
     <row r="55">
-      <c r="D55" s="41"/>
+      <c r="D55" s="42"/>
     </row>
     <row r="56">
-      <c r="D56" s="41"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57">
-      <c r="D57" s="41"/>
+      <c r="D57" s="42"/>
     </row>
     <row r="58">
-      <c r="D58" s="41"/>
+      <c r="D58" s="42"/>
     </row>
     <row r="59">
-      <c r="D59" s="41"/>
+      <c r="D59" s="42"/>
     </row>
     <row r="60">
-      <c r="D60" s="41"/>
+      <c r="D60" s="42"/>
     </row>
     <row r="61">
-      <c r="D61" s="41"/>
+      <c r="D61" s="42"/>
     </row>
     <row r="62">
-      <c r="D62" s="41"/>
+      <c r="D62" s="42"/>
     </row>
     <row r="63">
-      <c r="D63" s="41"/>
+      <c r="D63" s="42"/>
     </row>
     <row r="64">
-      <c r="D64" s="41"/>
+      <c r="D64" s="42"/>
     </row>
     <row r="65">
-      <c r="D65" s="41"/>
+      <c r="D65" s="42"/>
     </row>
     <row r="66">
-      <c r="D66" s="41"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67">
-      <c r="D67" s="41"/>
+      <c r="D67" s="42"/>
     </row>
     <row r="68">
-      <c r="D68" s="41"/>
+      <c r="D68" s="42"/>
     </row>
     <row r="69">
-      <c r="D69" s="41"/>
+      <c r="D69" s="42"/>
     </row>
     <row r="70">
-      <c r="D70" s="41"/>
+      <c r="D70" s="42"/>
     </row>
     <row r="71">
-      <c r="D71" s="41"/>
+      <c r="D71" s="42"/>
     </row>
     <row r="72">
-      <c r="D72" s="41"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73">
-      <c r="D73" s="41"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74">
-      <c r="D74" s="41"/>
+      <c r="D74" s="42"/>
     </row>
     <row r="75">
-      <c r="D75" s="41"/>
+      <c r="D75" s="42"/>
     </row>
     <row r="76">
-      <c r="D76" s="41"/>
+      <c r="D76" s="42"/>
     </row>
     <row r="77">
-      <c r="D77" s="41"/>
+      <c r="D77" s="42"/>
     </row>
     <row r="78">
-      <c r="D78" s="41"/>
+      <c r="D78" s="42"/>
     </row>
     <row r="79">
-      <c r="D79" s="41"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80">
-      <c r="D80" s="41"/>
+      <c r="D80" s="42"/>
     </row>
     <row r="81">
-      <c r="D81" s="41"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82">
-      <c r="D82" s="41"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83">
-      <c r="D83" s="41"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84">
-      <c r="D84" s="41"/>
+      <c r="D84" s="42"/>
     </row>
     <row r="85">
-      <c r="D85" s="41"/>
+      <c r="D85" s="42"/>
     </row>
     <row r="86">
-      <c r="D86" s="41"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87">
-      <c r="D87" s="41"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88">
-      <c r="D88" s="41"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89">
-      <c r="D89" s="41"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90">
-      <c r="D90" s="41"/>
+      <c r="D90" s="42"/>
     </row>
     <row r="91">
-      <c r="D91" s="41"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92">
-      <c r="D92" s="41"/>
+      <c r="D92" s="42"/>
     </row>
     <row r="93">
-      <c r="D93" s="41"/>
+      <c r="D93" s="42"/>
     </row>
     <row r="94">
-      <c r="D94" s="41"/>
+      <c r="D94" s="42"/>
     </row>
     <row r="95">
-      <c r="D95" s="41"/>
+      <c r="D95" s="42"/>
     </row>
     <row r="96">
-      <c r="D96" s="41"/>
+      <c r="D96" s="42"/>
     </row>
     <row r="97">
-      <c r="D97" s="41"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98">
-      <c r="D98" s="41"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99">
-      <c r="D99" s="41"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100">
-      <c r="D100" s="41"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="101">
-      <c r="D101" s="41"/>
+      <c r="D101" s="42"/>
     </row>
     <row r="102">
-      <c r="D102" s="41"/>
+      <c r="D102" s="42"/>
     </row>
     <row r="103">
-      <c r="D103" s="41"/>
+      <c r="D103" s="42"/>
     </row>
     <row r="104">
-      <c r="D104" s="41"/>
+      <c r="D104" s="42"/>
     </row>
     <row r="105">
-      <c r="D105" s="41"/>
+      <c r="D105" s="42"/>
     </row>
     <row r="106">
-      <c r="D106" s="41"/>
+      <c r="D106" s="42"/>
     </row>
     <row r="107">
-      <c r="D107" s="41"/>
+      <c r="D107" s="42"/>
     </row>
     <row r="108">
-      <c r="D108" s="41"/>
+      <c r="D108" s="42"/>
     </row>
     <row r="109">
-      <c r="D109" s="41"/>
+      <c r="D109" s="42"/>
     </row>
     <row r="110">
-      <c r="D110" s="41"/>
+      <c r="D110" s="42"/>
     </row>
     <row r="111">
-      <c r="D111" s="41"/>
+      <c r="D111" s="42"/>
     </row>
     <row r="112">
-      <c r="D112" s="41"/>
+      <c r="D112" s="42"/>
     </row>
     <row r="113">
-      <c r="D113" s="41"/>
+      <c r="D113" s="42"/>
     </row>
     <row r="114">
-      <c r="D114" s="41"/>
+      <c r="D114" s="42"/>
     </row>
     <row r="115">
-      <c r="D115" s="41"/>
+      <c r="D115" s="42"/>
     </row>
     <row r="116">
-      <c r="D116" s="41"/>
+      <c r="D116" s="42"/>
     </row>
     <row r="117">
-      <c r="D117" s="41"/>
+      <c r="D117" s="42"/>
     </row>
     <row r="118">
-      <c r="D118" s="41"/>
+      <c r="D118" s="42"/>
     </row>
     <row r="119">
-      <c r="D119" s="41"/>
+      <c r="D119" s="42"/>
     </row>
     <row r="120">
-      <c r="D120" s="41"/>
+      <c r="D120" s="42"/>
     </row>
     <row r="121">
-      <c r="D121" s="41"/>
+      <c r="D121" s="42"/>
     </row>
     <row r="122">
-      <c r="D122" s="41"/>
+      <c r="D122" s="42"/>
     </row>
     <row r="123">
-      <c r="D123" s="41"/>
+      <c r="D123" s="42"/>
     </row>
     <row r="124">
-      <c r="D124" s="41"/>
+      <c r="D124" s="42"/>
     </row>
     <row r="125">
-      <c r="D125" s="41"/>
+      <c r="D125" s="42"/>
     </row>
     <row r="126">
-      <c r="D126" s="41"/>
+      <c r="D126" s="42"/>
     </row>
     <row r="127">
-      <c r="D127" s="41"/>
+      <c r="D127" s="42"/>
     </row>
     <row r="128">
-      <c r="D128" s="41"/>
+      <c r="D128" s="42"/>
     </row>
     <row r="129">
-      <c r="D129" s="41"/>
+      <c r="D129" s="42"/>
     </row>
     <row r="130">
-      <c r="D130" s="41"/>
+      <c r="D130" s="42"/>
     </row>
     <row r="131">
-      <c r="D131" s="41"/>
+      <c r="D131" s="42"/>
     </row>
     <row r="132">
-      <c r="D132" s="41"/>
+      <c r="D132" s="42"/>
     </row>
     <row r="133">
-      <c r="D133" s="41"/>
+      <c r="D133" s="42"/>
     </row>
     <row r="134">
-      <c r="D134" s="41"/>
+      <c r="D134" s="42"/>
     </row>
     <row r="135">
-      <c r="D135" s="41"/>
+      <c r="D135" s="42"/>
     </row>
     <row r="136">
-      <c r="D136" s="41"/>
+      <c r="D136" s="42"/>
     </row>
     <row r="137">
-      <c r="D137" s="41"/>
+      <c r="D137" s="42"/>
     </row>
     <row r="138">
-      <c r="D138" s="41"/>
+      <c r="D138" s="42"/>
     </row>
     <row r="139">
-      <c r="D139" s="41"/>
+      <c r="D139" s="42"/>
     </row>
     <row r="140">
-      <c r="D140" s="41"/>
+      <c r="D140" s="42"/>
     </row>
     <row r="141">
-      <c r="D141" s="41"/>
+      <c r="D141" s="42"/>
     </row>
     <row r="142">
-      <c r="D142" s="41"/>
+      <c r="D142" s="42"/>
     </row>
     <row r="143">
-      <c r="D143" s="41"/>
+      <c r="D143" s="42"/>
     </row>
     <row r="144">
-      <c r="D144" s="41"/>
+      <c r="D144" s="42"/>
     </row>
     <row r="145">
-      <c r="D145" s="41"/>
+      <c r="D145" s="42"/>
     </row>
     <row r="146">
-      <c r="D146" s="41"/>
+      <c r="D146" s="42"/>
     </row>
     <row r="147">
-      <c r="D147" s="41"/>
+      <c r="D147" s="42"/>
     </row>
     <row r="148">
-      <c r="D148" s="41"/>
+      <c r="D148" s="42"/>
     </row>
     <row r="149">
-      <c r="D149" s="41"/>
+      <c r="D149" s="42"/>
     </row>
     <row r="150">
-      <c r="D150" s="41"/>
+      <c r="D150" s="42"/>
     </row>
     <row r="151">
-      <c r="D151" s="41"/>
+      <c r="D151" s="42"/>
     </row>
     <row r="152">
-      <c r="D152" s="41"/>
+      <c r="D152" s="42"/>
     </row>
     <row r="153">
-      <c r="D153" s="41"/>
+      <c r="D153" s="42"/>
     </row>
     <row r="154">
-      <c r="D154" s="41"/>
+      <c r="D154" s="42"/>
     </row>
     <row r="155">
-      <c r="D155" s="41"/>
+      <c r="D155" s="42"/>
     </row>
     <row r="156">
-      <c r="D156" s="41"/>
+      <c r="D156" s="42"/>
     </row>
     <row r="157">
-      <c r="D157" s="41"/>
+      <c r="D157" s="42"/>
     </row>
     <row r="158">
-      <c r="D158" s="41"/>
+      <c r="D158" s="42"/>
     </row>
     <row r="159">
-      <c r="D159" s="41"/>
+      <c r="D159" s="42"/>
     </row>
     <row r="160">
-      <c r="D160" s="41"/>
+      <c r="D160" s="42"/>
     </row>
     <row r="161">
-      <c r="D161" s="41"/>
+      <c r="D161" s="42"/>
     </row>
     <row r="162">
-      <c r="D162" s="41"/>
+      <c r="D162" s="42"/>
     </row>
     <row r="163">
-      <c r="D163" s="41"/>
+      <c r="D163" s="42"/>
     </row>
     <row r="164">
-      <c r="D164" s="41"/>
+      <c r="D164" s="42"/>
     </row>
     <row r="165">
-      <c r="D165" s="41"/>
+      <c r="D165" s="42"/>
     </row>
     <row r="166">
-      <c r="D166" s="41"/>
+      <c r="D166" s="42"/>
     </row>
     <row r="167">
-      <c r="D167" s="41"/>
+      <c r="D167" s="42"/>
     </row>
     <row r="168">
-      <c r="D168" s="41"/>
+      <c r="D168" s="42"/>
     </row>
     <row r="169">
-      <c r="D169" s="41"/>
+      <c r="D169" s="42"/>
     </row>
     <row r="170">
-      <c r="D170" s="41"/>
+      <c r="D170" s="42"/>
     </row>
     <row r="171">
-      <c r="D171" s="41"/>
+      <c r="D171" s="42"/>
     </row>
     <row r="172">
-      <c r="D172" s="41"/>
+      <c r="D172" s="42"/>
     </row>
     <row r="173">
-      <c r="D173" s="41"/>
+      <c r="D173" s="42"/>
     </row>
     <row r="174">
-      <c r="D174" s="41"/>
+      <c r="D174" s="42"/>
     </row>
     <row r="175">
-      <c r="D175" s="41"/>
+      <c r="D175" s="42"/>
     </row>
     <row r="176">
-      <c r="D176" s="41"/>
+      <c r="D176" s="42"/>
     </row>
     <row r="177">
-      <c r="D177" s="41"/>
+      <c r="D177" s="42"/>
     </row>
     <row r="178">
-      <c r="D178" s="41"/>
+      <c r="D178" s="42"/>
     </row>
     <row r="179">
-      <c r="D179" s="41"/>
+      <c r="D179" s="42"/>
     </row>
     <row r="180">
-      <c r="D180" s="41"/>
+      <c r="D180" s="42"/>
     </row>
     <row r="181">
-      <c r="D181" s="41"/>
+      <c r="D181" s="42"/>
     </row>
     <row r="182">
-      <c r="D182" s="41"/>
+      <c r="D182" s="42"/>
     </row>
     <row r="183">
-      <c r="D183" s="41"/>
+      <c r="D183" s="42"/>
     </row>
     <row r="184">
-      <c r="D184" s="41"/>
+      <c r="D184" s="42"/>
     </row>
     <row r="185">
-      <c r="D185" s="41"/>
+      <c r="D185" s="42"/>
     </row>
     <row r="186">
-      <c r="D186" s="41"/>
+      <c r="D186" s="42"/>
     </row>
     <row r="187">
-      <c r="D187" s="41"/>
+      <c r="D187" s="42"/>
     </row>
     <row r="188">
-      <c r="D188" s="41"/>
+      <c r="D188" s="42"/>
     </row>
     <row r="189">
-      <c r="D189" s="41"/>
+      <c r="D189" s="42"/>
     </row>
     <row r="190">
-      <c r="D190" s="41"/>
+      <c r="D190" s="42"/>
     </row>
     <row r="191">
-      <c r="D191" s="41"/>
+      <c r="D191" s="42"/>
     </row>
     <row r="192">
-      <c r="D192" s="41"/>
+      <c r="D192" s="42"/>
     </row>
     <row r="193">
-      <c r="D193" s="41"/>
+      <c r="D193" s="42"/>
     </row>
     <row r="194">
-      <c r="D194" s="41"/>
+      <c r="D194" s="42"/>
     </row>
     <row r="195">
-      <c r="D195" s="41"/>
+      <c r="D195" s="42"/>
     </row>
     <row r="196">
-      <c r="D196" s="41"/>
+      <c r="D196" s="42"/>
     </row>
     <row r="197">
-      <c r="D197" s="41"/>
+      <c r="D197" s="42"/>
     </row>
     <row r="198">
-      <c r="D198" s="41"/>
+      <c r="D198" s="42"/>
     </row>
     <row r="199">
-      <c r="D199" s="41"/>
+      <c r="D199" s="42"/>
     </row>
     <row r="200">
-      <c r="D200" s="41"/>
+      <c r="D200" s="42"/>
     </row>
     <row r="201">
-      <c r="D201" s="41"/>
+      <c r="D201" s="42"/>
     </row>
     <row r="202">
-      <c r="D202" s="41"/>
+      <c r="D202" s="42"/>
     </row>
     <row r="203">
-      <c r="D203" s="41"/>
+      <c r="D203" s="42"/>
     </row>
     <row r="204">
-      <c r="D204" s="41"/>
+      <c r="D204" s="42"/>
     </row>
     <row r="205">
-      <c r="D205" s="41"/>
+      <c r="D205" s="42"/>
     </row>
     <row r="206">
-      <c r="D206" s="41"/>
+      <c r="D206" s="42"/>
     </row>
     <row r="207">
-      <c r="D207" s="41"/>
+      <c r="D207" s="42"/>
     </row>
     <row r="208">
-      <c r="D208" s="41"/>
+      <c r="D208" s="42"/>
     </row>
     <row r="209">
-      <c r="D209" s="41"/>
+      <c r="D209" s="42"/>
     </row>
     <row r="210">
-      <c r="D210" s="41"/>
+      <c r="D210" s="42"/>
     </row>
     <row r="211">
-      <c r="D211" s="41"/>
+      <c r="D211" s="42"/>
     </row>
     <row r="212">
-      <c r="D212" s="41"/>
+      <c r="D212" s="42"/>
     </row>
     <row r="213">
-      <c r="D213" s="41"/>
+      <c r="D213" s="42"/>
     </row>
     <row r="214">
-      <c r="D214" s="41"/>
+      <c r="D214" s="42"/>
     </row>
     <row r="215">
-      <c r="D215" s="41"/>
+      <c r="D215" s="42"/>
     </row>
     <row r="216">
-      <c r="D216" s="41"/>
+      <c r="D216" s="42"/>
     </row>
     <row r="217">
-      <c r="D217" s="41"/>
+      <c r="D217" s="42"/>
     </row>
     <row r="218">
-      <c r="D218" s="41"/>
+      <c r="D218" s="42"/>
     </row>
     <row r="219">
-      <c r="D219" s="41"/>
+      <c r="D219" s="42"/>
     </row>
     <row r="220">
-      <c r="D220" s="41"/>
+      <c r="D220" s="42"/>
     </row>
     <row r="221">
-      <c r="D221" s="41"/>
+      <c r="D221" s="42"/>
     </row>
     <row r="222">
-      <c r="D222" s="41"/>
+      <c r="D222" s="42"/>
     </row>
     <row r="223">
-      <c r="D223" s="41"/>
+      <c r="D223" s="42"/>
     </row>
     <row r="224">
-      <c r="D224" s="41"/>
+      <c r="D224" s="42"/>
     </row>
     <row r="225">
-      <c r="D225" s="41"/>
+      <c r="D225" s="42"/>
     </row>
     <row r="226">
-      <c r="D226" s="41"/>
+      <c r="D226" s="42"/>
     </row>
     <row r="227">
-      <c r="D227" s="41"/>
+      <c r="D227" s="42"/>
     </row>
     <row r="228">
-      <c r="D228" s="41"/>
+      <c r="D228" s="42"/>
     </row>
     <row r="229">
-      <c r="D229" s="41"/>
+      <c r="D229" s="42"/>
     </row>
     <row r="230">
-      <c r="D230" s="41"/>
+      <c r="D230" s="42"/>
     </row>
     <row r="231">
-      <c r="D231" s="41"/>
+      <c r="D231" s="42"/>
     </row>
     <row r="232">
-      <c r="D232" s="41"/>
+      <c r="D232" s="42"/>
     </row>
     <row r="233">
-      <c r="D233" s="41"/>
+      <c r="D233" s="42"/>
     </row>
     <row r="234">
-      <c r="D234" s="41"/>
+      <c r="D234" s="42"/>
     </row>
     <row r="235">
-      <c r="D235" s="41"/>
+      <c r="D235" s="42"/>
     </row>
     <row r="236">
-      <c r="D236" s="41"/>
+      <c r="D236" s="42"/>
     </row>
     <row r="237">
-      <c r="D237" s="41"/>
+      <c r="D237" s="42"/>
     </row>
     <row r="238">
-      <c r="D238" s="41"/>
+      <c r="D238" s="42"/>
     </row>
     <row r="239">
-      <c r="D239" s="41"/>
+      <c r="D239" s="42"/>
     </row>
     <row r="240">
-      <c r="D240" s="41"/>
+      <c r="D240" s="42"/>
     </row>
     <row r="241">
-      <c r="D241" s="41"/>
+      <c r="D241" s="42"/>
     </row>
     <row r="242">
-      <c r="D242" s="41"/>
+      <c r="D242" s="42"/>
     </row>
     <row r="243">
-      <c r="D243" s="41"/>
+      <c r="D243" s="42"/>
     </row>
     <row r="244">
-      <c r="D244" s="41"/>
+      <c r="D244" s="42"/>
     </row>
     <row r="245">
-      <c r="D245" s="41"/>
+      <c r="D245" s="42"/>
     </row>
     <row r="246">
-      <c r="D246" s="41"/>
+      <c r="D246" s="42"/>
     </row>
     <row r="247">
-      <c r="D247" s="41"/>
+      <c r="D247" s="42"/>
     </row>
     <row r="248">
-      <c r="D248" s="41"/>
+      <c r="D248" s="42"/>
     </row>
     <row r="249">
-      <c r="D249" s="41"/>
+      <c r="D249" s="42"/>
     </row>
     <row r="250">
-      <c r="D250" s="41"/>
+      <c r="D250" s="42"/>
     </row>
     <row r="251">
-      <c r="D251" s="41"/>
+      <c r="D251" s="42"/>
     </row>
     <row r="252">
-      <c r="D252" s="41"/>
+      <c r="D252" s="42"/>
     </row>
     <row r="253">
-      <c r="D253" s="41"/>
+      <c r="D253" s="42"/>
     </row>
     <row r="254">
-      <c r="D254" s="41"/>
+      <c r="D254" s="42"/>
     </row>
     <row r="255">
-      <c r="D255" s="41"/>
+      <c r="D255" s="42"/>
     </row>
     <row r="256">
-      <c r="D256" s="41"/>
+      <c r="D256" s="42"/>
     </row>
     <row r="257">
-      <c r="D257" s="41"/>
+      <c r="D257" s="42"/>
     </row>
     <row r="258">
-      <c r="D258" s="41"/>
+      <c r="D258" s="42"/>
     </row>
     <row r="259">
-      <c r="D259" s="41"/>
+      <c r="D259" s="42"/>
     </row>
     <row r="260">
-      <c r="D260" s="41"/>
+      <c r="D260" s="42"/>
     </row>
     <row r="261">
-      <c r="D261" s="41"/>
+      <c r="D261" s="42"/>
     </row>
     <row r="262">
-      <c r="D262" s="41"/>
+      <c r="D262" s="42"/>
     </row>
     <row r="263">
-      <c r="D263" s="41"/>
+      <c r="D263" s="42"/>
     </row>
     <row r="264">
-      <c r="D264" s="41"/>
+      <c r="D264" s="42"/>
     </row>
     <row r="265">
-      <c r="D265" s="41"/>
+      <c r="D265" s="42"/>
     </row>
     <row r="266">
-      <c r="D266" s="41"/>
+      <c r="D266" s="42"/>
     </row>
     <row r="267">
-      <c r="D267" s="41"/>
+      <c r="D267" s="42"/>
     </row>
     <row r="268">
-      <c r="D268" s="41"/>
+      <c r="D268" s="42"/>
     </row>
     <row r="269">
-      <c r="D269" s="41"/>
+      <c r="D269" s="42"/>
     </row>
     <row r="270">
-      <c r="D270" s="41"/>
+      <c r="D270" s="42"/>
     </row>
     <row r="271">
-      <c r="D271" s="41"/>
+      <c r="D271" s="42"/>
     </row>
     <row r="272">
-      <c r="D272" s="41"/>
+      <c r="D272" s="42"/>
     </row>
     <row r="273">
-      <c r="D273" s="41"/>
+      <c r="D273" s="42"/>
     </row>
     <row r="274">
-      <c r="D274" s="41"/>
+      <c r="D274" s="42"/>
     </row>
     <row r="275">
-      <c r="D275" s="41"/>
+      <c r="D275" s="42"/>
     </row>
     <row r="276">
-      <c r="D276" s="41"/>
+      <c r="D276" s="42"/>
     </row>
     <row r="277">
-      <c r="D277" s="41"/>
+      <c r="D277" s="42"/>
     </row>
     <row r="278">
-      <c r="D278" s="41"/>
+      <c r="D278" s="42"/>
     </row>
     <row r="279">
-      <c r="D279" s="41"/>
+      <c r="D279" s="42"/>
     </row>
     <row r="280">
-      <c r="D280" s="41"/>
+      <c r="D280" s="42"/>
     </row>
     <row r="281">
-      <c r="D281" s="41"/>
+      <c r="D281" s="42"/>
     </row>
     <row r="282">
-      <c r="D282" s="41"/>
+      <c r="D282" s="42"/>
     </row>
     <row r="283">
-      <c r="D283" s="41"/>
+      <c r="D283" s="42"/>
     </row>
     <row r="284">
-      <c r="D284" s="41"/>
+      <c r="D284" s="42"/>
     </row>
     <row r="285">
-      <c r="D285" s="41"/>
+      <c r="D285" s="42"/>
     </row>
     <row r="286">
-      <c r="D286" s="41"/>
+      <c r="D286" s="42"/>
     </row>
     <row r="287">
-      <c r="D287" s="41"/>
+      <c r="D287" s="42"/>
     </row>
     <row r="288">
-      <c r="D288" s="41"/>
+      <c r="D288" s="42"/>
     </row>
     <row r="289">
-      <c r="D289" s="41"/>
+      <c r="D289" s="42"/>
     </row>
     <row r="290">
-      <c r="D290" s="41"/>
+      <c r="D290" s="42"/>
     </row>
     <row r="291">
-      <c r="D291" s="41"/>
+      <c r="D291" s="42"/>
     </row>
     <row r="292">
-      <c r="D292" s="41"/>
+      <c r="D292" s="42"/>
     </row>
     <row r="293">
-      <c r="D293" s="41"/>
+      <c r="D293" s="42"/>
     </row>
     <row r="294">
-      <c r="D294" s="41"/>
+      <c r="D294" s="42"/>
     </row>
     <row r="295">
-      <c r="D295" s="41"/>
+      <c r="D295" s="42"/>
     </row>
     <row r="296">
-      <c r="D296" s="41"/>
+      <c r="D296" s="42"/>
     </row>
     <row r="297">
-      <c r="D297" s="41"/>
+      <c r="D297" s="42"/>
     </row>
     <row r="298">
-      <c r="D298" s="41"/>
+      <c r="D298" s="42"/>
     </row>
     <row r="299">
-      <c r="D299" s="41"/>
+      <c r="D299" s="42"/>
     </row>
     <row r="300">
-      <c r="D300" s="41"/>
+      <c r="D300" s="42"/>
     </row>
     <row r="301">
-      <c r="D301" s="41"/>
+      <c r="D301" s="42"/>
     </row>
     <row r="302">
-      <c r="D302" s="41"/>
+      <c r="D302" s="42"/>
     </row>
     <row r="303">
-      <c r="D303" s="41"/>
+      <c r="D303" s="42"/>
     </row>
     <row r="304">
-      <c r="D304" s="41"/>
+      <c r="D304" s="42"/>
     </row>
     <row r="305">
-      <c r="D305" s="41"/>
+      <c r="D305" s="42"/>
     </row>
     <row r="306">
-      <c r="D306" s="41"/>
+      <c r="D306" s="42"/>
     </row>
     <row r="307">
-      <c r="D307" s="41"/>
+      <c r="D307" s="42"/>
     </row>
     <row r="308">
-      <c r="D308" s="41"/>
+      <c r="D308" s="42"/>
     </row>
     <row r="309">
-      <c r="D309" s="41"/>
+      <c r="D309" s="42"/>
     </row>
     <row r="310">
-      <c r="D310" s="41"/>
+      <c r="D310" s="42"/>
     </row>
     <row r="311">
-      <c r="D311" s="41"/>
+      <c r="D311" s="42"/>
     </row>
     <row r="312">
-      <c r="D312" s="41"/>
+      <c r="D312" s="42"/>
     </row>
     <row r="313">
-      <c r="D313" s="41"/>
+      <c r="D313" s="42"/>
     </row>
     <row r="314">
-      <c r="D314" s="41"/>
+      <c r="D314" s="42"/>
     </row>
     <row r="315">
-      <c r="D315" s="41"/>
+      <c r="D315" s="42"/>
     </row>
     <row r="316">
-      <c r="D316" s="41"/>
+      <c r="D316" s="42"/>
     </row>
     <row r="317">
-      <c r="D317" s="41"/>
+      <c r="D317" s="42"/>
     </row>
     <row r="318">
-      <c r="D318" s="41"/>
+      <c r="D318" s="42"/>
     </row>
     <row r="319">
-      <c r="D319" s="41"/>
+      <c r="D319" s="42"/>
     </row>
     <row r="320">
-      <c r="D320" s="41"/>
+      <c r="D320" s="42"/>
     </row>
     <row r="321">
-      <c r="D321" s="41"/>
+      <c r="D321" s="42"/>
     </row>
     <row r="322">
-      <c r="D322" s="41"/>
+      <c r="D322" s="42"/>
     </row>
     <row r="323">
-      <c r="D323" s="41"/>
+      <c r="D323" s="42"/>
     </row>
     <row r="324">
-      <c r="D324" s="41"/>
+      <c r="D324" s="42"/>
     </row>
     <row r="325">
-      <c r="D325" s="41"/>
+      <c r="D325" s="42"/>
     </row>
     <row r="326">
-      <c r="D326" s="41"/>
+      <c r="D326" s="42"/>
     </row>
     <row r="327">
-      <c r="D327" s="41"/>
+      <c r="D327" s="42"/>
     </row>
     <row r="328">
-      <c r="D328" s="41"/>
+      <c r="D328" s="42"/>
     </row>
     <row r="329">
-      <c r="D329" s="41"/>
+      <c r="D329" s="42"/>
     </row>
     <row r="330">
-      <c r="D330" s="41"/>
+      <c r="D330" s="42"/>
     </row>
     <row r="331">
-      <c r="D331" s="41"/>
+      <c r="D331" s="42"/>
     </row>
     <row r="332">
-      <c r="D332" s="41"/>
+      <c r="D332" s="42"/>
     </row>
     <row r="333">
-      <c r="D333" s="41"/>
+      <c r="D333" s="42"/>
     </row>
     <row r="334">
-      <c r="D334" s="41"/>
+      <c r="D334" s="42"/>
     </row>
     <row r="335">
-      <c r="D335" s="41"/>
+      <c r="D335" s="42"/>
     </row>
     <row r="336">
-      <c r="D336" s="41"/>
+      <c r="D336" s="42"/>
     </row>
     <row r="337">
-      <c r="D337" s="41"/>
+      <c r="D337" s="42"/>
     </row>
     <row r="338">
-      <c r="D338" s="41"/>
+      <c r="D338" s="42"/>
     </row>
     <row r="339">
-      <c r="D339" s="41"/>
+      <c r="D339" s="42"/>
     </row>
     <row r="340">
-      <c r="D340" s="41"/>
+      <c r="D340" s="42"/>
     </row>
     <row r="341">
-      <c r="D341" s="41"/>
+      <c r="D341" s="42"/>
     </row>
     <row r="342">
-      <c r="D342" s="41"/>
+      <c r="D342" s="42"/>
     </row>
     <row r="343">
-      <c r="D343" s="41"/>
+      <c r="D343" s="42"/>
     </row>
     <row r="344">
-      <c r="D344" s="41"/>
+      <c r="D344" s="42"/>
     </row>
     <row r="345">
-      <c r="D345" s="41"/>
+      <c r="D345" s="42"/>
     </row>
     <row r="346">
-      <c r="D346" s="41"/>
+      <c r="D346" s="42"/>
     </row>
     <row r="347">
-      <c r="D347" s="41"/>
+      <c r="D347" s="42"/>
     </row>
     <row r="348">
-      <c r="D348" s="41"/>
+      <c r="D348" s="42"/>
     </row>
     <row r="349">
-      <c r="D349" s="41"/>
+      <c r="D349" s="42"/>
     </row>
     <row r="350">
-      <c r="D350" s="41"/>
+      <c r="D350" s="42"/>
     </row>
     <row r="351">
-      <c r="D351" s="41"/>
+      <c r="D351" s="42"/>
     </row>
     <row r="352">
-      <c r="D352" s="41"/>
+      <c r="D352" s="42"/>
     </row>
     <row r="353">
-      <c r="D353" s="41"/>
+      <c r="D353" s="42"/>
     </row>
     <row r="354">
-      <c r="D354" s="41"/>
+      <c r="D354" s="42"/>
     </row>
     <row r="355">
-      <c r="D355" s="41"/>
+      <c r="D355" s="42"/>
     </row>
     <row r="356">
-      <c r="D356" s="41"/>
+      <c r="D356" s="42"/>
     </row>
     <row r="357">
-      <c r="D357" s="41"/>
+      <c r="D357" s="42"/>
     </row>
     <row r="358">
-      <c r="D358" s="41"/>
+      <c r="D358" s="42"/>
     </row>
     <row r="359">
-      <c r="D359" s="41"/>
+      <c r="D359" s="42"/>
     </row>
     <row r="360">
-      <c r="D360" s="41"/>
+      <c r="D360" s="42"/>
     </row>
     <row r="361">
-      <c r="D361" s="41"/>
+      <c r="D361" s="42"/>
     </row>
     <row r="362">
-      <c r="D362" s="41"/>
+      <c r="D362" s="42"/>
     </row>
     <row r="363">
-      <c r="D363" s="41"/>
+      <c r="D363" s="42"/>
     </row>
     <row r="364">
-      <c r="D364" s="41"/>
+      <c r="D364" s="42"/>
     </row>
     <row r="365">
-      <c r="D365" s="41"/>
+      <c r="D365" s="42"/>
     </row>
     <row r="366">
-      <c r="D366" s="41"/>
+      <c r="D366" s="42"/>
     </row>
     <row r="367">
-      <c r="D367" s="41"/>
+      <c r="D367" s="42"/>
     </row>
     <row r="368">
-      <c r="D368" s="41"/>
+      <c r="D368" s="42"/>
     </row>
     <row r="369">
-      <c r="D369" s="41"/>
+      <c r="D369" s="42"/>
     </row>
     <row r="370">
-      <c r="D370" s="41"/>
+      <c r="D370" s="42"/>
     </row>
     <row r="371">
-      <c r="D371" s="41"/>
+      <c r="D371" s="42"/>
     </row>
     <row r="372">
-      <c r="D372" s="41"/>
+      <c r="D372" s="42"/>
     </row>
     <row r="373">
-      <c r="D373" s="41"/>
+      <c r="D373" s="42"/>
     </row>
     <row r="374">
-      <c r="D374" s="41"/>
+      <c r="D374" s="42"/>
     </row>
     <row r="375">
-      <c r="D375" s="41"/>
+      <c r="D375" s="42"/>
     </row>
     <row r="376">
-      <c r="D376" s="41"/>
+      <c r="D376" s="42"/>
     </row>
     <row r="377">
-      <c r="D377" s="41"/>
+      <c r="D377" s="42"/>
     </row>
     <row r="378">
-      <c r="D378" s="41"/>
+      <c r="D378" s="42"/>
     </row>
     <row r="379">
-      <c r="D379" s="41"/>
+      <c r="D379" s="42"/>
     </row>
     <row r="380">
-      <c r="D380" s="41"/>
+      <c r="D380" s="42"/>
     </row>
     <row r="381">
-      <c r="D381" s="41"/>
+      <c r="D381" s="42"/>
     </row>
     <row r="382">
-      <c r="D382" s="41"/>
+      <c r="D382" s="42"/>
     </row>
     <row r="383">
-      <c r="D383" s="41"/>
+      <c r="D383" s="42"/>
     </row>
     <row r="384">
-      <c r="D384" s="41"/>
+      <c r="D384" s="42"/>
     </row>
     <row r="385">
-      <c r="D385" s="41"/>
+      <c r="D385" s="42"/>
     </row>
     <row r="386">
-      <c r="D386" s="41"/>
+      <c r="D386" s="42"/>
     </row>
     <row r="387">
-      <c r="D387" s="41"/>
+      <c r="D387" s="42"/>
     </row>
     <row r="388">
-      <c r="D388" s="41"/>
+      <c r="D388" s="42"/>
     </row>
     <row r="389">
-      <c r="D389" s="41"/>
+      <c r="D389" s="42"/>
     </row>
     <row r="390">
-      <c r="D390" s="41"/>
+      <c r="D390" s="42"/>
     </row>
     <row r="391">
-      <c r="D391" s="41"/>
+      <c r="D391" s="42"/>
     </row>
     <row r="392">
-      <c r="D392" s="41"/>
+      <c r="D392" s="42"/>
     </row>
     <row r="393">
-      <c r="D393" s="41"/>
+      <c r="D393" s="42"/>
     </row>
     <row r="394">
-      <c r="D394" s="41"/>
+      <c r="D394" s="42"/>
     </row>
     <row r="395">
-      <c r="D395" s="41"/>
+      <c r="D395" s="42"/>
     </row>
     <row r="396">
-      <c r="D396" s="41"/>
+      <c r="D396" s="42"/>
     </row>
     <row r="397">
-      <c r="D397" s="41"/>
+      <c r="D397" s="42"/>
     </row>
     <row r="398">
-      <c r="D398" s="41"/>
+      <c r="D398" s="42"/>
     </row>
     <row r="399">
-      <c r="D399" s="41"/>
+      <c r="D399" s="42"/>
     </row>
     <row r="400">
-      <c r="D400" s="41"/>
+      <c r="D400" s="42"/>
     </row>
     <row r="401">
-      <c r="D401" s="41"/>
+      <c r="D401" s="42"/>
     </row>
     <row r="402">
-      <c r="D402" s="41"/>
+      <c r="D402" s="42"/>
     </row>
     <row r="403">
-      <c r="D403" s="41"/>
+      <c r="D403" s="42"/>
     </row>
     <row r="404">
-      <c r="D404" s="41"/>
+      <c r="D404" s="42"/>
     </row>
     <row r="405">
-      <c r="D405" s="41"/>
+      <c r="D405" s="42"/>
     </row>
     <row r="406">
-      <c r="D406" s="41"/>
+      <c r="D406" s="42"/>
     </row>
     <row r="407">
-      <c r="D407" s="41"/>
+      <c r="D407" s="42"/>
     </row>
     <row r="408">
-      <c r="D408" s="41"/>
+      <c r="D408" s="42"/>
     </row>
     <row r="409">
-      <c r="D409" s="41"/>
+      <c r="D409" s="42"/>
     </row>
     <row r="410">
-      <c r="D410" s="41"/>
+      <c r="D410" s="42"/>
     </row>
     <row r="411">
-      <c r="D411" s="41"/>
+      <c r="D411" s="42"/>
     </row>
     <row r="412">
-      <c r="D412" s="41"/>
+      <c r="D412" s="42"/>
     </row>
     <row r="413">
-      <c r="D413" s="41"/>
+      <c r="D413" s="42"/>
     </row>
     <row r="414">
-      <c r="D414" s="41"/>
+      <c r="D414" s="42"/>
     </row>
     <row r="415">
-      <c r="D415" s="41"/>
+      <c r="D415" s="42"/>
     </row>
     <row r="416">
-      <c r="D416" s="41"/>
+      <c r="D416" s="42"/>
     </row>
     <row r="417">
-      <c r="D417" s="41"/>
+      <c r="D417" s="42"/>
     </row>
     <row r="418">
-      <c r="D418" s="41"/>
+      <c r="D418" s="42"/>
     </row>
     <row r="419">
-      <c r="D419" s="41"/>
+      <c r="D419" s="42"/>
     </row>
     <row r="420">
-      <c r="D420" s="41"/>
+      <c r="D420" s="42"/>
     </row>
     <row r="421">
-      <c r="D421" s="41"/>
+      <c r="D421" s="42"/>
     </row>
     <row r="422">
-      <c r="D422" s="41"/>
+      <c r="D422" s="42"/>
     </row>
     <row r="423">
-      <c r="D423" s="41"/>
+      <c r="D423" s="42"/>
     </row>
     <row r="424">
-      <c r="D424" s="41"/>
+      <c r="D424" s="42"/>
     </row>
     <row r="425">
-      <c r="D425" s="41"/>
+      <c r="D425" s="42"/>
     </row>
     <row r="426">
-      <c r="D426" s="41"/>
+      <c r="D426" s="42"/>
     </row>
     <row r="427">
-      <c r="D427" s="41"/>
+      <c r="D427" s="42"/>
     </row>
     <row r="428">
-      <c r="D428" s="41"/>
+      <c r="D428" s="42"/>
     </row>
     <row r="429">
-      <c r="D429" s="41"/>
+      <c r="D429" s="42"/>
     </row>
     <row r="430">
-      <c r="D430" s="41"/>
+      <c r="D430" s="42"/>
     </row>
     <row r="431">
-      <c r="D431" s="41"/>
+      <c r="D431" s="42"/>
     </row>
     <row r="432">
-      <c r="D432" s="41"/>
+      <c r="D432" s="42"/>
     </row>
     <row r="433">
-      <c r="D433" s="41"/>
+      <c r="D433" s="42"/>
     </row>
     <row r="434">
-      <c r="D434" s="41"/>
+      <c r="D434" s="42"/>
     </row>
     <row r="435">
-      <c r="D435" s="41"/>
+      <c r="D435" s="42"/>
     </row>
     <row r="436">
-      <c r="D436" s="41"/>
+      <c r="D436" s="42"/>
     </row>
     <row r="437">
-      <c r="D437" s="41"/>
+      <c r="D437" s="42"/>
     </row>
     <row r="438">
-      <c r="D438" s="41"/>
+      <c r="D438" s="42"/>
     </row>
     <row r="439">
-      <c r="D439" s="41"/>
+      <c r="D439" s="42"/>
     </row>
     <row r="440">
-      <c r="D440" s="41"/>
+      <c r="D440" s="42"/>
     </row>
     <row r="441">
-      <c r="D441" s="41"/>
+      <c r="D441" s="42"/>
     </row>
     <row r="442">
-      <c r="D442" s="41"/>
+      <c r="D442" s="42"/>
     </row>
     <row r="443">
-      <c r="D443" s="41"/>
+      <c r="D443" s="42"/>
     </row>
     <row r="444">
-      <c r="D444" s="41"/>
+      <c r="D444" s="42"/>
     </row>
     <row r="445">
-      <c r="D445" s="41"/>
+      <c r="D445" s="42"/>
     </row>
     <row r="446">
-      <c r="D446" s="41"/>
+      <c r="D446" s="42"/>
     </row>
     <row r="447">
-      <c r="D447" s="41"/>
+      <c r="D447" s="42"/>
     </row>
     <row r="448">
-      <c r="D448" s="41"/>
+      <c r="D448" s="42"/>
     </row>
     <row r="449">
-      <c r="D449" s="41"/>
+      <c r="D449" s="42"/>
     </row>
     <row r="450">
-      <c r="D450" s="41"/>
+      <c r="D450" s="42"/>
     </row>
     <row r="451">
-      <c r="D451" s="41"/>
+      <c r="D451" s="42"/>
     </row>
     <row r="452">
-      <c r="D452" s="41"/>
+      <c r="D452" s="42"/>
     </row>
     <row r="453">
-      <c r="D453" s="41"/>
+      <c r="D453" s="42"/>
     </row>
     <row r="454">
-      <c r="D454" s="41"/>
+      <c r="D454" s="42"/>
     </row>
     <row r="455">
-      <c r="D455" s="41"/>
+      <c r="D455" s="42"/>
     </row>
     <row r="456">
-      <c r="D456" s="41"/>
+      <c r="D456" s="42"/>
     </row>
     <row r="457">
-      <c r="D457" s="41"/>
+      <c r="D457" s="42"/>
     </row>
     <row r="458">
-      <c r="D458" s="41"/>
+      <c r="D458" s="42"/>
     </row>
     <row r="459">
-      <c r="D459" s="41"/>
+      <c r="D459" s="42"/>
     </row>
     <row r="460">
-      <c r="D460" s="41"/>
+      <c r="D460" s="42"/>
     </row>
     <row r="461">
-      <c r="D461" s="41"/>
+      <c r="D461" s="42"/>
     </row>
     <row r="462">
-      <c r="D462" s="41"/>
+      <c r="D462" s="42"/>
     </row>
     <row r="463">
-      <c r="D463" s="41"/>
+      <c r="D463" s="42"/>
     </row>
     <row r="464">
-      <c r="D464" s="41"/>
+      <c r="D464" s="42"/>
     </row>
     <row r="465">
-      <c r="D465" s="41"/>
+      <c r="D465" s="42"/>
     </row>
     <row r="466">
-      <c r="D466" s="41"/>
+      <c r="D466" s="42"/>
     </row>
     <row r="467">
-      <c r="D467" s="41"/>
+      <c r="D467" s="42"/>
     </row>
     <row r="468">
-      <c r="D468" s="41"/>
+      <c r="D468" s="42"/>
     </row>
     <row r="469">
-      <c r="D469" s="41"/>
+      <c r="D469" s="42"/>
     </row>
     <row r="470">
-      <c r="D470" s="41"/>
+      <c r="D470" s="42"/>
     </row>
     <row r="471">
-      <c r="D471" s="41"/>
+      <c r="D471" s="42"/>
     </row>
     <row r="472">
-      <c r="D472" s="41"/>
+      <c r="D472" s="42"/>
     </row>
     <row r="473">
-      <c r="D473" s="41"/>
+      <c r="D473" s="42"/>
     </row>
     <row r="474">
-      <c r="D474" s="41"/>
+      <c r="D474" s="42"/>
     </row>
     <row r="475">
-      <c r="D475" s="41"/>
+      <c r="D475" s="42"/>
     </row>
     <row r="476">
-      <c r="D476" s="41"/>
+      <c r="D476" s="42"/>
     </row>
     <row r="477">
-      <c r="D477" s="41"/>
+      <c r="D477" s="42"/>
     </row>
     <row r="478">
-      <c r="D478" s="41"/>
+      <c r="D478" s="42"/>
     </row>
     <row r="479">
-      <c r="D479" s="41"/>
+      <c r="D479" s="42"/>
     </row>
     <row r="480">
-      <c r="D480" s="41"/>
+      <c r="D480" s="42"/>
     </row>
     <row r="481">
-      <c r="D481" s="41"/>
+      <c r="D481" s="42"/>
     </row>
     <row r="482">
-      <c r="D482" s="41"/>
+      <c r="D482" s="42"/>
     </row>
     <row r="483">
-      <c r="D483" s="41"/>
+      <c r="D483" s="42"/>
     </row>
     <row r="484">
-      <c r="D484" s="41"/>
+      <c r="D484" s="42"/>
     </row>
     <row r="485">
-      <c r="D485" s="41"/>
+      <c r="D485" s="42"/>
     </row>
     <row r="486">
-      <c r="D486" s="41"/>
+      <c r="D486" s="42"/>
     </row>
     <row r="487">
-      <c r="D487" s="41"/>
+      <c r="D487" s="42"/>
     </row>
     <row r="488">
-      <c r="D488" s="41"/>
+      <c r="D488" s="42"/>
     </row>
     <row r="489">
-      <c r="D489" s="41"/>
+      <c r="D489" s="42"/>
     </row>
     <row r="490">
-      <c r="D490" s="41"/>
+      <c r="D490" s="42"/>
     </row>
     <row r="491">
-      <c r="D491" s="41"/>
+      <c r="D491" s="42"/>
     </row>
     <row r="492">
-      <c r="D492" s="41"/>
+      <c r="D492" s="42"/>
     </row>
     <row r="493">
-      <c r="D493" s="41"/>
+      <c r="D493" s="42"/>
     </row>
     <row r="494">
-      <c r="D494" s="41"/>
+      <c r="D494" s="42"/>
     </row>
     <row r="495">
-      <c r="D495" s="41"/>
+      <c r="D495" s="42"/>
     </row>
     <row r="496">
-      <c r="D496" s="41"/>
+      <c r="D496" s="42"/>
     </row>
     <row r="497">
-      <c r="D497" s="41"/>
+      <c r="D497" s="42"/>
     </row>
     <row r="498">
-      <c r="D498" s="41"/>
+      <c r="D498" s="42"/>
     </row>
     <row r="499">
-      <c r="D499" s="41"/>
+      <c r="D499" s="42"/>
     </row>
     <row r="500">
-      <c r="D500" s="41"/>
+      <c r="D500" s="42"/>
     </row>
     <row r="501">
-      <c r="D501" s="41"/>
+      <c r="D501" s="42"/>
     </row>
     <row r="502">
-      <c r="D502" s="41"/>
+      <c r="D502" s="42"/>
     </row>
     <row r="503">
-      <c r="D503" s="41"/>
+      <c r="D503" s="42"/>
     </row>
     <row r="504">
-      <c r="D504" s="41"/>
+      <c r="D504" s="42"/>
     </row>
     <row r="505">
-      <c r="D505" s="41"/>
+      <c r="D505" s="42"/>
     </row>
     <row r="506">
-      <c r="D506" s="41"/>
+      <c r="D506" s="42"/>
     </row>
     <row r="507">
-      <c r="D507" s="41"/>
+      <c r="D507" s="42"/>
     </row>
     <row r="508">
-      <c r="D508" s="41"/>
+      <c r="D508" s="42"/>
     </row>
     <row r="509">
-      <c r="D509" s="41"/>
+      <c r="D509" s="42"/>
     </row>
     <row r="510">
-      <c r="D510" s="41"/>
+      <c r="D510" s="42"/>
     </row>
     <row r="511">
-      <c r="D511" s="41"/>
+      <c r="D511" s="42"/>
     </row>
     <row r="512">
-      <c r="D512" s="41"/>
+      <c r="D512" s="42"/>
     </row>
     <row r="513">
-      <c r="D513" s="41"/>
+      <c r="D513" s="42"/>
     </row>
     <row r="514">
-      <c r="D514" s="41"/>
+      <c r="D514" s="42"/>
     </row>
     <row r="515">
-      <c r="D515" s="41"/>
+      <c r="D515" s="42"/>
     </row>
     <row r="516">
-      <c r="D516" s="41"/>
+      <c r="D516" s="42"/>
     </row>
     <row r="517">
-      <c r="D517" s="41"/>
+      <c r="D517" s="42"/>
     </row>
     <row r="518">
-      <c r="D518" s="41"/>
+      <c r="D518" s="42"/>
     </row>
     <row r="519">
-      <c r="D519" s="41"/>
+      <c r="D519" s="42"/>
     </row>
     <row r="520">
-      <c r="D520" s="41"/>
+      <c r="D520" s="42"/>
     </row>
     <row r="521">
-      <c r="D521" s="41"/>
+      <c r="D521" s="42"/>
     </row>
     <row r="522">
-      <c r="D522" s="41"/>
+      <c r="D522" s="42"/>
     </row>
     <row r="523">
-      <c r="D523" s="41"/>
+      <c r="D523" s="42"/>
     </row>
     <row r="524">
-      <c r="D524" s="41"/>
+      <c r="D524" s="42"/>
     </row>
     <row r="525">
-      <c r="D525" s="41"/>
+      <c r="D525" s="42"/>
     </row>
     <row r="526">
-      <c r="D526" s="41"/>
+      <c r="D526" s="42"/>
     </row>
     <row r="527">
-      <c r="D527" s="41"/>
+      <c r="D527" s="42"/>
     </row>
     <row r="528">
-      <c r="D528" s="41"/>
+      <c r="D528" s="42"/>
     </row>
     <row r="529">
-      <c r="D529" s="41"/>
+      <c r="D529" s="42"/>
     </row>
     <row r="530">
-      <c r="D530" s="41"/>
+      <c r="D530" s="42"/>
     </row>
     <row r="531">
-      <c r="D531" s="41"/>
+      <c r="D531" s="42"/>
     </row>
     <row r="532">
-      <c r="D532" s="41"/>
+      <c r="D532" s="42"/>
     </row>
     <row r="533">
-      <c r="D533" s="41"/>
+      <c r="D533" s="42"/>
     </row>
     <row r="534">
-      <c r="D534" s="41"/>
+      <c r="D534" s="42"/>
     </row>
     <row r="535">
-      <c r="D535" s="41"/>
+      <c r="D535" s="42"/>
     </row>
     <row r="536">
-      <c r="D536" s="41"/>
+      <c r="D536" s="42"/>
     </row>
     <row r="537">
-      <c r="D537" s="41"/>
+      <c r="D537" s="42"/>
     </row>
     <row r="538">
-      <c r="D538" s="41"/>
+      <c r="D538" s="42"/>
     </row>
     <row r="539">
-      <c r="D539" s="41"/>
+      <c r="D539" s="42"/>
     </row>
     <row r="540">
-      <c r="D540" s="41"/>
+      <c r="D540" s="42"/>
     </row>
     <row r="541">
-      <c r="D541" s="41"/>
+      <c r="D541" s="42"/>
     </row>
     <row r="542">
-      <c r="D542" s="41"/>
+      <c r="D542" s="42"/>
     </row>
     <row r="543">
-      <c r="D543" s="41"/>
+      <c r="D543" s="42"/>
     </row>
     <row r="544">
-      <c r="D544" s="41"/>
+      <c r="D544" s="42"/>
     </row>
     <row r="545">
-      <c r="D545" s="41"/>
+      <c r="D545" s="42"/>
     </row>
     <row r="546">
-      <c r="D546" s="41"/>
+      <c r="D546" s="42"/>
     </row>
     <row r="547">
-      <c r="D547" s="41"/>
+      <c r="D547" s="42"/>
     </row>
     <row r="548">
-      <c r="D548" s="41"/>
+      <c r="D548" s="42"/>
     </row>
     <row r="549">
-      <c r="D549" s="41"/>
+      <c r="D549" s="42"/>
     </row>
     <row r="550">
-      <c r="D550" s="41"/>
+      <c r="D550" s="42"/>
     </row>
     <row r="551">
-      <c r="D551" s="41"/>
+      <c r="D551" s="42"/>
     </row>
     <row r="552">
-      <c r="D552" s="41"/>
+      <c r="D552" s="42"/>
     </row>
     <row r="553">
-      <c r="D553" s="41"/>
+      <c r="D553" s="42"/>
     </row>
     <row r="554">
-      <c r="D554" s="41"/>
+      <c r="D554" s="42"/>
     </row>
     <row r="555">
-      <c r="D555" s="41"/>
+      <c r="D555" s="42"/>
     </row>
     <row r="556">
-      <c r="D556" s="41"/>
+      <c r="D556" s="42"/>
     </row>
     <row r="557">
-      <c r="D557" s="41"/>
+      <c r="D557" s="42"/>
     </row>
     <row r="558">
-      <c r="D558" s="41"/>
+      <c r="D558" s="42"/>
     </row>
     <row r="559">
-      <c r="D559" s="41"/>
+      <c r="D559" s="42"/>
     </row>
     <row r="560">
-      <c r="D560" s="41"/>
+      <c r="D560" s="42"/>
     </row>
     <row r="561">
-      <c r="D561" s="41"/>
+      <c r="D561" s="42"/>
     </row>
     <row r="562">
-      <c r="D562" s="41"/>
+      <c r="D562" s="42"/>
     </row>
     <row r="563">
-      <c r="D563" s="41"/>
+      <c r="D563" s="42"/>
     </row>
     <row r="564">
-      <c r="D564" s="41"/>
+      <c r="D564" s="42"/>
     </row>
     <row r="565">
-      <c r="D565" s="41"/>
+      <c r="D565" s="42"/>
     </row>
     <row r="566">
-      <c r="D566" s="41"/>
+      <c r="D566" s="42"/>
     </row>
     <row r="567">
-      <c r="D567" s="41"/>
+      <c r="D567" s="42"/>
     </row>
     <row r="568">
-      <c r="D568" s="41"/>
+      <c r="D568" s="42"/>
     </row>
     <row r="569">
-      <c r="D569" s="41"/>
+      <c r="D569" s="42"/>
     </row>
     <row r="570">
-      <c r="D570" s="41"/>
+      <c r="D570" s="42"/>
     </row>
     <row r="571">
-      <c r="D571" s="41"/>
+      <c r="D571" s="42"/>
     </row>
     <row r="572">
-      <c r="D572" s="41"/>
+      <c r="D572" s="42"/>
     </row>
     <row r="573">
-      <c r="D573" s="41"/>
+      <c r="D573" s="42"/>
     </row>
     <row r="574">
-      <c r="D574" s="41"/>
+      <c r="D574" s="42"/>
     </row>
     <row r="575">
-      <c r="D575" s="41"/>
+      <c r="D575" s="42"/>
     </row>
     <row r="576">
-      <c r="D576" s="41"/>
+      <c r="D576" s="42"/>
     </row>
     <row r="577">
-      <c r="D577" s="41"/>
+      <c r="D577" s="42"/>
     </row>
     <row r="578">
-      <c r="D578" s="41"/>
+      <c r="D578" s="42"/>
     </row>
     <row r="579">
-      <c r="D579" s="41"/>
+      <c r="D579" s="42"/>
     </row>
     <row r="580">
-      <c r="D580" s="41"/>
+      <c r="D580" s="42"/>
     </row>
     <row r="581">
-      <c r="D581" s="41"/>
+      <c r="D581" s="42"/>
     </row>
     <row r="582">
-      <c r="D582" s="41"/>
+      <c r="D582" s="42"/>
     </row>
     <row r="583">
-      <c r="D583" s="41"/>
+      <c r="D583" s="42"/>
     </row>
     <row r="584">
-      <c r="D584" s="41"/>
+      <c r="D584" s="42"/>
     </row>
     <row r="585">
-      <c r="D585" s="41"/>
+      <c r="D585" s="42"/>
     </row>
     <row r="586">
-      <c r="D586" s="41"/>
+      <c r="D586" s="42"/>
     </row>
     <row r="587">
-      <c r="D587" s="41"/>
+      <c r="D587" s="42"/>
     </row>
     <row r="588">
-      <c r="D588" s="41"/>
+      <c r="D588" s="42"/>
     </row>
     <row r="589">
-      <c r="D589" s="41"/>
+      <c r="D589" s="42"/>
     </row>
     <row r="590">
-      <c r="D590" s="41"/>
+      <c r="D590" s="42"/>
     </row>
     <row r="591">
-      <c r="D591" s="41"/>
+      <c r="D591" s="42"/>
     </row>
     <row r="592">
-      <c r="D592" s="41"/>
+      <c r="D592" s="42"/>
     </row>
     <row r="593">
-      <c r="D593" s="41"/>
+      <c r="D593" s="42"/>
     </row>
     <row r="594">
-      <c r="D594" s="41"/>
+      <c r="D594" s="42"/>
     </row>
     <row r="595">
-      <c r="D595" s="41"/>
+      <c r="D595" s="42"/>
     </row>
     <row r="596">
-      <c r="D596" s="41"/>
+      <c r="D596" s="42"/>
     </row>
     <row r="597">
-      <c r="D597" s="41"/>
+      <c r="D597" s="42"/>
     </row>
     <row r="598">
-      <c r="D598" s="41"/>
+      <c r="D598" s="42"/>
     </row>
     <row r="599">
-      <c r="D599" s="41"/>
+      <c r="D599" s="42"/>
     </row>
     <row r="600">
-      <c r="D600" s="41"/>
+      <c r="D600" s="42"/>
     </row>
     <row r="601">
-      <c r="D601" s="41"/>
+      <c r="D601" s="42"/>
     </row>
     <row r="602">
-      <c r="D602" s="41"/>
+      <c r="D602" s="42"/>
     </row>
     <row r="603">
-      <c r="D603" s="41"/>
+      <c r="D603" s="42"/>
     </row>
     <row r="604">
-      <c r="D604" s="41"/>
+      <c r="D604" s="42"/>
     </row>
     <row r="605">
-      <c r="D605" s="41"/>
+      <c r="D605" s="42"/>
     </row>
     <row r="606">
-      <c r="D606" s="41"/>
+      <c r="D606" s="42"/>
     </row>
     <row r="607">
-      <c r="D607" s="41"/>
+      <c r="D607" s="42"/>
     </row>
     <row r="608">
-      <c r="D608" s="41"/>
+      <c r="D608" s="42"/>
     </row>
     <row r="609">
-      <c r="D609" s="41"/>
+      <c r="D609" s="42"/>
     </row>
     <row r="610">
-      <c r="D610" s="41"/>
+      <c r="D610" s="42"/>
     </row>
     <row r="611">
-      <c r="D611" s="41"/>
+      <c r="D611" s="42"/>
     </row>
     <row r="612">
-      <c r="D612" s="41"/>
+      <c r="D612" s="42"/>
     </row>
     <row r="613">
-      <c r="D613" s="41"/>
+      <c r="D613" s="42"/>
     </row>
     <row r="614">
-      <c r="D614" s="41"/>
+      <c r="D614" s="42"/>
     </row>
     <row r="615">
-      <c r="D615" s="41"/>
+      <c r="D615" s="42"/>
     </row>
     <row r="616">
-      <c r="D616" s="41"/>
+      <c r="D616" s="42"/>
     </row>
     <row r="617">
-      <c r="D617" s="41"/>
+      <c r="D617" s="42"/>
     </row>
     <row r="618">
-      <c r="D618" s="41"/>
+      <c r="D618" s="42"/>
     </row>
     <row r="619">
-      <c r="D619" s="41"/>
+      <c r="D619" s="42"/>
     </row>
     <row r="620">
-      <c r="D620" s="41"/>
+      <c r="D620" s="42"/>
     </row>
     <row r="621">
-      <c r="D621" s="41"/>
+      <c r="D621" s="42"/>
     </row>
     <row r="622">
-      <c r="D622" s="41"/>
+      <c r="D622" s="42"/>
     </row>
     <row r="623">
-      <c r="D623" s="41"/>
+      <c r="D623" s="42"/>
     </row>
     <row r="624">
-      <c r="D624" s="41"/>
+      <c r="D624" s="42"/>
     </row>
     <row r="625">
-      <c r="D625" s="41"/>
+      <c r="D625" s="42"/>
     </row>
     <row r="626">
-      <c r="D626" s="41"/>
+      <c r="D626" s="42"/>
     </row>
     <row r="627">
-      <c r="D627" s="41"/>
+      <c r="D627" s="42"/>
     </row>
     <row r="628">
-      <c r="D628" s="41"/>
+      <c r="D628" s="42"/>
     </row>
     <row r="629">
-      <c r="D629" s="41"/>
+      <c r="D629" s="42"/>
     </row>
     <row r="630">
-      <c r="D630" s="41"/>
+      <c r="D630" s="42"/>
     </row>
     <row r="631">
-      <c r="D631" s="41"/>
+      <c r="D631" s="42"/>
     </row>
     <row r="632">
-      <c r="D632" s="41"/>
+      <c r="D632" s="42"/>
     </row>
     <row r="633">
-      <c r="D633" s="41"/>
+      <c r="D633" s="42"/>
     </row>
     <row r="634">
-      <c r="D634" s="41"/>
+      <c r="D634" s="42"/>
     </row>
     <row r="635">
-      <c r="D635" s="41"/>
+      <c r="D635" s="42"/>
     </row>
     <row r="636">
-      <c r="D636" s="41"/>
+      <c r="D636" s="42"/>
     </row>
     <row r="637">
-      <c r="D637" s="41"/>
+      <c r="D637" s="42"/>
     </row>
     <row r="638">
-      <c r="D638" s="41"/>
+      <c r="D638" s="42"/>
     </row>
     <row r="639">
-      <c r="D639" s="41"/>
+      <c r="D639" s="42"/>
     </row>
     <row r="640">
-      <c r="D640" s="41"/>
+      <c r="D640" s="42"/>
     </row>
     <row r="641">
-      <c r="D641" s="41"/>
+      <c r="D641" s="42"/>
     </row>
     <row r="642">
-      <c r="D642" s="41"/>
+      <c r="D642" s="42"/>
     </row>
     <row r="643">
-      <c r="D643" s="41"/>
+      <c r="D643" s="42"/>
     </row>
     <row r="644">
-      <c r="D644" s="41"/>
+      <c r="D644" s="42"/>
     </row>
     <row r="645">
-      <c r="D645" s="41"/>
+      <c r="D645" s="42"/>
     </row>
     <row r="646">
-      <c r="D646" s="41"/>
+      <c r="D646" s="42"/>
     </row>
     <row r="647">
-      <c r="D647" s="41"/>
+      <c r="D647" s="42"/>
     </row>
     <row r="648">
-      <c r="D648" s="41"/>
+      <c r="D648" s="42"/>
     </row>
     <row r="649">
-      <c r="D649" s="41"/>
+      <c r="D649" s="42"/>
     </row>
     <row r="650">
-      <c r="D650" s="41"/>
+      <c r="D650" s="42"/>
     </row>
     <row r="651">
-      <c r="D651" s="41"/>
+      <c r="D651" s="42"/>
     </row>
     <row r="652">
-      <c r="D652" s="41"/>
+      <c r="D652" s="42"/>
     </row>
     <row r="653">
-      <c r="D653" s="41"/>
+      <c r="D653" s="42"/>
     </row>
     <row r="654">
-      <c r="D654" s="41"/>
+      <c r="D654" s="42"/>
     </row>
     <row r="655">
-      <c r="D655" s="41"/>
+      <c r="D655" s="42"/>
     </row>
     <row r="656">
-      <c r="D656" s="41"/>
+      <c r="D656" s="42"/>
     </row>
     <row r="657">
-      <c r="D657" s="41"/>
+      <c r="D657" s="42"/>
     </row>
     <row r="658">
-      <c r="D658" s="41"/>
+      <c r="D658" s="42"/>
     </row>
     <row r="659">
-      <c r="D659" s="41"/>
+      <c r="D659" s="42"/>
     </row>
     <row r="660">
-      <c r="D660" s="41"/>
+      <c r="D660" s="42"/>
     </row>
     <row r="661">
-      <c r="D661" s="41"/>
+      <c r="D661" s="42"/>
     </row>
     <row r="662">
-      <c r="D662" s="41"/>
+      <c r="D662" s="42"/>
     </row>
     <row r="663">
-      <c r="D663" s="41"/>
+      <c r="D663" s="42"/>
     </row>
     <row r="664">
-      <c r="D664" s="41"/>
+      <c r="D664" s="42"/>
     </row>
     <row r="665">
-      <c r="D665" s="41"/>
+      <c r="D665" s="42"/>
     </row>
     <row r="666">
-      <c r="D666" s="41"/>
+      <c r="D666" s="42"/>
     </row>
     <row r="667">
-      <c r="D667" s="41"/>
+      <c r="D667" s="42"/>
     </row>
     <row r="668">
-      <c r="D668" s="41"/>
+      <c r="D668" s="42"/>
     </row>
     <row r="669">
-      <c r="D669" s="41"/>
+      <c r="D669" s="42"/>
     </row>
     <row r="670">
-      <c r="D670" s="41"/>
+      <c r="D670" s="42"/>
     </row>
     <row r="671">
-      <c r="D671" s="41"/>
+      <c r="D671" s="42"/>
     </row>
     <row r="672">
-      <c r="D672" s="41"/>
+      <c r="D672" s="42"/>
     </row>
     <row r="673">
-      <c r="D673" s="41"/>
+      <c r="D673" s="42"/>
     </row>
     <row r="674">
-      <c r="D674" s="41"/>
+      <c r="D674" s="42"/>
     </row>
     <row r="675">
-      <c r="D675" s="41"/>
+      <c r="D675" s="42"/>
     </row>
     <row r="676">
-      <c r="D676" s="41"/>
+      <c r="D676" s="42"/>
     </row>
     <row r="677">
-      <c r="D677" s="41"/>
+      <c r="D677" s="42"/>
     </row>
     <row r="678">
-      <c r="D678" s="41"/>
+      <c r="D678" s="42"/>
     </row>
     <row r="679">
-      <c r="D679" s="41"/>
+      <c r="D679" s="42"/>
     </row>
     <row r="680">
-      <c r="D680" s="41"/>
+      <c r="D680" s="42"/>
     </row>
     <row r="681">
-      <c r="D681" s="41"/>
+      <c r="D681" s="42"/>
     </row>
     <row r="682">
-      <c r="D682" s="41"/>
+      <c r="D682" s="42"/>
     </row>
     <row r="683">
-      <c r="D683" s="41"/>
+      <c r="D683" s="42"/>
     </row>
     <row r="684">
-      <c r="D684" s="41"/>
+      <c r="D684" s="42"/>
     </row>
     <row r="685">
-      <c r="D685" s="41"/>
+      <c r="D685" s="42"/>
     </row>
     <row r="686">
-      <c r="D686" s="41"/>
+      <c r="D686" s="42"/>
     </row>
     <row r="687">
-      <c r="D687" s="41"/>
+      <c r="D687" s="42"/>
     </row>
     <row r="688">
-      <c r="D688" s="41"/>
+      <c r="D688" s="42"/>
     </row>
     <row r="689">
-      <c r="D689" s="41"/>
+      <c r="D689" s="42"/>
     </row>
     <row r="690">
-      <c r="D690" s="41"/>
+      <c r="D690" s="42"/>
     </row>
     <row r="691">
-      <c r="D691" s="41"/>
+      <c r="D691" s="42"/>
     </row>
     <row r="692">
-      <c r="D692" s="41"/>
+      <c r="D692" s="42"/>
     </row>
     <row r="693">
-      <c r="D693" s="41"/>
+      <c r="D693" s="42"/>
     </row>
     <row r="694">
-      <c r="D694" s="41"/>
+      <c r="D694" s="42"/>
     </row>
     <row r="695">
-      <c r="D695" s="41"/>
+      <c r="D695" s="42"/>
     </row>
     <row r="696">
-      <c r="D696" s="41"/>
+      <c r="D696" s="42"/>
     </row>
     <row r="697">
-      <c r="D697" s="41"/>
+      <c r="D697" s="42"/>
     </row>
     <row r="698">
-      <c r="D698" s="41"/>
+      <c r="D698" s="42"/>
     </row>
     <row r="699">
-      <c r="D699" s="41"/>
+      <c r="D699" s="42"/>
     </row>
     <row r="700">
-      <c r="D700" s="41"/>
+      <c r="D700" s="42"/>
     </row>
     <row r="701">
-      <c r="D701" s="41"/>
+      <c r="D701" s="42"/>
     </row>
     <row r="702">
-      <c r="D702" s="41"/>
+      <c r="D702" s="42"/>
     </row>
     <row r="703">
-      <c r="D703" s="41"/>
+      <c r="D703" s="42"/>
     </row>
     <row r="704">
-      <c r="D704" s="41"/>
+      <c r="D704" s="42"/>
     </row>
     <row r="705">
-      <c r="D705" s="41"/>
+      <c r="D705" s="42"/>
     </row>
     <row r="706">
-      <c r="D706" s="41"/>
+      <c r="D706" s="42"/>
     </row>
     <row r="707">
-      <c r="D707" s="41"/>
+      <c r="D707" s="42"/>
     </row>
     <row r="708">
-      <c r="D708" s="41"/>
+      <c r="D708" s="42"/>
     </row>
     <row r="709">
-      <c r="D709" s="41"/>
+      <c r="D709" s="42"/>
     </row>
     <row r="710">
-      <c r="D710" s="41"/>
+      <c r="D710" s="42"/>
     </row>
     <row r="711">
-      <c r="D711" s="41"/>
+      <c r="D711" s="42"/>
     </row>
     <row r="712">
-      <c r="D712" s="41"/>
+      <c r="D712" s="42"/>
     </row>
     <row r="713">
-      <c r="D713" s="41"/>
+      <c r="D713" s="42"/>
     </row>
     <row r="714">
-      <c r="D714" s="41"/>
+      <c r="D714" s="42"/>
     </row>
     <row r="715">
-      <c r="D715" s="41"/>
+      <c r="D715" s="42"/>
     </row>
     <row r="716">
-      <c r="D716" s="41"/>
+      <c r="D716" s="42"/>
     </row>
     <row r="717">
-      <c r="D717" s="41"/>
+      <c r="D717" s="42"/>
     </row>
     <row r="718">
-      <c r="D718" s="41"/>
+      <c r="D718" s="42"/>
     </row>
     <row r="719">
-      <c r="D719" s="41"/>
+      <c r="D719" s="42"/>
     </row>
     <row r="720">
-      <c r="D720" s="41"/>
+      <c r="D720" s="42"/>
     </row>
     <row r="721">
-      <c r="D721" s="41"/>
+      <c r="D721" s="42"/>
     </row>
     <row r="722">
-      <c r="D722" s="41"/>
+      <c r="D722" s="42"/>
     </row>
     <row r="723">
-      <c r="D723" s="41"/>
+      <c r="D723" s="42"/>
     </row>
     <row r="724">
-      <c r="D724" s="41"/>
+      <c r="D724" s="42"/>
     </row>
     <row r="725">
-      <c r="D725" s="41"/>
+      <c r="D725" s="42"/>
     </row>
     <row r="726">
-      <c r="D726" s="41"/>
+      <c r="D726" s="42"/>
     </row>
     <row r="727">
-      <c r="D727" s="41"/>
+      <c r="D727" s="42"/>
     </row>
     <row r="728">
-      <c r="D728" s="41"/>
+      <c r="D728" s="42"/>
     </row>
     <row r="729">
-      <c r="D729" s="41"/>
+      <c r="D729" s="42"/>
     </row>
     <row r="730">
-      <c r="D730" s="41"/>
+      <c r="D730" s="42"/>
     </row>
     <row r="731">
-      <c r="D731" s="41"/>
+      <c r="D731" s="42"/>
     </row>
     <row r="732">
-      <c r="D732" s="41"/>
+      <c r="D732" s="42"/>
     </row>
     <row r="733">
-      <c r="D733" s="41"/>
+      <c r="D733" s="42"/>
     </row>
     <row r="734">
-      <c r="D734" s="41"/>
+      <c r="D734" s="42"/>
     </row>
     <row r="735">
-      <c r="D735" s="41"/>
+      <c r="D735" s="42"/>
     </row>
     <row r="736">
-      <c r="D736" s="41"/>
+      <c r="D736" s="42"/>
     </row>
     <row r="737">
-      <c r="D737" s="41"/>
+      <c r="D737" s="42"/>
     </row>
     <row r="738">
-      <c r="D738" s="41"/>
+      <c r="D738" s="42"/>
     </row>
     <row r="739">
-      <c r="D739" s="41"/>
+      <c r="D739" s="42"/>
     </row>
     <row r="740">
-      <c r="D740" s="41"/>
+      <c r="D740" s="42"/>
     </row>
     <row r="741">
-      <c r="D741" s="41"/>
+      <c r="D741" s="42"/>
     </row>
     <row r="742">
-      <c r="D742" s="41"/>
+      <c r="D742" s="42"/>
     </row>
     <row r="743">
-      <c r="D743" s="41"/>
+      <c r="D743" s="42"/>
     </row>
     <row r="744">
-      <c r="D744" s="41"/>
+      <c r="D744" s="42"/>
     </row>
     <row r="745">
-      <c r="D745" s="41"/>
+      <c r="D745" s="42"/>
     </row>
     <row r="746">
-      <c r="D746" s="41"/>
+      <c r="D746" s="42"/>
     </row>
     <row r="747">
-      <c r="D747" s="41"/>
+      <c r="D747" s="42"/>
     </row>
     <row r="748">
-      <c r="D748" s="41"/>
+      <c r="D748" s="42"/>
     </row>
     <row r="749">
-      <c r="D749" s="41"/>
+      <c r="D749" s="42"/>
     </row>
     <row r="750">
-      <c r="D750" s="41"/>
+      <c r="D750" s="42"/>
     </row>
     <row r="751">
-      <c r="D751" s="41"/>
+      <c r="D751" s="42"/>
     </row>
     <row r="752">
-      <c r="D752" s="41"/>
+      <c r="D752" s="42"/>
     </row>
     <row r="753">
-      <c r="D753" s="41"/>
+      <c r="D753" s="42"/>
     </row>
     <row r="754">
-      <c r="D754" s="41"/>
+      <c r="D754" s="42"/>
     </row>
     <row r="755">
-      <c r="D755" s="41"/>
+      <c r="D755" s="42"/>
     </row>
     <row r="756">
-      <c r="D756" s="41"/>
+      <c r="D756" s="42"/>
     </row>
     <row r="757">
-      <c r="D757" s="41"/>
+      <c r="D757" s="42"/>
     </row>
     <row r="758">
-      <c r="D758" s="41"/>
+      <c r="D758" s="42"/>
     </row>
     <row r="759">
-      <c r="D759" s="41"/>
+      <c r="D759" s="42"/>
     </row>
     <row r="760">
-      <c r="D760" s="41"/>
+      <c r="D760" s="42"/>
     </row>
     <row r="761">
-      <c r="D761" s="41"/>
+      <c r="D761" s="42"/>
     </row>
     <row r="762">
-      <c r="D762" s="41"/>
+      <c r="D762" s="42"/>
     </row>
     <row r="763">
-      <c r="D763" s="41"/>
+      <c r="D763" s="42"/>
     </row>
     <row r="764">
-      <c r="D764" s="41"/>
+      <c r="D764" s="42"/>
     </row>
     <row r="765">
-      <c r="D765" s="41"/>
+      <c r="D765" s="42"/>
     </row>
     <row r="766">
-      <c r="D766" s="41"/>
+      <c r="D766" s="42"/>
     </row>
     <row r="767">
-      <c r="D767" s="41"/>
+      <c r="D767" s="42"/>
     </row>
     <row r="768">
-      <c r="D768" s="41"/>
+      <c r="D768" s="42"/>
     </row>
     <row r="769">
-      <c r="D769" s="41"/>
+      <c r="D769" s="42"/>
     </row>
     <row r="770">
-      <c r="D770" s="41"/>
+      <c r="D770" s="42"/>
     </row>
     <row r="771">
-      <c r="D771" s="41"/>
+      <c r="D771" s="42"/>
     </row>
     <row r="772">
-      <c r="D772" s="41"/>
+      <c r="D772" s="42"/>
     </row>
     <row r="773">
-      <c r="D773" s="41"/>
+      <c r="D773" s="42"/>
     </row>
     <row r="774">
-      <c r="D774" s="41"/>
+      <c r="D774" s="42"/>
     </row>
     <row r="775">
-      <c r="D775" s="41"/>
+      <c r="D775" s="42"/>
     </row>
     <row r="776">
-      <c r="D776" s="41"/>
+      <c r="D776" s="42"/>
     </row>
     <row r="777">
-      <c r="D777" s="41"/>
+      <c r="D777" s="42"/>
     </row>
     <row r="778">
-      <c r="D778" s="41"/>
+      <c r="D778" s="42"/>
     </row>
     <row r="779">
-      <c r="D779" s="41"/>
+      <c r="D779" s="42"/>
     </row>
     <row r="780">
-      <c r="D780" s="41"/>
+      <c r="D780" s="42"/>
     </row>
     <row r="781">
-      <c r="D781" s="41"/>
+      <c r="D781" s="42"/>
     </row>
     <row r="782">
-      <c r="D782" s="41"/>
+      <c r="D782" s="42"/>
     </row>
     <row r="783">
-      <c r="D783" s="41"/>
+      <c r="D783" s="42"/>
     </row>
     <row r="784">
-      <c r="D784" s="41"/>
+      <c r="D784" s="42"/>
     </row>
     <row r="785">
-      <c r="D785" s="41"/>
+      <c r="D785" s="42"/>
     </row>
     <row r="786">
-      <c r="D786" s="41"/>
+      <c r="D786" s="42"/>
     </row>
     <row r="787">
-      <c r="D787" s="41"/>
+      <c r="D787" s="42"/>
     </row>
     <row r="788">
-      <c r="D788" s="41"/>
+      <c r="D788" s="42"/>
     </row>
     <row r="789">
-      <c r="D789" s="41"/>
+      <c r="D789" s="42"/>
     </row>
     <row r="790">
-      <c r="D790" s="41"/>
+      <c r="D790" s="42"/>
     </row>
     <row r="791">
-      <c r="D791" s="41"/>
+      <c r="D791" s="42"/>
     </row>
     <row r="792">
-      <c r="D792" s="41"/>
+      <c r="D792" s="42"/>
     </row>
     <row r="793">
-      <c r="D793" s="41"/>
+      <c r="D793" s="42"/>
     </row>
     <row r="794">
-      <c r="D794" s="41"/>
+      <c r="D794" s="42"/>
     </row>
     <row r="795">
-      <c r="D795" s="41"/>
+      <c r="D795" s="42"/>
     </row>
     <row r="796">
-      <c r="D796" s="41"/>
+      <c r="D796" s="42"/>
     </row>
     <row r="797">
-      <c r="D797" s="41"/>
+      <c r="D797" s="42"/>
     </row>
     <row r="798">
-      <c r="D798" s="41"/>
+      <c r="D798" s="42"/>
     </row>
     <row r="799">
-      <c r="D799" s="41"/>
+      <c r="D799" s="42"/>
     </row>
     <row r="800">
-      <c r="D800" s="41"/>
+      <c r="D800" s="42"/>
     </row>
     <row r="801">
-      <c r="D801" s="41"/>
+      <c r="D801" s="42"/>
     </row>
     <row r="802">
-      <c r="D802" s="41"/>
+      <c r="D802" s="42"/>
     </row>
     <row r="803">
-      <c r="D803" s="41"/>
+      <c r="D803" s="42"/>
     </row>
     <row r="804">
-      <c r="D804" s="41"/>
+      <c r="D804" s="42"/>
     </row>
     <row r="805">
-      <c r="D805" s="41"/>
+      <c r="D805" s="42"/>
     </row>
     <row r="806">
-      <c r="D806" s="41"/>
+      <c r="D806" s="42"/>
     </row>
     <row r="807">
-      <c r="D807" s="41"/>
+      <c r="D807" s="42"/>
     </row>
     <row r="808">
-      <c r="D808" s="41"/>
+      <c r="D808" s="42"/>
     </row>
     <row r="809">
-      <c r="D809" s="41"/>
+      <c r="D809" s="42"/>
     </row>
     <row r="810">
-      <c r="D810" s="41"/>
+      <c r="D810" s="42"/>
     </row>
     <row r="811">
-      <c r="D811" s="41"/>
+      <c r="D811" s="42"/>
     </row>
     <row r="812">
-      <c r="D812" s="41"/>
+      <c r="D812" s="42"/>
     </row>
     <row r="813">
-      <c r="D813" s="41"/>
+      <c r="D813" s="42"/>
     </row>
     <row r="814">
-      <c r="D814" s="41"/>
+      <c r="D814" s="42"/>
     </row>
     <row r="815">
-      <c r="D815" s="41"/>
+      <c r="D815" s="42"/>
     </row>
     <row r="816">
-      <c r="D816" s="41"/>
+      <c r="D816" s="42"/>
     </row>
     <row r="817">
-      <c r="D817" s="41"/>
+      <c r="D817" s="42"/>
     </row>
     <row r="818">
-      <c r="D818" s="41"/>
+      <c r="D818" s="42"/>
     </row>
     <row r="819">
-      <c r="D819" s="41"/>
+      <c r="D819" s="42"/>
     </row>
     <row r="820">
-      <c r="D820" s="41"/>
+      <c r="D820" s="42"/>
     </row>
     <row r="821">
-      <c r="D821" s="41"/>
+      <c r="D821" s="42"/>
     </row>
     <row r="822">
-      <c r="D822" s="41"/>
+      <c r="D822" s="42"/>
     </row>
     <row r="823">
-      <c r="D823" s="41"/>
+      <c r="D823" s="42"/>
     </row>
     <row r="824">
-      <c r="D824" s="41"/>
+      <c r="D824" s="42"/>
     </row>
     <row r="825">
-      <c r="D825" s="41"/>
+      <c r="D825" s="42"/>
     </row>
     <row r="826">
-      <c r="D826" s="41"/>
+      <c r="D826" s="42"/>
     </row>
     <row r="827">
-      <c r="D827" s="41"/>
+      <c r="D827" s="42"/>
     </row>
     <row r="828">
-      <c r="D828" s="41"/>
+      <c r="D828" s="42"/>
     </row>
     <row r="829">
-      <c r="D829" s="41"/>
+      <c r="D829" s="42"/>
     </row>
     <row r="830">
-      <c r="D830" s="41"/>
+      <c r="D830" s="42"/>
     </row>
     <row r="831">
-      <c r="D831" s="41"/>
+      <c r="D831" s="42"/>
     </row>
     <row r="832">
-      <c r="D832" s="41"/>
+      <c r="D832" s="42"/>
     </row>
     <row r="833">
-      <c r="D833" s="41"/>
+      <c r="D833" s="42"/>
     </row>
     <row r="834">
-      <c r="D834" s="41"/>
+      <c r="D834" s="42"/>
     </row>
     <row r="835">
-      <c r="D835" s="41"/>
+      <c r="D835" s="42"/>
     </row>
     <row r="836">
-      <c r="D836" s="41"/>
+      <c r="D836" s="42"/>
     </row>
     <row r="837">
-      <c r="D837" s="41"/>
+      <c r="D837" s="42"/>
     </row>
     <row r="838">
-      <c r="D838" s="41"/>
+      <c r="D838" s="42"/>
     </row>
     <row r="839">
-      <c r="D839" s="41"/>
+      <c r="D839" s="42"/>
     </row>
     <row r="840">
-      <c r="D840" s="41"/>
+      <c r="D840" s="42"/>
     </row>
     <row r="841">
-      <c r="D841" s="41"/>
+      <c r="D841" s="42"/>
     </row>
     <row r="842">
-      <c r="D842" s="41"/>
+      <c r="D842" s="42"/>
     </row>
     <row r="843">
-      <c r="D843" s="41"/>
+      <c r="D843" s="42"/>
     </row>
     <row r="844">
-      <c r="D844" s="41"/>
+      <c r="D844" s="42"/>
     </row>
     <row r="845">
-      <c r="D845" s="41"/>
+      <c r="D845" s="42"/>
     </row>
     <row r="846">
-      <c r="D846" s="41"/>
+      <c r="D846" s="42"/>
     </row>
     <row r="847">
-      <c r="D847" s="41"/>
+      <c r="D847" s="42"/>
     </row>
     <row r="848">
-      <c r="D848" s="41"/>
+      <c r="D848" s="42"/>
     </row>
     <row r="849">
-      <c r="D849" s="41"/>
+      <c r="D849" s="42"/>
     </row>
     <row r="850">
-      <c r="D850" s="41"/>
+      <c r="D850" s="42"/>
     </row>
     <row r="851">
-      <c r="D851" s="41"/>
+      <c r="D851" s="42"/>
     </row>
     <row r="852">
-      <c r="D852" s="41"/>
+      <c r="D852" s="42"/>
     </row>
     <row r="853">
-      <c r="D853" s="41"/>
+      <c r="D853" s="42"/>
     </row>
     <row r="854">
-      <c r="D854" s="41"/>
+      <c r="D854" s="42"/>
     </row>
     <row r="855">
-      <c r="D855" s="41"/>
+      <c r="D855" s="42"/>
     </row>
     <row r="856">
-      <c r="D856" s="41"/>
+      <c r="D856" s="42"/>
     </row>
     <row r="857">
-      <c r="D857" s="41"/>
+      <c r="D857" s="42"/>
     </row>
     <row r="858">
-      <c r="D858" s="41"/>
+      <c r="D858" s="42"/>
     </row>
     <row r="859">
-      <c r="D859" s="41"/>
+      <c r="D859" s="42"/>
     </row>
     <row r="860">
-      <c r="D860" s="41"/>
+      <c r="D860" s="42"/>
     </row>
     <row r="861">
-      <c r="D861" s="41"/>
+      <c r="D861" s="42"/>
     </row>
     <row r="862">
-      <c r="D862" s="41"/>
+      <c r="D862" s="42"/>
     </row>
     <row r="863">
-      <c r="D863" s="41"/>
+      <c r="D863" s="42"/>
     </row>
     <row r="864">
-      <c r="D864" s="41"/>
+      <c r="D864" s="42"/>
     </row>
     <row r="865">
-      <c r="D865" s="41"/>
+      <c r="D865" s="42"/>
     </row>
     <row r="866">
-      <c r="D866" s="41"/>
+      <c r="D866" s="42"/>
     </row>
     <row r="867">
-      <c r="D867" s="41"/>
+      <c r="D867" s="42"/>
     </row>
     <row r="868">
-      <c r="D868" s="41"/>
+      <c r="D868" s="42"/>
     </row>
     <row r="869">
-      <c r="D869" s="41"/>
+      <c r="D869" s="42"/>
     </row>
     <row r="870">
-      <c r="D870" s="41"/>
+      <c r="D870" s="42"/>
     </row>
     <row r="871">
-      <c r="D871" s="41"/>
+      <c r="D871" s="42"/>
     </row>
     <row r="872">
-      <c r="D872" s="41"/>
+      <c r="D872" s="42"/>
     </row>
     <row r="873">
-      <c r="D873" s="41"/>
+      <c r="D873" s="42"/>
     </row>
     <row r="874">
-      <c r="D874" s="41"/>
+      <c r="D874" s="42"/>
     </row>
     <row r="875">
-      <c r="D875" s="41"/>
+      <c r="D875" s="42"/>
     </row>
     <row r="876">
-      <c r="D876" s="41"/>
+      <c r="D876" s="42"/>
     </row>
     <row r="877">
-      <c r="D877" s="41"/>
+      <c r="D877" s="42"/>
     </row>
     <row r="878">
-      <c r="D878" s="41"/>
+      <c r="D878" s="42"/>
     </row>
     <row r="879">
-      <c r="D879" s="41"/>
+      <c r="D879" s="42"/>
     </row>
     <row r="880">
-      <c r="D880" s="41"/>
+      <c r="D880" s="42"/>
     </row>
     <row r="881">
-      <c r="D881" s="41"/>
+      <c r="D881" s="42"/>
     </row>
     <row r="882">
-      <c r="D882" s="41"/>
+      <c r="D882" s="42"/>
     </row>
     <row r="883">
-      <c r="D883" s="41"/>
+      <c r="D883" s="42"/>
     </row>
     <row r="884">
-      <c r="D884" s="41"/>
+      <c r="D884" s="42"/>
     </row>
     <row r="885">
-      <c r="D885" s="41"/>
+      <c r="D885" s="42"/>
     </row>
     <row r="886">
-      <c r="D886" s="41"/>
+      <c r="D886" s="42"/>
     </row>
     <row r="887">
-      <c r="D887" s="41"/>
+      <c r="D887" s="42"/>
     </row>
     <row r="888">
-      <c r="D888" s="41"/>
+      <c r="D888" s="42"/>
     </row>
     <row r="889">
-      <c r="D889" s="41"/>
+      <c r="D889" s="42"/>
     </row>
     <row r="890">
-      <c r="D890" s="41"/>
+      <c r="D890" s="42"/>
     </row>
     <row r="891">
-      <c r="D891" s="41"/>
+      <c r="D891" s="42"/>
     </row>
     <row r="892">
-      <c r="D892" s="41"/>
+      <c r="D892" s="42"/>
     </row>
     <row r="893">
-      <c r="D893" s="41"/>
+      <c r="D893" s="42"/>
     </row>
     <row r="894">
-      <c r="D894" s="41"/>
+      <c r="D894" s="42"/>
     </row>
     <row r="895">
-      <c r="D895" s="41"/>
+      <c r="D895" s="42"/>
     </row>
     <row r="896">
-      <c r="D896" s="41"/>
+      <c r="D896" s="42"/>
     </row>
     <row r="897">
-      <c r="D897" s="41"/>
+      <c r="D897" s="42"/>
     </row>
     <row r="898">
-      <c r="D898" s="41"/>
+      <c r="D898" s="42"/>
     </row>
     <row r="899">
-      <c r="D899" s="41"/>
+      <c r="D899" s="42"/>
     </row>
     <row r="900">
-      <c r="D900" s="41"/>
+      <c r="D900" s="42"/>
     </row>
     <row r="901">
-      <c r="D901" s="41"/>
+      <c r="D901" s="42"/>
     </row>
     <row r="902">
-      <c r="D902" s="41"/>
+      <c r="D902" s="42"/>
     </row>
     <row r="903">
-      <c r="D903" s="41"/>
+      <c r="D903" s="42"/>
     </row>
     <row r="904">
-      <c r="D904" s="41"/>
+      <c r="D904" s="42"/>
     </row>
     <row r="905">
-      <c r="D905" s="41"/>
+      <c r="D905" s="42"/>
     </row>
     <row r="906">
-      <c r="D906" s="41"/>
+      <c r="D906" s="42"/>
     </row>
     <row r="907">
-      <c r="D907" s="41"/>
+      <c r="D907" s="42"/>
     </row>
     <row r="908">
-      <c r="D908" s="41"/>
+      <c r="D908" s="42"/>
     </row>
     <row r="909">
-      <c r="D909" s="41"/>
+      <c r="D909" s="42"/>
     </row>
     <row r="910">
-      <c r="D910" s="41"/>
+      <c r="D910" s="42"/>
     </row>
     <row r="911">
-      <c r="D911" s="41"/>
+      <c r="D911" s="42"/>
     </row>
     <row r="912">
-      <c r="D912" s="41"/>
+      <c r="D912" s="42"/>
     </row>
     <row r="913">
-      <c r="D913" s="41"/>
+      <c r="D913" s="42"/>
     </row>
     <row r="914">
-      <c r="D914" s="41"/>
+      <c r="D914" s="42"/>
     </row>
     <row r="915">
-      <c r="D915" s="41"/>
+      <c r="D915" s="42"/>
     </row>
     <row r="916">
-      <c r="D916" s="41"/>
+      <c r="D916" s="42"/>
     </row>
     <row r="917">
-      <c r="D917" s="41"/>
+      <c r="D917" s="42"/>
     </row>
     <row r="918">
-      <c r="D918" s="41"/>
+      <c r="D918" s="42"/>
     </row>
     <row r="919">
-      <c r="D919" s="41"/>
+      <c r="D919" s="42"/>
     </row>
     <row r="920">
-      <c r="D920" s="41"/>
+      <c r="D920" s="42"/>
     </row>
     <row r="921">
-      <c r="D921" s="41"/>
+      <c r="D921" s="42"/>
     </row>
     <row r="922">
-      <c r="D922" s="41"/>
+      <c r="D922" s="42"/>
     </row>
     <row r="923">
-      <c r="D923" s="41"/>
+      <c r="D923" s="42"/>
     </row>
     <row r="924">
-      <c r="D924" s="41"/>
+      <c r="D924" s="42"/>
     </row>
     <row r="925">
-      <c r="D925" s="41"/>
+      <c r="D925" s="42"/>
     </row>
     <row r="926">
-      <c r="D926" s="41"/>
+      <c r="D926" s="42"/>
     </row>
     <row r="927">
-      <c r="D927" s="41"/>
+      <c r="D927" s="42"/>
     </row>
     <row r="928">
-      <c r="D928" s="41"/>
+      <c r="D928" s="42"/>
     </row>
     <row r="929">
-      <c r="D929" s="41"/>
+      <c r="D929" s="42"/>
     </row>
     <row r="930">
-      <c r="D930" s="41"/>
+      <c r="D930" s="42"/>
     </row>
     <row r="931">
-      <c r="D931" s="41"/>
+      <c r="D931" s="42"/>
     </row>
     <row r="932">
-      <c r="D932" s="41"/>
+      <c r="D932" s="42"/>
     </row>
     <row r="933">
-      <c r="D933" s="41"/>
+      <c r="D933" s="42"/>
     </row>
     <row r="934">
-      <c r="D934" s="41"/>
+      <c r="D934" s="42"/>
     </row>
     <row r="935">
-      <c r="D935" s="41"/>
+      <c r="D935" s="42"/>
     </row>
     <row r="936">
-      <c r="D936" s="41"/>
+      <c r="D936" s="42"/>
     </row>
     <row r="937">
-      <c r="D937" s="41"/>
+      <c r="D937" s="42"/>
     </row>
     <row r="938">
-      <c r="D938" s="41"/>
+      <c r="D938" s="42"/>
     </row>
     <row r="939">
-      <c r="D939" s="41"/>
+      <c r="D939" s="42"/>
     </row>
     <row r="940">
-      <c r="D940" s="41"/>
+      <c r="D940" s="42"/>
     </row>
     <row r="941">
-      <c r="D941" s="41"/>
+      <c r="D941" s="42"/>
     </row>
     <row r="942">
-      <c r="D942" s="41"/>
+      <c r="D942" s="42"/>
     </row>
     <row r="943">
-      <c r="D943" s="41"/>
+      <c r="D943" s="42"/>
     </row>
     <row r="944">
-      <c r="D944" s="41"/>
+      <c r="D944" s="42"/>
     </row>
     <row r="945">
-      <c r="D945" s="41"/>
+      <c r="D945" s="42"/>
     </row>
     <row r="946">
-      <c r="D946" s="41"/>
+      <c r="D946" s="42"/>
     </row>
     <row r="947">
-      <c r="D947" s="41"/>
+      <c r="D947" s="42"/>
     </row>
     <row r="948">
-      <c r="D948" s="41"/>
+      <c r="D948" s="42"/>
     </row>
     <row r="949">
-      <c r="D949" s="41"/>
+      <c r="D949" s="42"/>
     </row>
     <row r="950">
-      <c r="D950" s="41"/>
+      <c r="D950" s="42"/>
     </row>
     <row r="951">
-      <c r="D951" s="41"/>
+      <c r="D951" s="42"/>
     </row>
     <row r="952">
-      <c r="D952" s="41"/>
+      <c r="D952" s="42"/>
     </row>
     <row r="953">
-      <c r="D953" s="41"/>
+      <c r="D953" s="42"/>
     </row>
     <row r="954">
-      <c r="D954" s="41"/>
+      <c r="D954" s="42"/>
     </row>
     <row r="955">
-      <c r="D955" s="41"/>
+      <c r="D955" s="42"/>
     </row>
     <row r="956">
-      <c r="D956" s="41"/>
+      <c r="D956" s="42"/>
     </row>
     <row r="957">
-      <c r="D957" s="41"/>
+      <c r="D957" s="42"/>
     </row>
     <row r="958">
-      <c r="D958" s="41"/>
+      <c r="D958" s="42"/>
     </row>
     <row r="959">
-      <c r="D959" s="41"/>
+      <c r="D959" s="42"/>
     </row>
     <row r="960">
-      <c r="D960" s="41"/>
+      <c r="D960" s="42"/>
     </row>
     <row r="961">
-      <c r="D961" s="41"/>
+      <c r="D961" s="42"/>
     </row>
     <row r="962">
-      <c r="D962" s="41"/>
+      <c r="D962" s="42"/>
     </row>
     <row r="963">
-      <c r="D963" s="41"/>
+      <c r="D963" s="42"/>
     </row>
     <row r="964">
-      <c r="D964" s="41"/>
+      <c r="D964" s="42"/>
     </row>
     <row r="965">
-      <c r="D965" s="41"/>
+      <c r="D965" s="42"/>
     </row>
     <row r="966">
-      <c r="D966" s="41"/>
+      <c r="D966" s="42"/>
     </row>
     <row r="967">
-      <c r="D967" s="41"/>
+      <c r="D967" s="42"/>
     </row>
     <row r="968">
-      <c r="D968" s="41"/>
+      <c r="D968" s="42"/>
     </row>
     <row r="969">
-      <c r="D969" s="41"/>
+      <c r="D969" s="42"/>
     </row>
     <row r="970">
-      <c r="D970" s="41"/>
+      <c r="D970" s="42"/>
     </row>
     <row r="971">
-      <c r="D971" s="41"/>
+      <c r="D971" s="42"/>
     </row>
     <row r="972">
-      <c r="D972" s="41"/>
+      <c r="D972" s="42"/>
     </row>
     <row r="973">
-      <c r="D973" s="41"/>
+      <c r="D973" s="42"/>
     </row>
     <row r="974">
-      <c r="D974" s="41"/>
+      <c r="D974" s="42"/>
     </row>
     <row r="975">
-      <c r="D975" s="41"/>
+      <c r="D975" s="42"/>
     </row>
     <row r="976">
-      <c r="D976" s="41"/>
+      <c r="D976" s="42"/>
     </row>
     <row r="977">
-      <c r="D977" s="41"/>
+      <c r="D977" s="42"/>
     </row>
     <row r="978">
-      <c r="D978" s="41"/>
+      <c r="D978" s="42"/>
     </row>
     <row r="979">
-      <c r="D979" s="41"/>
+      <c r="D979" s="42"/>
     </row>
     <row r="980">
-      <c r="D980" s="41"/>
+      <c r="D980" s="42"/>
     </row>
     <row r="981">
-      <c r="D981" s="41"/>
+      <c r="D981" s="42"/>
     </row>
     <row r="982">
-      <c r="D982" s="41"/>
+      <c r="D982" s="42"/>
     </row>
     <row r="983">
-      <c r="D983" s="41"/>
+      <c r="D983" s="42"/>
     </row>
     <row r="984">
-      <c r="D984" s="41"/>
+      <c r="D984" s="42"/>
     </row>
     <row r="985">
-      <c r="D985" s="41"/>
+      <c r="D985" s="42"/>
     </row>
     <row r="986">
-      <c r="D986" s="41"/>
+      <c r="D986" s="42"/>
     </row>
     <row r="987">
-      <c r="D987" s="41"/>
+      <c r="D987" s="42"/>
     </row>
     <row r="988">
-      <c r="D988" s="41"/>
+      <c r="D988" s="42"/>
     </row>
     <row r="989">
-      <c r="D989" s="41"/>
+      <c r="D989" s="42"/>
     </row>
     <row r="990">
-      <c r="D990" s="41"/>
+      <c r="D990" s="42"/>
     </row>
     <row r="991">
-      <c r="D991" s="41"/>
+      <c r="D991" s="42"/>
     </row>
     <row r="992">
-      <c r="D992" s="41"/>
+      <c r="D992" s="42"/>
     </row>
     <row r="993">
-      <c r="D993" s="41"/>
+      <c r="D993" s="42"/>
     </row>
     <row r="994">
-      <c r="D994" s="41"/>
+      <c r="D994" s="42"/>
     </row>
     <row r="995">
-      <c r="D995" s="41"/>
+      <c r="D995" s="42"/>
     </row>
     <row r="996">
-      <c r="D996" s="41"/>
+      <c r="D996" s="42"/>
     </row>
     <row r="997">
-      <c r="D997" s="41"/>
+      <c r="D997" s="42"/>
     </row>
     <row r="998">
-      <c r="D998" s="41"/>
+      <c r="D998" s="42"/>
     </row>
     <row r="999">
-      <c r="D999" s="41"/>
+      <c r="D999" s="42"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="41"/>
+      <c r="D1000" s="42"/>
     </row>
     <row r="1001">
-      <c r="D1001" s="41"/>
+      <c r="D1001" s="42"/>
     </row>
     <row r="1002">
-      <c r="D1002" s="41"/>
+      <c r="D1002" s="42"/>
     </row>
     <row r="1003">
-      <c r="D1003" s="41"/>
+      <c r="D1003" s="42"/>
     </row>
     <row r="1004">
-      <c r="D1004" s="41"/>
+      <c r="D1004" s="42"/>
     </row>
     <row r="1005">
-      <c r="D1005" s="41"/>
+      <c r="D1005" s="42"/>
     </row>
     <row r="1006">
-      <c r="D1006" s="41"/>
+      <c r="D1006" s="42"/>
     </row>
     <row r="1007">
-      <c r="D1007" s="41"/>
+      <c r="D1007" s="42"/>
     </row>
     <row r="1008">
-      <c r="D1008" s="41"/>
+      <c r="D1008" s="42"/>
     </row>
     <row r="1009">
-      <c r="D1009" s="41"/>
+      <c r="D1009" s="42"/>
+    </row>
+    <row r="1010">
+      <c r="D1010" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4557,14 +4748,21 @@
     <hyperlink r:id="rId28" ref="B33"/>
     <hyperlink r:id="rId29" ref="B34"/>
     <hyperlink r:id="rId30" ref="B35"/>
+    <hyperlink r:id="rId31" ref="B36"/>
+    <hyperlink r:id="rId32" ref="B37"/>
+    <hyperlink r:id="rId33" ref="B38"/>
+    <hyperlink r:id="rId34" ref="B39"/>
+    <hyperlink r:id="rId35" ref="B40"/>
+    <hyperlink r:id="rId36" ref="B41"/>
   </hyperlinks>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF95B3D7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -4586,46 +4784,46 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4633,176 +4831,207 @@
       <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="29"/>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>34</v>
+      <c r="D8" s="36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="E11" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D12" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="D13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="D14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="D15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="30" t="s">
+      <c r="D16" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="30" t="s">
+      <c r="D17" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>92</v>
+      <c r="D18" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4823,15 +5052,17 @@
     <hyperlink r:id="rId9" ref="B14"/>
     <hyperlink r:id="rId10" ref="B15"/>
     <hyperlink r:id="rId11" ref="B16"/>
+    <hyperlink r:id="rId12" ref="B17"/>
+    <hyperlink r:id="rId13" ref="B18"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFCC0000"/>
+    <tabColor rgb="FFEA9999"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -4855,23 +5086,23 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
+      <c r="A2" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4">
@@ -4882,136 +5113,136 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>17</v>
+      <c r="D6" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>29</v>
+      <c r="D7" s="32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="s">
-        <v>27</v>
+      <c r="A8" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="30" t="s">
-        <v>35</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>46</v>
+      <c r="D10" s="32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>37</v>
+      <c r="D11" s="32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>64</v>
+      <c r="D12" s="32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
